--- a/Excel analysis.xlsx
+++ b/Excel analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\center1.ad.local\dfs$\IS\RVK\Desktop02\sigurdurbl\Desktop\Lokaverkefni\lokaverkefni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE5E6D1-0F85-4E94-920D-D8B783ACF3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37195CCE-DDB4-4E79-BA4E-057F63D5CA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="1" activeTab="1" xr2:uid="{7BF73346-0D43-4314-BA2A-4057E7B8971F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="3" activeTab="8" xr2:uid="{7BF73346-0D43-4314-BA2A-4057E7B8971F}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Regression EUR 04-07" sheetId="5" r:id="rId4"/>
     <sheet name="Regression EUR 04-15" sheetId="6" r:id="rId5"/>
     <sheet name="Returns" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="46">
   <si>
     <t>Dates</t>
   </si>
@@ -177,6 +180,9 @@
   <si>
     <t>Predicted</t>
   </si>
+  <si>
+    <t>X Variable 2</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +190,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -275,7 +281,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10425,7 +10431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D682B6D-3A26-4192-91B0-A04683484E86}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -11004,7 +11010,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11026,48 +11032,48 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>0.27185905129827603</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>7.3907343772798673E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>5.1857518624531973E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>5.9017612361793786E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="5">
         <v>44</v>
       </c>
     </row>
@@ -11077,162 +11083,160 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>1.167469961541312E-2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12">
         <v>1.167469961541312E-2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>3.3518335531385568</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12">
         <v>7.4231210937320852E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>42</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13">
         <v>0.14628929989325209</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13">
         <v>3.4830785688869546E-3</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="5">
         <v>43</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="5">
         <v>0.15796399950866521</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17">
         <v>1.3868823042698118E-2</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17">
         <v>9.2604521027524703E-3</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17">
         <v>1.4976399520036294</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17">
         <v>0.14170529526951284</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17">
         <v>-4.8195259056932477E-3</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17">
         <v>3.2557171991089484E-2</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17">
         <v>-4.8195259056932477E-3</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17">
         <v>3.2557171991089484E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="5">
         <v>0.67590886918506299</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="5">
         <v>0.36918744472862225</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="5">
         <v>1.8308013418005094</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="5">
         <v>7.423121093732131E-2</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="5">
         <v>-6.9141557932066E-2</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="5">
         <v>1.420959296302192</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="5">
         <v>-6.9141557932066E-2</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="5">
         <v>1.420959296302192</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>6.9560654041793991E-3</v>
+        <v>6.9560654041794E-3</v>
       </c>
       <c r="C22">
         <f>B18*A22</f>
@@ -11264,48 +11268,48 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>0.47125592039170922</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>0.222082142504237</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>0.21644505658035468</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>7.9011690612015073E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="5">
         <v>140</v>
       </c>
     </row>
@@ -11315,156 +11319,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>0.24594709253606373</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12">
         <v>0.24594709253606373</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>39.396621854450267</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12">
         <v>4.1890781412855352E-9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>138</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13">
         <v>0.86151292096489318</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13">
         <v>6.2428472533687914E-3</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="5">
         <v>139</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="5">
         <v>1.1074600135009569</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17">
         <v>-1.5336596435046978E-3</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17">
         <v>6.6933524577564288E-3</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17">
         <v>-0.22913176217508965</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17">
         <v>0.81910573879243576</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17">
         <v>-1.4768449166265992E-2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17">
         <v>1.1701129879256597E-2</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17">
         <v>-1.4768449166265992E-2</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17">
         <v>1.1701129879256597E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="5">
         <v>1.0049391571931092</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="5">
         <v>0.1601069840513214</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="5">
         <v>6.2766728331537465</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="5">
         <v>4.1890781412855054E-9</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="5">
         <v>0.6883590505250663</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="5">
         <v>1.3215192638611521</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="5">
         <v>0.6883590505250663</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="5">
         <v>1.3215192638611521</v>
       </c>
     </row>
@@ -11492,8 +11494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769B459E-B4D8-4084-9A9E-6B3AAAD97719}">
   <dimension ref="A1:Q238"/>
   <sheetViews>
-    <sheetView topLeftCell="H30" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W100" sqref="W100"/>
+    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24693,4 +24695,8590 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2721DBBF-6100-4CE6-8296-6919A75BF8A9}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.32352269019864088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.10466693107336576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14">
+        <v>6.0992147223286046E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5.8644500245947535E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.6484026392101725E-2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>8.2420131960508625E-3</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2.396507134016983</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.10367757244047124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="14">
+        <v>41</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.14100627377297456</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3.4391774090969406E-3</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.15749030016507629</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1.4870241791731919E-2</v>
+      </c>
+      <c r="C17" s="14">
+        <v>9.5633822794084864E-3</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.5549145017187027</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.12765261664767469</v>
+      </c>
+      <c r="F17" s="14">
+        <v>-4.4434005375265616E-3</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3.4183884120990396E-2</v>
+      </c>
+      <c r="H17" s="14">
+        <v>-4.4434005375265616E-3</v>
+      </c>
+      <c r="I17" s="14">
+        <v>3.4183884120990396E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="14">
+        <v>-0.7341830661739831</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.60094608318114462</v>
+      </c>
+      <c r="D18" s="14">
+        <v>-1.2217120415987079</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.22879469121693588</v>
+      </c>
+      <c r="F18" s="14">
+        <v>-1.9478183021845763</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.47945216983660999</v>
+      </c>
+      <c r="H18" s="14">
+        <v>-1.9478183021845763</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.47945216983660999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1.1657168789577566</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.54907433446205534</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2.1230584017368876</v>
+      </c>
+      <c r="E19" s="15">
+        <v>3.9832122584274217E-2</v>
+      </c>
+      <c r="F19" s="15">
+        <v>5.6838764693804222E-2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>2.2745949932217089</v>
+      </c>
+      <c r="H19" s="15">
+        <v>5.6838764693804222E-2</v>
+      </c>
+      <c r="I19" s="15">
+        <v>2.2745949932217089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D547D3D8-B895-4294-AF14-264BC6A184B2}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.26846390783082702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="14">
+        <v>7.2072869807798784E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4.9979366707984474E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5.8987392168901649E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.1350777899788694E-2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1.1350777899788694E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3.262174834030938</v>
+      </c>
+      <c r="F12" s="14">
+        <v>7.8064488830760947E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="14">
+        <v>42</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.14613952226528759</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3.4795124348878E-3</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.15749030016507629</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1.4924063370598078E-2</v>
+      </c>
+      <c r="C17" s="14">
+        <v>9.6191969099174868E-3</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.5514874589178251</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.12828845099808625</v>
+      </c>
+      <c r="F17" s="14">
+        <v>-4.4882619091141385E-3</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3.4336388650310294E-2</v>
+      </c>
+      <c r="H17" s="14">
+        <v>-4.4882619091141385E-3</v>
+      </c>
+      <c r="I17" s="14">
+        <v>3.4336388650310294E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.66681498334545319</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.36919153380341335</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1.8061491726961378</v>
+      </c>
+      <c r="E18" s="15">
+        <v>7.8064488830760725E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>-7.8243695858693174E-2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1.4118736625495996</v>
+      </c>
+      <c r="H18" s="15">
+        <v>-7.8243695858693174E-2</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1.4118736625495996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923478B-1761-42CF-BD3F-5EBC3C9F30CD}">
+  <dimension ref="A1:J238"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>38107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>38138</v>
+      </c>
+      <c r="B3" s="3">
+        <f>(Indices!B3-Indices!B2)/Indices!B2</f>
+        <v>-1.1755418810572389E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <f>(Indices!C3-Indices!C2)/Indices!C2</f>
+        <v>-3.079824010056564E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f>(Indices!D3-Indices!D2)/Indices!D2</f>
+        <v>-4.0058706725372298E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <f>(Indices!E3-Indices!E2)/Indices!E2</f>
+        <v>1.2074306201515492E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(Indices!G3-Indices!G2)/Indices!G2</f>
+        <v>-7.1114829533571091E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>(Indices!H3-Indices!H2)/Indices!H2</f>
+        <v>-1.2179848360504768E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(Indices!I3-Indices!I2)/Indices!I2</f>
+        <v>-1.2179848360504768E-3</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>38168</v>
+      </c>
+      <c r="B4" s="3">
+        <f>(Indices!B4-Indices!B3)/Indices!B3</f>
+        <v>8.8300114525489151E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <f>(Indices!C4-Indices!C3)/Indices!C3</f>
+        <v>2.8534370946822332E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <f>(Indices!D4-Indices!D3)/Indices!D3</f>
+        <v>5.6515784546573352E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <f>(Indices!E4-Indices!E3)/Indices!E3</f>
+        <v>1.7989078059749308E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>(Indices!G4-Indices!G3)/Indices!G3</f>
+        <v>1.4788287339372317E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <f>(Indices!H4-Indices!H3)/Indices!H3</f>
+        <v>2.3760888810537748E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <f>(Indices!I4-Indices!I3)/Indices!I3</f>
+        <v>2.3760888810537748E-3</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>38198</v>
+      </c>
+      <c r="B5" s="3">
+        <f>(Indices!B5-Indices!B4)/Indices!B4</f>
+        <v>4.8203958189632294E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <f>(Indices!C5-Indices!C4)/Indices!C4</f>
+        <v>1.0718789407313937E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <f>(Indices!D5-Indices!D4)/Indices!D4</f>
+        <v>9.9122549949145818E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <f>(Indices!E5-Indices!E4)/Indices!E4</f>
+        <v>-3.4290522772693711E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>(Indices!G5-Indices!G4)/Indices!G4</f>
+        <v>-1.8516980818732907E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <f>(Indices!H5-Indices!H4)/Indices!H4</f>
+        <v>9.9803863844040285E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(Indices!I5-Indices!I4)/Indices!I4</f>
+        <v>9.9803863844040285E-3</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>38230</v>
+      </c>
+      <c r="B6" s="3">
+        <f>(Indices!B6-Indices!B5)/Indices!B5</f>
+        <v>8.3183586005585064E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <f>(Indices!C6-Indices!C5)/Indices!C5</f>
+        <v>2.1210230817217735E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(Indices!D6-Indices!D5)/Indices!D5</f>
+        <v>1.9075174108971655E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <f>(Indices!E6-Indices!E5)/Indices!E5</f>
+        <v>2.287332534582273E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(Indices!G6-Indices!G5)/Indices!G5</f>
+        <v>-1.1717428087986507E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <f>(Indices!H6-Indices!H5)/Indices!H5</f>
+        <v>1.1247583881794197E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <f>(Indices!I6-Indices!I5)/Indices!I5</f>
+        <v>1.1247583881794197E-2</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>38260</v>
+      </c>
+      <c r="B7" s="3">
+        <f>(Indices!B7-Indices!B6)/Indices!B6</f>
+        <v>0.1196404788423044</v>
+      </c>
+      <c r="C7" s="3">
+        <f>(Indices!C7-Indices!C6)/Indices!C6</f>
+        <v>1.8326206475258958E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <f>(Indices!D7-Indices!D6)/Indices!D6</f>
+        <v>2.7134996608125499E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <f>(Indices!E7-Indices!E6)/Indices!E6</f>
+        <v>9.3639063971599629E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <f>(Indices!G7-Indices!G6)/Indices!G6</f>
+        <v>1.7591918846038668E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <f>(Indices!H7-Indices!H6)/Indices!H6</f>
+        <v>3.0785978304570657E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(Indices!I7-Indices!I6)/Indices!I6</f>
+        <v>3.0785978304570657E-3</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>38289</v>
+      </c>
+      <c r="B8" s="3">
+        <f>(Indices!B8-Indices!B7)/Indices!B7</f>
+        <v>-0.10491534148614991</v>
+      </c>
+      <c r="C8" s="3">
+        <f>(Indices!C8-Indices!C7)/Indices!C7</f>
+        <v>6.7073170731708062E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <f>(Indices!D8-Indices!D7)/Indices!D7</f>
+        <v>8.3857442348008078E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <f>(Indices!E8-Indices!E7)/Indices!E7</f>
+        <v>1.4014247519245024E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f>(Indices!G8-Indices!G7)/Indices!G7</f>
+        <v>1.076806595440398E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(Indices!H8-Indices!H7)/Indices!H7</f>
+        <v>8.0274073825278326E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(Indices!I8-Indices!I7)/Indices!I7</f>
+        <v>8.0274073825278326E-3</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>38321</v>
+      </c>
+      <c r="B9" s="3">
+        <f>(Indices!B9-Indices!B8)/Indices!B8</f>
+        <v>1.6141817955732392E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <f>(Indices!C9-Indices!C8)/Indices!C8</f>
+        <v>1.9382192610539084E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <f>(Indices!D9-Indices!D8)/Indices!D8</f>
+        <v>-7.9764103668485166E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <f>(Indices!E9-Indices!E8)/Indices!E8</f>
+        <v>3.8594938948858508E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>(Indices!G9-Indices!G8)/Indices!G8</f>
+        <v>2.5842696629213398E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <f>(Indices!H9-Indices!H8)/Indices!H8</f>
+        <v>1.0990418647355801E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <f>(Indices!I9-Indices!I8)/Indices!I8</f>
+        <v>1.0990418647355801E-2</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4">
+        <f>AVERAGE(B3:B46)</f>
+        <v>2.1547762071287082E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>38352</v>
+      </c>
+      <c r="B10" s="3">
+        <f>(Indices!B10-Indices!B9)/Indices!B9</f>
+        <v>-2.0015449448944216E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <f>(Indices!C10-Indices!C9)/Indices!C9</f>
+        <v>9.5068330362448085E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <f>(Indices!D10-Indices!D9)/Indices!D9</f>
+        <v>9.2011221695277381E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <f>(Indices!E10-Indices!E9)/Indices!E9</f>
+        <v>3.2458128162750795E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f>(Indices!G10-Indices!G9)/Indices!G9</f>
+        <v>1.8660500588211525E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>(Indices!H10-Indices!H9)/Indices!H9</f>
+        <v>3.8362862288456373E-3</v>
+      </c>
+      <c r="H10" s="3">
+        <f>(Indices!I10-Indices!I9)/Indices!I9</f>
+        <v>3.8362862288456373E-3</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10">
+        <f>POWER(1.02155,12)</f>
+        <v>1.2915628289872185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>38383</v>
+      </c>
+      <c r="B11" s="3">
+        <f>(Indices!B11-Indices!B10)/Indices!B10</f>
+        <v>9.3965597977086202E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <f>(Indices!C11-Indices!C10)/Indices!C10</f>
+        <v>1.1771630370806366E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(Indices!D11-Indices!D10)/Indices!D10</f>
+        <v>6.2794738148423245E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <f>(Indices!E11-Indices!E10)/Indices!E10</f>
+        <v>-2.5290448214403665E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>(Indices!G11-Indices!G10)/Indices!G10</f>
+        <v>2.2858508223487749E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <f>(Indices!H11-Indices!H10)/Indices!H10</f>
+        <v>1.2935742265732283E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <f>(Indices!I11-Indices!I10)/Indices!I10</f>
+        <v>1.2935742265732283E-2</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>38411</v>
+      </c>
+      <c r="B12" s="3">
+        <f>(Indices!B12-Indices!B11)/Indices!B11</f>
+        <v>2.6360471420825874E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(Indices!C12-Indices!C11)/Indices!C11</f>
+        <v>9.3077370564281642E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(Indices!D12-Indices!D11)/Indices!D11</f>
+        <v>-5.903197428244961E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <f>(Indices!E12-Indices!E11)/Indices!E11</f>
+        <v>1.890338364641439E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f>(Indices!G12-Indices!G11)/Indices!G11</f>
+        <v>2.8966322756472637E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <f>(Indices!H12-Indices!H11)/Indices!H11</f>
+        <v>-2.9531436934897948E-3</v>
+      </c>
+      <c r="H12" s="3">
+        <f>(Indices!I12-Indices!I11)/Indices!I11</f>
+        <v>-2.9531436934897948E-3</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>38442</v>
+      </c>
+      <c r="B13" s="3">
+        <f>(Indices!B13-Indices!B12)/Indices!B12</f>
+        <v>4.1760792954603852E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <f>(Indices!C13-Indices!C12)/Indices!C12</f>
+        <v>-1.0374639769452458E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f>(Indices!D13-Indices!D12)/Indices!D12</f>
+        <v>-5.1360091306827411E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <f>(Indices!E13-Indices!E12)/Indices!E12</f>
+        <v>-1.9117647058823524E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f>(Indices!G13-Indices!G12)/Indices!G12</f>
+        <v>-7.945817094858006E-3</v>
+      </c>
+      <c r="G13" s="3">
+        <f>(Indices!H13-Indices!H12)/Indices!H12</f>
+        <v>4.0079436460584116E-3</v>
+      </c>
+      <c r="H13" s="3">
+        <f>(Indices!I13-Indices!I12)/Indices!I12</f>
+        <v>4.0079436460584116E-3</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>38471</v>
+      </c>
+      <c r="B14" s="3">
+        <f>(Indices!B14-Indices!B13)/Indices!B13</f>
+        <v>4.7292743953294483E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <f>(Indices!C14-Indices!C13)/Indices!C13</f>
+        <v>1.1065812463599245E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>(Indices!D14-Indices!D13)/Indices!D13</f>
+        <v>1.3533959597639015E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <f>(Indices!E14-Indices!E13)/Indices!E13</f>
+        <v>-2.0108589772910163E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f>(Indices!G14-Indices!G13)/Indices!G13</f>
+        <v>-2.3379991609138395E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(Indices!H14-Indices!H13)/Indices!H13</f>
+        <v>1.4938131341294859E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <f>(Indices!I14-Indices!I13)/Indices!I13</f>
+        <v>1.4938131341294859E-2</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>38503</v>
+      </c>
+      <c r="B15" s="3">
+        <f>(Indices!B15-Indices!B14)/Indices!B14</f>
+        <v>-1.1798958990335435E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <f>(Indices!C15-Indices!C14)/Indices!C14</f>
+        <v>-2.8801843317971735E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <f>(Indices!D15-Indices!D14)/Indices!D14</f>
+        <v>1.0818747026689928E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <f>(Indices!E15-Indices!E14)/Indices!E14</f>
+        <v>2.9952024895189604E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f>(Indices!G15-Indices!G14)/Indices!G14</f>
+        <v>4.3856908537061694E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <f>(Indices!H15-Indices!H14)/Indices!H14</f>
+        <v>1.1411779718693109E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <f>(Indices!I15-Indices!I14)/Indices!I14</f>
+        <v>1.1411779718693109E-2</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>38533</v>
+      </c>
+      <c r="B16" s="3">
+        <f>(Indices!B16-Indices!B15)/Indices!B15</f>
+        <v>2.1139699956805251E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <f>(Indices!C16-Indices!C15)/Indices!C15</f>
+        <v>9.2432120161756292E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <f>(Indices!D16-Indices!D15)/Indices!D15</f>
+        <v>5.4529078117773301E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <f>(Indices!E16-Indices!E15)/Indices!E15</f>
+        <v>-1.4267729752419031E-4</v>
+      </c>
+      <c r="F16" s="3">
+        <f>(Indices!G16-Indices!G15)/Indices!G15</f>
+        <v>3.2287029069549909E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <f>(Indices!H16-Indices!H15)/Indices!H15</f>
+        <v>1.1824145537434777E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <f>(Indices!I16-Indices!I15)/Indices!I15</f>
+        <v>1.1824145537434777E-2</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>38562</v>
+      </c>
+      <c r="B17" s="3">
+        <f>(Indices!B17-Indices!B16)/Indices!B16</f>
+        <v>3.7590756992234332E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <f>(Indices!C17-Indices!C16)/Indices!C16</f>
+        <v>-8.5861476817401961E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(Indices!D17-Indices!D16)/Indices!D16</f>
+        <v>-9.0953845160561247E-3</v>
+      </c>
+      <c r="E17" s="3">
+        <f>(Indices!E17-Indices!E16)/Indices!E16</f>
+        <v>3.5968203604375061E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>(Indices!G17-Indices!G16)/Indices!G16</f>
+        <v>3.3016816468541446E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <f>(Indices!H17-Indices!H16)/Indices!H16</f>
+        <v>-6.8145637834025781E-3</v>
+      </c>
+      <c r="H17" s="3">
+        <f>(Indices!I17-Indices!I16)/Indices!I16</f>
+        <v>-6.8145637834025781E-3</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>38595</v>
+      </c>
+      <c r="B18" s="3">
+        <f>(Indices!B18-Indices!B17)/Indices!B17</f>
+        <v>7.7696782358954414E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <f>(Indices!C18-Indices!C17)/Indices!C17</f>
+        <v>8.0831408775981599E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <f>(Indices!D18-Indices!D17)/Indices!D17</f>
+        <v>1.2819468651756781E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <f>(Indices!E18-Indices!E17)/Indices!E17</f>
+        <v>-1.1222025960556917E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f>(Indices!G18-Indices!G17)/Indices!G17</f>
+        <v>-7.3676455109981248E-4</v>
+      </c>
+      <c r="G18" s="3">
+        <f>(Indices!H18-Indices!H17)/Indices!H17</f>
+        <v>1.1388801894971665E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <f>(Indices!I18-Indices!I17)/Indices!I17</f>
+        <v>1.1388801894971665E-2</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>38625</v>
+      </c>
+      <c r="B19" s="3">
+        <f>(Indices!B19-Indices!B18)/Indices!B18</f>
+        <v>-8.52563052966193E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <f>(Indices!C19-Indices!C18)/Indices!C18</f>
+        <v>8.5910652920961634E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <f>(Indices!D19-Indices!D18)/Indices!D18</f>
+        <v>-1.0309112547846454E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <f>(Indices!E19-Indices!E18)/Indices!E18</f>
+        <v>6.9489400408086488E-3</v>
+      </c>
+      <c r="F19" s="3">
+        <f>(Indices!G19-Indices!G18)/Indices!G18</f>
+        <v>4.4168246611895175E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <f>(Indices!H19-Indices!H18)/Indices!H18</f>
+        <v>-7.2826732376247787E-4</v>
+      </c>
+      <c r="H19" s="3">
+        <f>(Indices!I19-Indices!I18)/Indices!I18</f>
+        <v>-7.2826732376247787E-4</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>38656</v>
+      </c>
+      <c r="B20" s="3">
+        <f>(Indices!B20-Indices!B19)/Indices!B19</f>
+        <v>1.5005438403671996E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <f>(Indices!C20-Indices!C19)/Indices!C19</f>
+        <v>-2.4202157864849451E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <f>(Indices!D20-Indices!D19)/Indices!D19</f>
+        <v>-7.9139379560264622E-3</v>
+      </c>
+      <c r="E20" s="3">
+        <f>(Indices!E20-Indices!E19)/Indices!E19</f>
+        <v>-1.774074104214643E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <f>(Indices!G20-Indices!G19)/Indices!G19</f>
+        <v>-2.3907195696032137E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <f>(Indices!H20-Indices!H19)/Indices!H19</f>
+        <v>-8.2176124823234893E-3</v>
+      </c>
+      <c r="H20" s="3">
+        <f>(Indices!I20-Indices!I19)/Indices!I19</f>
+        <v>-8.2176124823234893E-3</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>38686</v>
+      </c>
+      <c r="B21" s="3">
+        <f>(Indices!B21-Indices!B20)/Indices!B20</f>
+        <v>8.7209237087489663E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <f>(Indices!C21-Indices!C20)/Indices!C20</f>
+        <v>-1.2913325341309798E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <f>(Indices!D21-Indices!D20)/Indices!D20</f>
+        <v>4.4226044226044975E-3</v>
+      </c>
+      <c r="E21" s="3">
+        <f>(Indices!E21-Indices!E20)/Indices!E20</f>
+        <v>3.5186121076047447E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <f>(Indices!G21-Indices!G20)/Indices!G20</f>
+        <v>3.16235488649282E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <f>(Indices!H21-Indices!H20)/Indices!H20</f>
+        <v>3.2009931429154555E-4</v>
+      </c>
+      <c r="H21" s="3">
+        <f>(Indices!I21-Indices!I20)/Indices!I20</f>
+        <v>3.2009931429154555E-4</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>38716</v>
+      </c>
+      <c r="B22" s="3">
+        <f>(Indices!B22-Indices!B21)/Indices!B21</f>
+        <v>7.991970358444031E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <f>(Indices!C22-Indices!C21)/Indices!C21</f>
+        <v>1.1460980196793933E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <f>(Indices!D22-Indices!D21)/Indices!D21</f>
+        <v>9.5075016307891828E-3</v>
+      </c>
+      <c r="E22" s="3">
+        <f>(Indices!E22-Indices!E21)/Indices!E21</f>
+        <v>-9.5239619681791992E-4</v>
+      </c>
+      <c r="F22" s="3">
+        <f>(Indices!G22-Indices!G21)/Indices!G21</f>
+        <v>3.5262296724212591E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <f>(Indices!H22-Indices!H21)/Indices!H21</f>
+        <v>7.7480984533020046E-3</v>
+      </c>
+      <c r="H22" s="3">
+        <f>(Indices!I22-Indices!I21)/Indices!I21</f>
+        <v>7.7480984533020046E-3</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>38748</v>
+      </c>
+      <c r="B23" s="3">
+        <f>(Indices!B23-Indices!B22)/Indices!B22</f>
+        <v>0.1144125503538507</v>
+      </c>
+      <c r="C23" s="3">
+        <f>(Indices!C23-Indices!C22)/Indices!C22</f>
+        <v>-1.9491382174478131E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f>(Indices!D23-Indices!D22)/Indices!D22</f>
+        <v>5.6540070755992209E-5</v>
+      </c>
+      <c r="E23" s="3">
+        <f>(Indices!E23-Indices!E22)/Indices!E22</f>
+        <v>2.547484959424489E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <f>(Indices!G23-Indices!G22)/Indices!G22</f>
+        <v>3.551269232009821E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <f>(Indices!H23-Indices!H22)/Indices!H22</f>
+        <v>-2.9406648387603632E-3</v>
+      </c>
+      <c r="H23" s="3">
+        <f>(Indices!I23-Indices!I22)/Indices!I22</f>
+        <v>-2.9406648387603632E-3</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>38776</v>
+      </c>
+      <c r="B24" s="3">
+        <f>(Indices!B24-Indices!B23)/Indices!B23</f>
+        <v>6.6428828705212453E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <f>(Indices!C24-Indices!C23)/Indices!C23</f>
+        <v>3.0501905254459939E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f>(Indices!D24-Indices!D23)/Indices!D23</f>
+        <v>3.3195221826463291E-3</v>
+      </c>
+      <c r="E24" s="3">
+        <f>(Indices!E24-Indices!E23)/Indices!E23</f>
+        <v>4.4528119116637403E-4</v>
+      </c>
+      <c r="F24" s="3">
+        <f>(Indices!G24-Indices!G23)/Indices!G23</f>
+        <v>2.1305756292050757E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <f>(Indices!H24-Indices!H23)/Indices!H23</f>
+        <v>1.8741449689558308E-3</v>
+      </c>
+      <c r="H24" s="3">
+        <f>(Indices!I24-Indices!I23)/Indices!I23</f>
+        <v>1.8741449689558308E-3</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>38807</v>
+      </c>
+      <c r="B25" s="3">
+        <f>(Indices!B25-Indices!B24)/Indices!B24</f>
+        <v>-8.7288503602676329E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <f>(Indices!C25-Indices!C24)/Indices!C24</f>
+        <v>3.9803865012971295E-4</v>
+      </c>
+      <c r="D25" s="3">
+        <f>(Indices!D25-Indices!D24)/Indices!D24</f>
+        <v>-9.8129185986605277E-3</v>
+      </c>
+      <c r="E25" s="3">
+        <f>(Indices!E25-Indices!E24)/Indices!E24</f>
+        <v>1.1064607311854704E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <f>(Indices!G25-Indices!G24)/Indices!G24</f>
+        <v>2.0007319751128468E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <f>(Indices!H25-Indices!H24)/Indices!H24</f>
+        <v>-1.6644334630871883E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <f>(Indices!I25-Indices!I24)/Indices!I24</f>
+        <v>-1.6644334630871883E-2</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>38835</v>
+      </c>
+      <c r="B26" s="3">
+        <f>(Indices!B26-Indices!B25)/Indices!B25</f>
+        <v>-5.2833762858212667E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <f>(Indices!C26-Indices!C25)/Indices!C25</f>
+        <v>1.1601958262935514E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <f>(Indices!D26-Indices!D25)/Indices!D25</f>
+        <v>-1.8129344335596263E-3</v>
+      </c>
+      <c r="E26" s="3">
+        <f>(Indices!E26-Indices!E25)/Indices!E25</f>
+        <v>1.2186928013716066E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <f>(Indices!G26-Indices!G25)/Indices!G25</f>
+        <v>6.0997488338716075E-3</v>
+      </c>
+      <c r="G26" s="3">
+        <f>(Indices!H26-Indices!H25)/Indices!H25</f>
+        <v>-5.881183095305424E-3</v>
+      </c>
+      <c r="H26" s="3">
+        <f>(Indices!I26-Indices!I25)/Indices!I25</f>
+        <v>-5.881183095305424E-3</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>38868</v>
+      </c>
+      <c r="B27" s="3">
+        <f>(Indices!B27-Indices!B26)/Indices!B26</f>
+        <v>1.9195170277485782E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <f>(Indices!C27-Indices!C26)/Indices!C26</f>
+        <v>2.6261037102906587E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f>(Indices!D27-Indices!D26)/Indices!D26</f>
+        <v>-1.0669316349301572E-3</v>
+      </c>
+      <c r="E27" s="3">
+        <f>(Indices!E27-Indices!E26)/Indices!E26</f>
+        <v>-3.0916901290238885E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <f>(Indices!G27-Indices!G26)/Indices!G26</f>
+        <v>-5.2365668093200202E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <f>(Indices!H27-Indices!H26)/Indices!H26</f>
+        <v>4.8188802271099864E-3</v>
+      </c>
+      <c r="H27" s="3">
+        <f>(Indices!I27-Indices!I26)/Indices!I26</f>
+        <v>4.8188802271099864E-3</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>38898</v>
+      </c>
+      <c r="B28" s="3">
+        <f>(Indices!B28-Indices!B27)/Indices!B27</f>
+        <v>-4.560783830529052E-2</v>
+      </c>
+      <c r="C28" s="3">
+        <f>(Indices!C28-Indices!C27)/Indices!C27</f>
+        <v>2.9160510558881884E-3</v>
+      </c>
+      <c r="D28" s="3">
+        <f>(Indices!D28-Indices!D27)/Indices!D27</f>
+        <v>2.1198359573096908E-3</v>
+      </c>
+      <c r="E28" s="3">
+        <f>(Indices!E28-Indices!E27)/Indices!E27</f>
+        <v>8.6608035651117117E-5</v>
+      </c>
+      <c r="F28" s="3">
+        <f>(Indices!G28-Indices!G27)/Indices!G27</f>
+        <v>5.6451107068933425E-3</v>
+      </c>
+      <c r="G28" s="3">
+        <f>(Indices!H28-Indices!H27)/Indices!H27</f>
+        <v>-5.4704279610905846E-3</v>
+      </c>
+      <c r="H28" s="3">
+        <f>(Indices!I28-Indices!I27)/Indices!I27</f>
+        <v>-5.4704279610905846E-3</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>38929</v>
+      </c>
+      <c r="B29" s="3">
+        <f>(Indices!B29-Indices!B28)/Indices!B28</f>
+        <v>-3.090348339589255E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <f>(Indices!C29-Indices!C28)/Indices!C28</f>
+        <v>4.984409873562079E-3</v>
+      </c>
+      <c r="D29" s="3">
+        <f>(Indices!D29-Indices!D28)/Indices!D28</f>
+        <v>1.3521979318368673E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <f>(Indices!E29-Indices!E28)/Indices!E28</f>
+        <v>5.0858132577547123E-3</v>
+      </c>
+      <c r="F29" s="3">
+        <f>(Indices!G29-Indices!G28)/Indices!G28</f>
+        <v>1.6777895590344899E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <f>(Indices!H29-Indices!H28)/Indices!H28</f>
+        <v>1.2855056112217281E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <f>(Indices!I29-Indices!I28)/Indices!I28</f>
+        <v>1.2855056112217281E-2</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>38960</v>
+      </c>
+      <c r="B30" s="3">
+        <f>(Indices!B30-Indices!B29)/Indices!B29</f>
+        <v>0.12856734033314909</v>
+      </c>
+      <c r="C30" s="3">
+        <f>(Indices!C30-Indices!C29)/Indices!C29</f>
+        <v>1.8874371083912485E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f>(Indices!D30-Indices!D29)/Indices!D29</f>
+        <v>1.5308293129329738E-2</v>
+      </c>
+      <c r="E30" s="3">
+        <f>(Indices!E30-Indices!E29)/Indices!E29</f>
+        <v>2.1274262528785937E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <f>(Indices!G30-Indices!G29)/Indices!G29</f>
+        <v>2.6653171390013487E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <f>(Indices!H30-Indices!H29)/Indices!H29</f>
+        <v>1.2613680965570515E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <f>(Indices!I30-Indices!I29)/Indices!I29</f>
+        <v>1.2613680965570515E-2</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>38989</v>
+      </c>
+      <c r="B31" s="3">
+        <f>(Indices!B31-Indices!B30)/Indices!B30</f>
+        <v>4.9119263407788216E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <f>(Indices!C31-Indices!C30)/Indices!C30</f>
+        <v>2.2040370386396002E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f>(Indices!D31-Indices!D30)/Indices!D30</f>
+        <v>8.783997469955826E-3</v>
+      </c>
+      <c r="E31" s="3">
+        <f>(Indices!E31-Indices!E30)/Indices!E30</f>
+        <v>2.4566274485741876E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <f>(Indices!G31-Indices!G30)/Indices!G30</f>
+        <v>2.0016132405222084E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <f>(Indices!H31-Indices!H30)/Indices!H30</f>
+        <v>3.6471002862919805E-3</v>
+      </c>
+      <c r="H31" s="3">
+        <f>(Indices!I31-Indices!I30)/Indices!I30</f>
+        <v>3.6471002862919805E-3</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>39021</v>
+      </c>
+      <c r="B32" s="3">
+        <f>(Indices!B32-Indices!B31)/Indices!B31</f>
+        <v>8.0637095564334276E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <f>(Indices!C32-Indices!C31)/Indices!C31</f>
+        <v>-3.1619946762064519E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <f>(Indices!D32-Indices!D31)/Indices!D31</f>
+        <v>6.6148866299345771E-3</v>
+      </c>
+      <c r="E32" s="3">
+        <f>(Indices!E32-Indices!E31)/Indices!E31</f>
+        <v>3.1508028596025112E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <f>(Indices!G32-Indices!G31)/Indices!G31</f>
+        <v>3.4882699235567957E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <f>(Indices!H32-Indices!H31)/Indices!H31</f>
+        <v>6.1523893164339627E-3</v>
+      </c>
+      <c r="H32" s="3">
+        <f>(Indices!I32-Indices!I31)/Indices!I31</f>
+        <v>6.1523893164339627E-3</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>39051</v>
+      </c>
+      <c r="B33" s="3">
+        <f>(Indices!B33-Indices!B32)/Indices!B32</f>
+        <v>-1.8396107466339257E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <f>(Indices!C33-Indices!C32)/Indices!C32</f>
+        <v>-6.9348809758016201E-3</v>
+      </c>
+      <c r="D33" s="3">
+        <f>(Indices!D33-Indices!D32)/Indices!D32</f>
+        <v>1.1601199050103237E-2</v>
+      </c>
+      <c r="E33" s="3">
+        <f>(Indices!E33-Indices!E32)/Indices!E32</f>
+        <v>1.6466609576614406E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <f>(Indices!G33-Indices!G32)/Indices!G32</f>
+        <v>-4.4150110375276008E-3</v>
+      </c>
+      <c r="G33" s="3">
+        <f>(Indices!H33-Indices!H32)/Indices!H32</f>
+        <v>4.2966615670418122E-3</v>
+      </c>
+      <c r="H33" s="3">
+        <f>(Indices!I33-Indices!I32)/Indices!I32</f>
+        <v>4.2966615670418122E-3</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>39080</v>
+      </c>
+      <c r="B34" s="3">
+        <f>(Indices!B34-Indices!B33)/Indices!B33</f>
+        <v>3.4171548416712785E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <f>(Indices!C34-Indices!C33)/Indices!C33</f>
+        <v>1.4373840930227396E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <f>(Indices!D34-Indices!D33)/Indices!D33</f>
+        <v>-5.803348085433876E-3</v>
+      </c>
+      <c r="E34" s="3">
+        <f>(Indices!E34-Indices!E33)/Indices!E33</f>
+        <v>1.2615751483260993E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <f>(Indices!G34-Indices!G33)/Indices!G33</f>
+        <v>3.8319404173062767E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <f>(Indices!H34-Indices!H33)/Indices!H33</f>
+        <v>-9.8112755882379093E-3</v>
+      </c>
+      <c r="H34" s="3">
+        <f>(Indices!I34-Indices!I33)/Indices!I33</f>
+        <v>-9.8112755882379093E-3</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>39113</v>
+      </c>
+      <c r="B35" s="3">
+        <f>(Indices!B35-Indices!B34)/Indices!B34</f>
+        <v>9.3792631626099895E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <f>(Indices!C35-Indices!C34)/Indices!C34</f>
+        <v>-2.6409014218986528E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <f>(Indices!D35-Indices!D34)/Indices!D34</f>
+        <v>-4.1030881544617035E-4</v>
+      </c>
+      <c r="E35" s="3">
+        <f>(Indices!E35-Indices!E34)/Indices!E34</f>
+        <v>1.4059084819854795E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <f>(Indices!G35-Indices!G34)/Indices!G34</f>
+        <v>2.0423807698625736E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <f>(Indices!H35-Indices!H34)/Indices!H34</f>
+        <v>-2.8378653099123997E-3</v>
+      </c>
+      <c r="H35" s="3">
+        <f>(Indices!I35-Indices!I34)/Indices!I34</f>
+        <v>-2.8378653099123997E-3</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>39141</v>
+      </c>
+      <c r="B36" s="3">
+        <f>(Indices!B36-Indices!B35)/Indices!B35</f>
+        <v>5.4673393026675988E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <f>(Indices!C36-Indices!C35)/Indices!C35</f>
+        <v>-4.7029192646952317E-3</v>
+      </c>
+      <c r="D36" s="3">
+        <f>(Indices!D36-Indices!D35)/Indices!D35</f>
+        <v>1.5420003407735446E-2</v>
+      </c>
+      <c r="E36" s="3">
+        <f>(Indices!E36-Indices!E35)/Indices!E35</f>
+        <v>-2.1846145288686222E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <f>(Indices!G36-Indices!G35)/Indices!G35</f>
+        <v>-2.0632109894827361E-2</v>
+      </c>
+      <c r="G36" s="3">
+        <f>(Indices!H36-Indices!H35)/Indices!H35</f>
+        <v>8.3670135244219047E-3</v>
+      </c>
+      <c r="H36" s="3">
+        <f>(Indices!I36-Indices!I35)/Indices!I35</f>
+        <v>8.3670135244219047E-3</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>39171</v>
+      </c>
+      <c r="B37" s="3">
+        <f>(Indices!B37-Indices!B36)/Indices!B36</f>
+        <v>2.6779158429821967E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <f>(Indices!C37-Indices!C36)/Indices!C36</f>
+        <v>2.4073586796477503E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <f>(Indices!D37-Indices!D36)/Indices!D36</f>
+        <v>3.0508965822476716E-5</v>
+      </c>
+      <c r="E37" s="3">
+        <f>(Indices!E37-Indices!E36)/Indices!E36</f>
+        <v>9.9799547916577559E-3</v>
+      </c>
+      <c r="F37" s="3">
+        <f>(Indices!G37-Indices!G36)/Indices!G36</f>
+        <v>2.5176012930444223E-2</v>
+      </c>
+      <c r="G37" s="3">
+        <f>(Indices!H37-Indices!H36)/Indices!H36</f>
+        <v>-5.3666566487253859E-3</v>
+      </c>
+      <c r="H37" s="3">
+        <f>(Indices!I37-Indices!I36)/Indices!I36</f>
+        <v>-5.3666566487253859E-3</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>39202</v>
+      </c>
+      <c r="B38" s="3">
+        <f>(Indices!B38-Indices!B37)/Indices!B37</f>
+        <v>3.7941870139514458E-2</v>
+      </c>
+      <c r="C38" s="3">
+        <f>(Indices!C38-Indices!C37)/Indices!C37</f>
+        <v>8.7470410400231867E-3</v>
+      </c>
+      <c r="D38" s="3">
+        <f>(Indices!D38-Indices!D37)/Indices!D37</f>
+        <v>5.3922951957471313E-3</v>
+      </c>
+      <c r="E38" s="3">
+        <f>(Indices!E38-Indices!E37)/Indices!E37</f>
+        <v>4.3290683107413817E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <f>(Indices!G38-Indices!G37)/Indices!G37</f>
+        <v>3.3963978408422794E-2</v>
+      </c>
+      <c r="G38" s="3">
+        <f>(Indices!H38-Indices!H37)/Indices!H37</f>
+        <v>-1.3212625061547354E-3</v>
+      </c>
+      <c r="H38" s="3">
+        <f>(Indices!I38-Indices!I37)/Indices!I37</f>
+        <v>-1.3212625061547354E-3</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>39233</v>
+      </c>
+      <c r="B39" s="3">
+        <f>(Indices!B39-Indices!B38)/Indices!B38</f>
+        <v>5.7157620684857982E-2</v>
+      </c>
+      <c r="C39" s="3">
+        <f>(Indices!C39-Indices!C38)/Indices!C38</f>
+        <v>5.9289287282068238E-3</v>
+      </c>
+      <c r="D39" s="3">
+        <f>(Indices!D39-Indices!D38)/Indices!D38</f>
+        <v>-7.5785161583978222E-3</v>
+      </c>
+      <c r="E39" s="3">
+        <f>(Indices!E39-Indices!E38)/Indices!E38</f>
+        <v>3.2549228600147063E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <f>(Indices!G39-Indices!G38)/Indices!G38</f>
+        <v>2.5353423099785496E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <f>(Indices!H39-Indices!H38)/Indices!H38</f>
+        <v>-9.3312126656943453E-3</v>
+      </c>
+      <c r="H39" s="3">
+        <f>(Indices!I39-Indices!I38)/Indices!I38</f>
+        <v>-9.3312126656943453E-3</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>39262</v>
+      </c>
+      <c r="B40" s="3">
+        <f>(Indices!B40-Indices!B39)/Indices!B39</f>
+        <v>1.5484493573715863E-2</v>
+      </c>
+      <c r="C40" s="3">
+        <f>(Indices!C40-Indices!C39)/Indices!C39</f>
+        <v>5.484529639626457E-3</v>
+      </c>
+      <c r="D40" s="3">
+        <f>(Indices!D40-Indices!D39)/Indices!D39</f>
+        <v>-2.9582406494371074E-3</v>
+      </c>
+      <c r="E40" s="3">
+        <f>(Indices!E40-Indices!E39)/Indices!E39</f>
+        <v>-1.7816309730697352E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <f>(Indices!G40-Indices!G39)/Indices!G39</f>
+        <v>-7.6372435348087651E-3</v>
+      </c>
+      <c r="G40" s="3">
+        <f>(Indices!H40-Indices!H39)/Indices!H39</f>
+        <v>-4.4666128498240584E-3</v>
+      </c>
+      <c r="H40" s="3">
+        <f>(Indices!I40-Indices!I39)/Indices!I39</f>
+        <v>-4.4666128498240584E-3</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>39294</v>
+      </c>
+      <c r="B41" s="3">
+        <f>(Indices!B41-Indices!B40)/Indices!B40</f>
+        <v>4.016970070965753E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <f>(Indices!C41-Indices!C40)/Indices!C40</f>
+        <v>-6.161891647153926E-3</v>
+      </c>
+      <c r="D41" s="3">
+        <f>(Indices!D41-Indices!D40)/Indices!D40</f>
+        <v>8.3413833816337081E-3</v>
+      </c>
+      <c r="E41" s="3">
+        <f>(Indices!E41-Indices!E40)/Indices!E40</f>
+        <v>-3.1975255263245378E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <f>(Indices!G41-Indices!G40)/Indices!G40</f>
+        <v>-3.4644789311930067E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <f>(Indices!H41-Indices!H40)/Indices!H40</f>
+        <v>1.2018791650572432E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <f>(Indices!I41-Indices!I40)/Indices!I40</f>
+        <v>1.2018791650572432E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>39325</v>
+      </c>
+      <c r="B42" s="3">
+        <f>(Indices!B42-Indices!B41)/Indices!B41</f>
+        <v>-4.2038567983412461E-2</v>
+      </c>
+      <c r="C42" s="3">
+        <f>(Indices!C42-Indices!C41)/Indices!C41</f>
+        <v>1.9985874563971478E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <f>(Indices!D42-Indices!D41)/Indices!D41</f>
+        <v>1.2256504615197374E-2</v>
+      </c>
+      <c r="E42" s="3">
+        <f>(Indices!E42-Indices!E41)/Indices!E41</f>
+        <v>1.2856632400637703E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <f>(Indices!G42-Indices!G41)/Indices!G41</f>
+        <v>-1.0866419343805077E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <f>(Indices!H42-Indices!H41)/Indices!H41</f>
+        <v>7.5790979213112963E-3</v>
+      </c>
+      <c r="H42" s="3">
+        <f>(Indices!I42-Indices!I41)/Indices!I41</f>
+        <v>7.5790979213112963E-3</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>39353</v>
+      </c>
+      <c r="B43" s="3">
+        <f>(Indices!B43-Indices!B42)/Indices!B42</f>
+        <v>-2.9181258844330427E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <f>(Indices!C43-Indices!C42)/Indices!C42</f>
+        <v>4.1915977757574436E-3</v>
+      </c>
+      <c r="D43" s="3">
+        <f>(Indices!D43-Indices!D42)/Indices!D42</f>
+        <v>7.5863415806631945E-3</v>
+      </c>
+      <c r="E43" s="3">
+        <f>(Indices!E43-Indices!E42)/Indices!E42</f>
+        <v>3.5794001316155462E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <f>(Indices!G43-Indices!G42)/Indices!G42</f>
+        <v>5.10719795712086E-3</v>
+      </c>
+      <c r="G43" s="3">
+        <f>(Indices!H43-Indices!H42)/Indices!H42</f>
+        <v>-3.63352166471921E-3</v>
+      </c>
+      <c r="H43" s="3">
+        <f>(Indices!I43-Indices!I42)/Indices!I42</f>
+        <v>-3.63352166471921E-3</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>39386</v>
+      </c>
+      <c r="B44" s="3">
+        <f>(Indices!B44-Indices!B43)/Indices!B43</f>
+        <v>5.4126810473234177E-3</v>
+      </c>
+      <c r="C44" s="3">
+        <f>(Indices!C44-Indices!C43)/Indices!C43</f>
+        <v>-3.417710192071835E-2</v>
+      </c>
+      <c r="D44" s="3">
+        <f>(Indices!D44-Indices!D43)/Indices!D43</f>
+        <v>8.9828840648854616E-3</v>
+      </c>
+      <c r="E44" s="3">
+        <f>(Indices!E44-Indices!E43)/Indices!E43</f>
+        <v>1.4822335025380782E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <f>(Indices!G44-Indices!G43)/Indices!G43</f>
+        <v>2.797332345313077E-2</v>
+      </c>
+      <c r="G44" s="3">
+        <f>(Indices!H44-Indices!H43)/Indices!H43</f>
+        <v>8.1849930585055249E-3</v>
+      </c>
+      <c r="H44" s="3">
+        <f>(Indices!I44-Indices!I43)/Indices!I43</f>
+        <v>8.1849930585055249E-3</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>39416</v>
+      </c>
+      <c r="B45" s="3">
+        <f>(Indices!B45-Indices!B44)/Indices!B44</f>
+        <v>-0.12633398896009138</v>
+      </c>
+      <c r="C45" s="3">
+        <f>(Indices!C45-Indices!C44)/Indices!C44</f>
+        <v>-1.0665547610742985E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <f>(Indices!D45-Indices!D44)/Indices!D44</f>
+        <v>1.7983139882821388E-2</v>
+      </c>
+      <c r="E45" s="3">
+        <f>(Indices!E45-Indices!E44)/Indices!E44</f>
+        <v>-4.4043423821141361E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <f>(Indices!G45-Indices!G44)/Indices!G44</f>
+        <v>-4.652060860386683E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <f>(Indices!H45-Indices!H44)/Indices!H44</f>
+        <v>8.6242925969943357E-4</v>
+      </c>
+      <c r="H45" s="3">
+        <f>(Indices!I45-Indices!I44)/Indices!I44</f>
+        <v>8.6242925969943357E-4</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>39447</v>
+      </c>
+      <c r="B46" s="3">
+        <f>(Indices!B46-Indices!B45)/Indices!B45</f>
+        <v>-9.7085298677908591E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <f>(Indices!C46-Indices!C45)/Indices!C45</f>
+        <v>3.8941007321063578E-2</v>
+      </c>
+      <c r="D46" s="3">
+        <f>(Indices!D46-Indices!D45)/Indices!D45</f>
+        <v>2.8087645065066943E-3</v>
+      </c>
+      <c r="E46" s="3">
+        <f>(Indices!E46-Indices!E45)/Indices!E45</f>
+        <v>-8.6284888666839053E-3</v>
+      </c>
+      <c r="F46" s="3">
+        <f>(Indices!G46-Indices!G45)/Indices!G45</f>
+        <v>-1.5444432444108508E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <f>(Indices!H46-Indices!H45)/Indices!H45</f>
+        <v>-4.6879261248674621E-3</v>
+      </c>
+      <c r="H46" s="3">
+        <f>(Indices!I46-Indices!I45)/Indices!I45</f>
+        <v>-4.6879261248674621E-3</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
+        <v>39478</v>
+      </c>
+      <c r="B47" s="9">
+        <f>(Indices!B47-Indices!B46)/Indices!B46</f>
+        <v>-0.13947558915788616</v>
+      </c>
+      <c r="C47" s="9">
+        <f>(Indices!C47-Indices!C46)/Indices!C46</f>
+        <v>4.5233297985153763E-2</v>
+      </c>
+      <c r="D47" s="9">
+        <f>(Indices!D47-Indices!D46)/Indices!D46</f>
+        <v>1.6798147209958772E-2</v>
+      </c>
+      <c r="E47" s="9">
+        <f>(Indices!E47-Indices!E46)/Indices!E46</f>
+        <v>-6.1163474897164151E-2</v>
+      </c>
+      <c r="F47" s="9">
+        <f>(Indices!G47-Indices!G46)/Indices!G46</f>
+        <v>-0.11649846423870108</v>
+      </c>
+      <c r="G47" s="9">
+        <f>(Indices!H47-Indices!H46)/Indices!H46</f>
+        <v>1.6470330991882234E-2</v>
+      </c>
+      <c r="H47" s="9">
+        <f>(Indices!I47-Indices!I46)/Indices!I46</f>
+        <v>1.6470330991882234E-2</v>
+      </c>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>39507</v>
+      </c>
+      <c r="B48" s="3">
+        <f>(Indices!B48-Indices!B47)/Indices!B47</f>
+        <v>-9.0714933310901177E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <f>(Indices!C48-Indices!C47)/Indices!C47</f>
+        <v>3.1293911155526037E-2</v>
+      </c>
+      <c r="D48" s="3">
+        <f>(Indices!D48-Indices!D47)/Indices!D47</f>
+        <v>1.3879892662162117E-3</v>
+      </c>
+      <c r="E48" s="3">
+        <f>(Indices!E48-Indices!E47)/Indices!E47</f>
+        <v>-3.4761162090602336E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <f>(Indices!G48-Indices!G47)/Indices!G47</f>
+        <v>-9.9639930469333123E-3</v>
+      </c>
+      <c r="G48" s="3">
+        <f>(Indices!H48-Indices!H47)/Indices!H47</f>
+        <v>-4.934175145739156E-4</v>
+      </c>
+      <c r="H48" s="3">
+        <f>(Indices!I48-Indices!I47)/Indices!I47</f>
+        <v>-4.934175145739156E-4</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>39538</v>
+      </c>
+      <c r="B49" s="3">
+        <f>(Indices!B49-Indices!B48)/Indices!B48</f>
+        <v>2.081545174669908E-2</v>
+      </c>
+      <c r="C49" s="3">
+        <f>(Indices!C49-Indices!C48)/Indices!C48</f>
+        <v>3.6797835710772386E-2</v>
+      </c>
+      <c r="D49" s="3">
+        <f>(Indices!D49-Indices!D48)/Indices!D48</f>
+        <v>3.4118533471704238E-3</v>
+      </c>
+      <c r="E49" s="3">
+        <f>(Indices!E49-Indices!E48)/Indices!E48</f>
+        <v>-5.9595830546433368E-3</v>
+      </c>
+      <c r="F49" s="3">
+        <f>(Indices!G49-Indices!G48)/Indices!G48</f>
+        <v>-4.0727386737733219E-2</v>
+      </c>
+      <c r="G49" s="3">
+        <f>(Indices!H49-Indices!H48)/Indices!H48</f>
+        <v>-1.2277633924067695E-2</v>
+      </c>
+      <c r="H49" s="3">
+        <f>(Indices!I49-Indices!I48)/Indices!I48</f>
+        <v>-1.2277633924067695E-2</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>39568</v>
+      </c>
+      <c r="B50" s="3">
+        <f>(Indices!B50-Indices!B49)/Indices!B49</f>
+        <v>3.4095772265213854E-2</v>
+      </c>
+      <c r="C50" s="3">
+        <f>(Indices!C50-Indices!C49)/Indices!C49</f>
+        <v>2.2805660851784367E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <f>(Indices!D50-Indices!D49)/Indices!D49</f>
+        <v>-2.0897383222589329E-3</v>
+      </c>
+      <c r="E50" s="3">
+        <f>(Indices!E50-Indices!E49)/Indices!E49</f>
+        <v>4.7546684811370581E-2</v>
+      </c>
+      <c r="F50" s="3">
+        <f>(Indices!G50-Indices!G49)/Indices!G49</f>
+        <v>5.5987710811870824E-2</v>
+      </c>
+      <c r="G50" s="3">
+        <f>(Indices!H50-Indices!H49)/Indices!H49</f>
+        <v>-1.4973495075224657E-3</v>
+      </c>
+      <c r="H50" s="3">
+        <f>(Indices!I50-Indices!I49)/Indices!I49</f>
+        <v>-1.4973495075224657E-3</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>39598</v>
+      </c>
+      <c r="B51" s="3">
+        <f>(Indices!B51-Indices!B50)/Indices!B50</f>
+        <v>-7.7375127197659002E-2</v>
+      </c>
+      <c r="C51" s="3">
+        <f>(Indices!C51-Indices!C50)/Indices!C50</f>
+        <v>3.2988849101063172E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <f>(Indices!D51-Indices!D50)/Indices!D50</f>
+        <v>-7.3329500039042298E-3</v>
+      </c>
+      <c r="E51" s="3">
+        <f>(Indices!E51-Indices!E50)/Indices!E50</f>
+        <v>1.067415324879668E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <f>(Indices!G51-Indices!G50)/Indices!G50</f>
+        <v>-3.0022594323562183E-3</v>
+      </c>
+      <c r="G51" s="3">
+        <f>(Indices!H51-Indices!H50)/Indices!H50</f>
+        <v>-1.0415331192938311E-2</v>
+      </c>
+      <c r="H51" s="3">
+        <f>(Indices!I51-Indices!I50)/Indices!I50</f>
+        <v>-1.0415331192938311E-2</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>39629</v>
+      </c>
+      <c r="B52" s="3">
+        <f>(Indices!B52-Indices!B51)/Indices!B51</f>
+        <v>-7.7795426840530493E-2</v>
+      </c>
+      <c r="C52" s="3">
+        <f>(Indices!C52-Indices!C51)/Indices!C51</f>
+        <v>1.5352492141895002E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <f>(Indices!D52-Indices!D51)/Indices!D51</f>
+        <v>-8.0092678671042075E-4</v>
+      </c>
+      <c r="E52" s="3">
+        <f>(Indices!E52-Indices!E51)/Indices!E51</f>
+        <v>-8.5962381639269406E-2</v>
+      </c>
+      <c r="F52" s="3">
+        <f>(Indices!G52-Indices!G51)/Indices!G51</f>
+        <v>-0.10160809636160442</v>
+      </c>
+      <c r="G52" s="3">
+        <f>(Indices!H52-Indices!H51)/Indices!H51</f>
+        <v>-1.0914305679118837E-2</v>
+      </c>
+      <c r="H52" s="3">
+        <f>(Indices!I52-Indices!I51)/Indices!I51</f>
+        <v>-1.0914305679118837E-2</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>39660</v>
+      </c>
+      <c r="B53" s="3">
+        <f>(Indices!B53-Indices!B52)/Indices!B52</f>
+        <v>-6.1949586564046803E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <f>(Indices!C53-Indices!C52)/Indices!C52</f>
+        <v>1.7826896457175136E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <f>(Indices!D53-Indices!D52)/Indices!D52</f>
+        <v>-8.2303937706660962E-4</v>
+      </c>
+      <c r="E53" s="3">
+        <f>(Indices!E53-Indices!E52)/Indices!E52</f>
+        <v>-9.8593749999999151E-3</v>
+      </c>
+      <c r="F53" s="3">
+        <f>(Indices!G53-Indices!G52)/Indices!G52</f>
+        <v>-1.9454715090362472E-2</v>
+      </c>
+      <c r="G53" s="3">
+        <f>(Indices!H53-Indices!H52)/Indices!H52</f>
+        <v>1.8603970639977385E-2</v>
+      </c>
+      <c r="H53" s="3">
+        <f>(Indices!I53-Indices!I52)/Indices!I52</f>
+        <v>1.8603970639977385E-2</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>39689</v>
+      </c>
+      <c r="B54" s="3">
+        <f>(Indices!B54-Indices!B53)/Indices!B53</f>
+        <v>2.8048728412910479E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <f>(Indices!C54-Indices!C53)/Indices!C53</f>
+        <v>4.6187269172278589E-3</v>
+      </c>
+      <c r="D54" s="3">
+        <f>(Indices!D54-Indices!D53)/Indices!D53</f>
+        <v>9.4906561803869329E-3</v>
+      </c>
+      <c r="E54" s="3">
+        <f>(Indices!E54-Indices!E53)/Indices!E53</f>
+        <v>1.2190503242910426E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <f>(Indices!G54-Indices!G53)/Indices!G53</f>
+        <v>1.5576543557936341E-2</v>
+      </c>
+      <c r="G54" s="3">
+        <f>(Indices!H54-Indices!H53)/Indices!H53</f>
+        <v>8.100619225752401E-3</v>
+      </c>
+      <c r="H54" s="3">
+        <f>(Indices!I54-Indices!I53)/Indices!I53</f>
+        <v>8.100619225752401E-3</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>39721</v>
+      </c>
+      <c r="B55" s="3">
+        <f>(Indices!B55-Indices!B54)/Indices!B54</f>
+        <v>-0.17360422958932392</v>
+      </c>
+      <c r="C55" s="3">
+        <f>(Indices!C55-Indices!C54)/Indices!C54</f>
+        <v>7.4277830398809863E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <f>(Indices!D55-Indices!D54)/Indices!D54</f>
+        <v>-1.3431628540614065E-2</v>
+      </c>
+      <c r="E55" s="3">
+        <f>(Indices!E55-Indices!E54)/Indices!E54</f>
+        <v>-9.0791453271283046E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <f>(Indices!G55-Indices!G54)/Indices!G54</f>
+        <v>-0.11149281698938161</v>
+      </c>
+      <c r="G55" s="3">
+        <f>(Indices!H55-Indices!H54)/Indices!H54</f>
+        <v>-4.4686293534532944E-3</v>
+      </c>
+      <c r="H55" s="3">
+        <f>(Indices!I55-Indices!I54)/Indices!I54</f>
+        <v>-4.4686293534532944E-3</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>39752</v>
+      </c>
+      <c r="B56" s="3">
+        <f>(Indices!B56-Indices!B55)/Indices!B55</f>
+        <v>-0.71506426366051556</v>
+      </c>
+      <c r="C56" s="3">
+        <f>(Indices!C56-Indices!C55)/Indices!C55</f>
+        <v>-1.8918059318724444E-2</v>
+      </c>
+      <c r="D56" s="3">
+        <f>(Indices!D56-Indices!D55)/Indices!D55</f>
+        <v>-2.3604208769948981E-2</v>
+      </c>
+      <c r="E56" s="3">
+        <f>(Indices!E56-Indices!E55)/Indices!E55</f>
+        <v>-0.16942453444905511</v>
+      </c>
+      <c r="F56" s="3">
+        <f>(Indices!G56-Indices!G55)/Indices!G55</f>
+        <v>-0.13270845537980869</v>
+      </c>
+      <c r="G56" s="3">
+        <f>(Indices!H56-Indices!H55)/Indices!H55</f>
+        <v>1.2438285656646375E-3</v>
+      </c>
+      <c r="H56" s="3">
+        <f>(Indices!I56-Indices!I55)/Indices!I55</f>
+        <v>1.2438285656646375E-3</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>39780</v>
+      </c>
+      <c r="B57" s="3">
+        <f>(Indices!B57-Indices!B56)/Indices!B56</f>
+        <v>3.7799561525094904E-4</v>
+      </c>
+      <c r="C57" s="3">
+        <f>(Indices!C57-Indices!C56)/Indices!C56</f>
+        <v>1.954138078198361E-2</v>
+      </c>
+      <c r="D57" s="3">
+        <f>(Indices!D57-Indices!D56)/Indices!D56</f>
+        <v>3.2549848631050197E-2</v>
+      </c>
+      <c r="E57" s="3">
+        <f>(Indices!E57-Indices!E56)/Indices!E56</f>
+        <v>-7.484903225806451E-2</v>
+      </c>
+      <c r="F57" s="3">
+        <f>(Indices!G57-Indices!G56)/Indices!G56</f>
+        <v>-7.1238798577025239E-2</v>
+      </c>
+      <c r="G57" s="3">
+        <f>(Indices!H57-Indices!H56)/Indices!H56</f>
+        <v>2.1726004700936424E-2</v>
+      </c>
+      <c r="H57" s="3">
+        <f>(Indices!I57-Indices!I56)/Indices!I56</f>
+        <v>2.1726004700936424E-2</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>39813</v>
+      </c>
+      <c r="B58" s="3">
+        <f>(Indices!B58-Indices!B57)/Indices!B57</f>
+        <v>-0.35828001410650412</v>
+      </c>
+      <c r="C58" s="3">
+        <f>(Indices!C58-Indices!C57)/Indices!C57</f>
+        <v>5.2324411350371906E-3</v>
+      </c>
+      <c r="D58" s="3">
+        <f>(Indices!D58-Indices!D57)/Indices!D57</f>
+        <v>3.7309173919246652E-2</v>
+      </c>
+      <c r="E58" s="3">
+        <f>(Indices!E58-Indices!E57)/Indices!E57</f>
+        <v>7.8215656520574748E-3</v>
+      </c>
+      <c r="F58" s="3">
+        <f>(Indices!G58-Indices!G57)/Indices!G57</f>
+        <v>-3.8254545454545388E-2</v>
+      </c>
+      <c r="G58" s="3">
+        <f>(Indices!H58-Indices!H57)/Indices!H57</f>
+        <v>-8.0287224531075951E-3</v>
+      </c>
+      <c r="H58" s="3">
+        <f>(Indices!I58-Indices!I57)/Indices!I57</f>
+        <v>-8.0287224531075951E-3</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>39843</v>
+      </c>
+      <c r="B59" s="3">
+        <f>(Indices!B59-Indices!B58)/Indices!B58</f>
+        <v>-0.10739941118743872</v>
+      </c>
+      <c r="C59" s="3">
+        <f>(Indices!C59-Indices!C58)/Indices!C58</f>
+        <v>1.6140140140140077E-2</v>
+      </c>
+      <c r="D59" s="3">
+        <f>(Indices!D59-Indices!D58)/Indices!D58</f>
+        <v>-8.8233271439377807E-3</v>
+      </c>
+      <c r="E59" s="3">
+        <f>(Indices!E59-Indices!E58)/Indices!E58</f>
+        <v>-8.5657348463880442E-2</v>
+      </c>
+      <c r="F59" s="3">
+        <f>(Indices!G59-Indices!G58)/Indices!G58</f>
+        <v>-3.594474692478334E-2</v>
+      </c>
+      <c r="G59" s="3">
+        <f>(Indices!H59-Indices!H58)/Indices!H58</f>
+        <v>4.6543334665380534E-4</v>
+      </c>
+      <c r="H59" s="3">
+        <f>(Indices!I59-Indices!I58)/Indices!I58</f>
+        <v>4.6543334665380534E-4</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>39871</v>
+      </c>
+      <c r="B60" s="3">
+        <f>(Indices!B60-Indices!B59)/Indices!B59</f>
+        <v>-9.8729055807203439E-2</v>
+      </c>
+      <c r="C60" s="3">
+        <f>(Indices!C60-Indices!C59)/Indices!C59</f>
+        <v>-5.5634582573163449E-2</v>
+      </c>
+      <c r="D60" s="3">
+        <f>(Indices!D60-Indices!D59)/Indices!D59</f>
+        <v>-3.7744489235188791E-3</v>
+      </c>
+      <c r="E60" s="3">
+        <f>(Indices!E60-Indices!E59)/Indices!E59</f>
+        <v>-0.10993122487528451</v>
+      </c>
+      <c r="F60" s="3">
+        <f>(Indices!G60-Indices!G59)/Indices!G59</f>
+        <v>-9.574857501438061E-2</v>
+      </c>
+      <c r="G60" s="3">
+        <f>(Indices!H60-Indices!H59)/Indices!H59</f>
+        <v>2.7416240833281892E-3</v>
+      </c>
+      <c r="H60" s="3">
+        <f>(Indices!I60-Indices!I59)/Indices!I59</f>
+        <v>2.7416240833281892E-3</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>39903</v>
+      </c>
+      <c r="B61" s="3">
+        <f>(Indices!B61-Indices!B60)/Indices!B60</f>
+        <v>-0.17356299404703812</v>
+      </c>
+      <c r="C61" s="3">
+        <f>(Indices!C61-Indices!C60)/Indices!C60</f>
+        <v>2.5064465789319989E-2</v>
+      </c>
+      <c r="D61" s="3">
+        <f>(Indices!D61-Indices!D60)/Indices!D60</f>
+        <v>1.3901367153493127E-2</v>
+      </c>
+      <c r="E61" s="3">
+        <f>(Indices!E61-Indices!E60)/Indices!E60</f>
+        <v>8.5404508291501674E-2</v>
+      </c>
+      <c r="F61" s="3">
+        <f>(Indices!G61-Indices!G60)/Indices!G60</f>
+        <v>2.0471894517696165E-2</v>
+      </c>
+      <c r="G61" s="3">
+        <f>(Indices!H61-Indices!H60)/Indices!H60</f>
+        <v>3.3145613076684655E-3</v>
+      </c>
+      <c r="H61" s="3">
+        <f>(Indices!I61-Indices!I60)/Indices!I60</f>
+        <v>3.3145613076684655E-3</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>39933</v>
+      </c>
+      <c r="B62" s="3">
+        <f>(Indices!B62-Indices!B61)/Indices!B61</f>
+        <v>1.7004192005668037E-2</v>
+      </c>
+      <c r="C62" s="3">
+        <f>(Indices!C62-Indices!C61)/Indices!C61</f>
+        <v>2.5619838074807881E-2</v>
+      </c>
+      <c r="D62" s="3">
+        <f>(Indices!D62-Indices!D61)/Indices!D61</f>
+        <v>4.7809093344507361E-3</v>
+      </c>
+      <c r="E62" s="3">
+        <f>(Indices!E62-Indices!E61)/Indices!E61</f>
+        <v>9.3925075513554765E-2</v>
+      </c>
+      <c r="F62" s="3">
+        <f>(Indices!G62-Indices!G61)/Indices!G61</f>
+        <v>0.13470474895160364</v>
+      </c>
+      <c r="G62" s="3">
+        <f>(Indices!H62-Indices!H61)/Indices!H61</f>
+        <v>1.2949542358755721E-2</v>
+      </c>
+      <c r="H62" s="3">
+        <f>(Indices!I62-Indices!I61)/Indices!I61</f>
+        <v>1.2949542358755721E-2</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>39962</v>
+      </c>
+      <c r="B63" s="3">
+        <f>(Indices!B63-Indices!B62)/Indices!B62</f>
+        <v>0.17863570391872285</v>
+      </c>
+      <c r="C63" s="3">
+        <f>(Indices!C63-Indices!C62)/Indices!C62</f>
+        <v>5.6603548933772015E-2</v>
+      </c>
+      <c r="D63" s="3">
+        <f>(Indices!D63-Indices!D62)/Indices!D62</f>
+        <v>7.2534609468466243E-3</v>
+      </c>
+      <c r="E63" s="3">
+        <f>(Indices!E63-Indices!E62)/Indices!E62</f>
+        <v>5.3081426656431577E-2</v>
+      </c>
+      <c r="F63" s="3">
+        <f>(Indices!G63-Indices!G62)/Indices!G62</f>
+        <v>3.9854167707136887E-2</v>
+      </c>
+      <c r="G63" s="3">
+        <f>(Indices!H63-Indices!H62)/Indices!H62</f>
+        <v>8.7611243223309726E-4</v>
+      </c>
+      <c r="H63" s="3">
+        <f>(Indices!I63-Indices!I62)/Indices!I62</f>
+        <v>8.7611243223309726E-4</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>39994</v>
+      </c>
+      <c r="B64" s="3">
+        <f>(Indices!B64-Indices!B63)/Indices!B63</f>
+        <v>-1.9357698748891768E-2</v>
+      </c>
+      <c r="C64" s="3">
+        <f>(Indices!C64-Indices!C63)/Indices!C63</f>
+        <v>-2.2045262465959212E-2</v>
+      </c>
+      <c r="D64" s="3">
+        <f>(Indices!D64-Indices!D63)/Indices!D63</f>
+        <v>5.6876798609980656E-3</v>
+      </c>
+      <c r="E64" s="3">
+        <f>(Indices!E64-Indices!E63)/Indices!E63</f>
+        <v>1.9583523728709844E-4</v>
+      </c>
+      <c r="F64" s="3">
+        <f>(Indices!G64-Indices!G63)/Indices!G63</f>
+        <v>-1.1430767014072309E-2</v>
+      </c>
+      <c r="G64" s="3">
+        <f>(Indices!H64-Indices!H63)/Indices!H63</f>
+        <v>1.7818217717520096E-2</v>
+      </c>
+      <c r="H64" s="3">
+        <f>(Indices!I64-Indices!I63)/Indices!I63</f>
+        <v>1.7818217717520096E-2</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>40025</v>
+      </c>
+      <c r="B65" s="3">
+        <f>(Indices!B65-Indices!B64)/Indices!B64</f>
+        <v>-6.8310814204631757E-3</v>
+      </c>
+      <c r="C65" s="3">
+        <f>(Indices!C65-Indices!C64)/Indices!C64</f>
+        <v>4.536096729094048E-3</v>
+      </c>
+      <c r="D65" s="3">
+        <f>(Indices!D65-Indices!D64)/Indices!D64</f>
+        <v>1.6129685369903012E-2</v>
+      </c>
+      <c r="E65" s="3">
+        <f>(Indices!E65-Indices!E64)/Indices!E64</f>
+        <v>7.4141756950789672E-2</v>
+      </c>
+      <c r="F65" s="3">
+        <f>(Indices!G65-Indices!G64)/Indices!G64</f>
+        <v>9.2697857455181373E-2</v>
+      </c>
+      <c r="G65" s="3">
+        <f>(Indices!H65-Indices!H64)/Indices!H64</f>
+        <v>1.866893246762151E-2</v>
+      </c>
+      <c r="H65" s="3">
+        <f>(Indices!I65-Indices!I64)/Indices!I64</f>
+        <v>1.866893246762151E-2</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>40056</v>
+      </c>
+      <c r="B66" s="3">
+        <f>(Indices!B66-Indices!B65)/Indices!B65</f>
+        <v>7.2067971476255502E-2</v>
+      </c>
+      <c r="C66" s="3">
+        <f>(Indices!C66-Indices!C65)/Indices!C65</f>
+        <v>2.0505702825986405E-2</v>
+      </c>
+      <c r="D66" s="3">
+        <f>(Indices!D66-Indices!D65)/Indices!D65</f>
+        <v>1.0354400786376502E-2</v>
+      </c>
+      <c r="E66" s="3">
+        <f>(Indices!E66-Indices!E65)/Indices!E65</f>
+        <v>3.3570300157977857E-2</v>
+      </c>
+      <c r="F66" s="3">
+        <f>(Indices!G66-Indices!G65)/Indices!G65</f>
+        <v>4.9308612333822437E-2</v>
+      </c>
+      <c r="G66" s="3">
+        <f>(Indices!H66-Indices!H65)/Indices!H65</f>
+        <v>8.3346875349129337E-3</v>
+      </c>
+      <c r="H66" s="3">
+        <f>(Indices!I66-Indices!I65)/Indices!I65</f>
+        <v>8.3346875349129337E-3</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>40086</v>
+      </c>
+      <c r="B67" s="3">
+        <f>(Indices!B67-Indices!B66)/Indices!B66</f>
+        <v>-9.1989810359467336E-3</v>
+      </c>
+      <c r="C67" s="3">
+        <f>(Indices!C67-Indices!C66)/Indices!C66</f>
+        <v>2.09104533533159E-2</v>
+      </c>
+      <c r="D67" s="3">
+        <f>(Indices!D67-Indices!D66)/Indices!D66</f>
+        <v>1.0504657415380987E-2</v>
+      </c>
+      <c r="E67" s="3">
+        <f>(Indices!E67-Indices!E66)/Indices!E66</f>
+        <v>3.5713235942506034E-2</v>
+      </c>
+      <c r="F67" s="3">
+        <f>(Indices!G67-Indices!G66)/Indices!G66</f>
+        <v>2.741525423728813E-2</v>
+      </c>
+      <c r="G67" s="3">
+        <f>(Indices!H67-Indices!H66)/Indices!H66</f>
+        <v>2.9619622354537466E-3</v>
+      </c>
+      <c r="H67" s="3">
+        <f>(Indices!I67-Indices!I66)/Indices!I66</f>
+        <v>2.9619622354537466E-3</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>40116</v>
+      </c>
+      <c r="B68" s="3">
+        <f>(Indices!B68-Indices!B67)/Indices!B67</f>
+        <v>2.656763319525788E-2</v>
+      </c>
+      <c r="C68" s="3">
+        <f>(Indices!C68-Indices!C67)/Indices!C67</f>
+        <v>2.424756221534707E-2</v>
+      </c>
+      <c r="D68" s="3">
+        <f>(Indices!D68-Indices!D67)/Indices!D67</f>
+        <v>4.9375166698108382E-3</v>
+      </c>
+      <c r="E68" s="3">
+        <f>(Indices!E68-Indices!E67)/Indices!E67</f>
+        <v>-1.9752525825859804E-2</v>
+      </c>
+      <c r="F68" s="3">
+        <f>(Indices!G68-Indices!G67)/Indices!G67</f>
+        <v>-2.2848187404627344E-2</v>
+      </c>
+      <c r="G68" s="3">
+        <f>(Indices!H68-Indices!H67)/Indices!H67</f>
+        <v>4.9919061197768577E-3</v>
+      </c>
+      <c r="H68" s="3">
+        <f>(Indices!I68-Indices!I67)/Indices!I67</f>
+        <v>4.9919061197768577E-3</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>40147</v>
+      </c>
+      <c r="B69" s="3">
+        <f>(Indices!B69-Indices!B68)/Indices!B68</f>
+        <v>-3.8634571680348832E-2</v>
+      </c>
+      <c r="C69" s="3">
+        <f>(Indices!C69-Indices!C68)/Indices!C68</f>
+        <v>1.9527890844464827E-2</v>
+      </c>
+      <c r="D69" s="3">
+        <f>(Indices!D69-Indices!D68)/Indices!D68</f>
+        <v>1.294665976178146E-2</v>
+      </c>
+      <c r="E69" s="3">
+        <f>(Indices!E69-Indices!E68)/Indices!E68</f>
+        <v>5.7353792704111235E-2</v>
+      </c>
+      <c r="F69" s="3">
+        <f>(Indices!G69-Indices!G68)/Indices!G68</f>
+        <v>9.4542691934325768E-3</v>
+      </c>
+      <c r="G69" s="3">
+        <f>(Indices!H69-Indices!H68)/Indices!H68</f>
+        <v>4.4374854790235662E-3</v>
+      </c>
+      <c r="H69" s="3">
+        <f>(Indices!I69-Indices!I68)/Indices!I68</f>
+        <v>4.4374854790235662E-3</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>40178</v>
+      </c>
+      <c r="B70" s="3">
+        <f>(Indices!B70-Indices!B69)/Indices!B69</f>
+        <v>4.9594751061366273E-2</v>
+      </c>
+      <c r="C70" s="3">
+        <f>(Indices!C70-Indices!C69)/Indices!C69</f>
+        <v>1.4100049905460758E-2</v>
+      </c>
+      <c r="D70" s="3">
+        <f>(Indices!D70-Indices!D69)/Indices!D69</f>
+        <v>-1.5631390593047058E-2</v>
+      </c>
+      <c r="E70" s="3">
+        <f>(Indices!E70-Indices!E69)/Indices!E69</f>
+        <v>1.7770597738287375E-2</v>
+      </c>
+      <c r="F70" s="3">
+        <f>(Indices!G70-Indices!G69)/Indices!G69</f>
+        <v>6.1546180541037755E-2</v>
+      </c>
+      <c r="G70" s="3">
+        <f>(Indices!H70-Indices!H69)/Indices!H69</f>
+        <v>-3.263200635229752E-3</v>
+      </c>
+      <c r="H70" s="3">
+        <f>(Indices!I70-Indices!I69)/Indices!I69</f>
+        <v>-3.263200635229752E-3</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>40207</v>
+      </c>
+      <c r="B71" s="3">
+        <f>(Indices!B71-Indices!B70)/Indices!B70</f>
+        <v>-8.6872586872587549E-3</v>
+      </c>
+      <c r="C71" s="3">
+        <f>(Indices!C71-Indices!C70)/Indices!C70</f>
+        <v>3.1848899670768511E-3</v>
+      </c>
+      <c r="D71" s="3">
+        <f>(Indices!D71-Indices!D70)/Indices!D70</f>
+        <v>1.5275848189360773E-2</v>
+      </c>
+      <c r="E71" s="3">
+        <f>(Indices!E71-Indices!E70)/Indices!E70</f>
+        <v>-3.6974262397991231E-2</v>
+      </c>
+      <c r="F71" s="3">
+        <f>(Indices!G71-Indices!G70)/Indices!G70</f>
+        <v>-2.7295285359801406E-2</v>
+      </c>
+      <c r="G71" s="3">
+        <f>(Indices!H71-Indices!H70)/Indices!H70</f>
+        <v>1.3300153650461763E-2</v>
+      </c>
+      <c r="H71" s="3">
+        <f>(Indices!I71-Indices!I70)/Indices!I70</f>
+        <v>1.3300153650461763E-2</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>40235</v>
+      </c>
+      <c r="B72" s="3">
+        <f>(Indices!B72-Indices!B71)/Indices!B71</f>
+        <v>8.1096119070802664E-2</v>
+      </c>
+      <c r="C72" s="3">
+        <f>(Indices!C72-Indices!C71)/Indices!C71</f>
+        <v>1.9584135088731327E-2</v>
+      </c>
+      <c r="D72" s="3">
+        <f>(Indices!D72-Indices!D71)/Indices!D71</f>
+        <v>3.7343257431884658E-3</v>
+      </c>
+      <c r="E72" s="3">
+        <f>(Indices!E72-Indices!E71)/Indices!E71</f>
+        <v>2.8513693463827205E-2</v>
+      </c>
+      <c r="F72" s="3">
+        <f>(Indices!G72-Indices!G71)/Indices!G71</f>
+        <v>-4.6971169420148874E-3</v>
+      </c>
+      <c r="G72" s="3">
+        <f>(Indices!H72-Indices!H71)/Indices!H71</f>
+        <v>4.2073275466673983E-3</v>
+      </c>
+      <c r="H72" s="3">
+        <f>(Indices!I72-Indices!I71)/Indices!I71</f>
+        <v>4.2073275466673983E-3</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>40268</v>
+      </c>
+      <c r="B73" s="3">
+        <f>(Indices!B73-Indices!B72)/Indices!B72</f>
+        <v>7.9258878023674692E-2</v>
+      </c>
+      <c r="C73" s="3">
+        <f>(Indices!C73-Indices!C72)/Indices!C72</f>
+        <v>2.2870657116332888E-3</v>
+      </c>
+      <c r="D73" s="3">
+        <f>(Indices!D73-Indices!D72)/Indices!D72</f>
+        <v>-1.2295264730428318E-3</v>
+      </c>
+      <c r="E73" s="3">
+        <f>(Indices!E73-Indices!E72)/Indices!E72</f>
+        <v>5.8796367554255859E-2</v>
+      </c>
+      <c r="F73" s="3">
+        <f>(Indices!G73-Indices!G72)/Indices!G72</f>
+        <v>7.2294548413344109E-2</v>
+      </c>
+      <c r="G73" s="3">
+        <f>(Indices!H73-Indices!H72)/Indices!H72</f>
+        <v>9.2812218180748519E-3</v>
+      </c>
+      <c r="H73" s="3">
+        <f>(Indices!I73-Indices!I72)/Indices!I72</f>
+        <v>9.2812218180748519E-3</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>40298</v>
+      </c>
+      <c r="B74" s="3">
+        <f>(Indices!B74-Indices!B73)/Indices!B73</f>
+        <v>7.7610872675250478E-2</v>
+      </c>
+      <c r="C74" s="3">
+        <f>(Indices!C74-Indices!C73)/Indices!C73</f>
+        <v>2.0661701818378449E-2</v>
+      </c>
+      <c r="D74" s="3">
+        <f>(Indices!D74-Indices!D73)/Indices!D73</f>
+        <v>1.0409623799257509E-2</v>
+      </c>
+      <c r="E74" s="3">
+        <f>(Indices!E74-Indices!E73)/Indices!E73</f>
+        <v>1.475932719359003E-2</v>
+      </c>
+      <c r="F74" s="3">
+        <f>(Indices!G74-Indices!G73)/Indices!G73</f>
+        <v>-1.3886254126038503E-2</v>
+      </c>
+      <c r="G74" s="3">
+        <f>(Indices!H74-Indices!H73)/Indices!H73</f>
+        <v>3.1750331960138946E-3</v>
+      </c>
+      <c r="H74" s="3">
+        <f>(Indices!I74-Indices!I73)/Indices!I73</f>
+        <v>3.1750331960138946E-3</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>40329</v>
+      </c>
+      <c r="B75" s="3">
+        <f>(Indices!B75-Indices!B74)/Indices!B74</f>
+        <v>-0.12117859645240997</v>
+      </c>
+      <c r="C75" s="3">
+        <f>(Indices!C75-Indices!C74)/Indices!C74</f>
+        <v>1.4304877038999773E-2</v>
+      </c>
+      <c r="D75" s="3">
+        <f>(Indices!D75-Indices!D74)/Indices!D74</f>
+        <v>8.414872798434541E-3</v>
+      </c>
+      <c r="E75" s="3">
+        <f>(Indices!E75-Indices!E74)/Indices!E74</f>
+        <v>-8.1975916203894841E-2</v>
+      </c>
+      <c r="F75" s="3">
+        <f>(Indices!G75-Indices!G74)/Indices!G74</f>
+        <v>-5.7442961024970311E-2</v>
+      </c>
+      <c r="G75" s="3">
+        <f>(Indices!H75-Indices!H74)/Indices!H74</f>
+        <v>1.4221539210503724E-2</v>
+      </c>
+      <c r="H75" s="3">
+        <f>(Indices!I75-Indices!I74)/Indices!I74</f>
+        <v>1.4221539210503724E-2</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>40359</v>
+      </c>
+      <c r="B76" s="3">
+        <f>(Indices!B76-Indices!B75)/Indices!B75</f>
+        <v>3.0842180353321279E-2</v>
+      </c>
+      <c r="C76" s="3">
+        <f>(Indices!C76-Indices!C75)/Indices!C75</f>
+        <v>2.0019984064993845E-2</v>
+      </c>
+      <c r="D76" s="3">
+        <f>(Indices!D76-Indices!D75)/Indices!D75</f>
+        <v>1.5681438310285869E-2</v>
+      </c>
+      <c r="E76" s="3">
+        <f>(Indices!E76-Indices!E75)/Indices!E75</f>
+        <v>-5.3882376699314345E-2</v>
+      </c>
+      <c r="F76" s="3">
+        <f>(Indices!G76-Indices!G75)/Indices!G75</f>
+        <v>-6.7760633521103631E-3</v>
+      </c>
+      <c r="G76" s="3">
+        <f>(Indices!H76-Indices!H75)/Indices!H75</f>
+        <v>4.8674743103864588E-3</v>
+      </c>
+      <c r="H76" s="3">
+        <f>(Indices!I76-Indices!I75)/Indices!I75</f>
+        <v>4.8674743103864588E-3</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>40389</v>
+      </c>
+      <c r="B77" s="3">
+        <f>(Indices!B77-Indices!B76)/Indices!B76</f>
+        <v>3.6025400960677335E-2</v>
+      </c>
+      <c r="C77" s="3">
+        <f>(Indices!C77-Indices!C76)/Indices!C76</f>
+        <v>-1.9815926370547248E-3</v>
+      </c>
+      <c r="D77" s="3">
+        <f>(Indices!D77-Indices!D76)/Indices!D76</f>
+        <v>1.0675016024850806E-2</v>
+      </c>
+      <c r="E77" s="3">
+        <f>(Indices!E77-Indices!E76)/Indices!E76</f>
+        <v>6.8777832756061225E-2</v>
+      </c>
+      <c r="F77" s="3">
+        <f>(Indices!G77-Indices!G76)/Indices!G76</f>
+        <v>4.944106526385008E-2</v>
+      </c>
+      <c r="G77" s="3">
+        <f>(Indices!H77-Indices!H76)/Indices!H76</f>
+        <v>3.9354804595435073E-3</v>
+      </c>
+      <c r="H77" s="3">
+        <f>(Indices!I77-Indices!I76)/Indices!I76</f>
+        <v>3.9354804595435073E-3</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>40421</v>
+      </c>
+      <c r="B78" s="3">
+        <f>(Indices!B78-Indices!B77)/Indices!B77</f>
+        <v>2.436053593179068E-3</v>
+      </c>
+      <c r="C78" s="3">
+        <f>(Indices!C78-Indices!C77)/Indices!C77</f>
+        <v>5.3869051437662706E-2</v>
+      </c>
+      <c r="D78" s="3">
+        <f>(Indices!D78-Indices!D77)/Indices!D77</f>
+        <v>1.2861324551774696E-2</v>
+      </c>
+      <c r="E78" s="3">
+        <f>(Indices!E78-Indices!E77)/Indices!E77</f>
+        <v>-4.7449164851125623E-2</v>
+      </c>
+      <c r="F78" s="3">
+        <f>(Indices!G78-Indices!G77)/Indices!G77</f>
+        <v>-1.5821421578225935E-2</v>
+      </c>
+      <c r="G78" s="3">
+        <f>(Indices!H78-Indices!H77)/Indices!H77</f>
+        <v>2.9280264272183287E-2</v>
+      </c>
+      <c r="H78" s="3">
+        <f>(Indices!I78-Indices!I77)/Indices!I77</f>
+        <v>2.9280264272183287E-2</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>40451</v>
+      </c>
+      <c r="B79" s="3">
+        <f>(Indices!B79-Indices!B78)/Indices!B78</f>
+        <v>-1.7324501234664631E-2</v>
+      </c>
+      <c r="C79" s="3">
+        <f>(Indices!C79-Indices!C78)/Indices!C78</f>
+        <v>-3.6448029219296851E-2</v>
+      </c>
+      <c r="D79" s="3">
+        <f>(Indices!D79-Indices!D78)/Indices!D78</f>
+        <v>1.0656936943445874E-3</v>
+      </c>
+      <c r="E79" s="3">
+        <f>(Indices!E79-Indices!E78)/Indices!E78</f>
+        <v>8.7551104037814728E-2</v>
+      </c>
+      <c r="F79" s="3">
+        <f>(Indices!G79-Indices!G78)/Indices!G78</f>
+        <v>3.346464525884376E-2</v>
+      </c>
+      <c r="G79" s="3">
+        <f>(Indices!H79-Indices!H78)/Indices!H78</f>
+        <v>-1.6205260888313928E-2</v>
+      </c>
+      <c r="H79" s="3">
+        <f>(Indices!I79-Indices!I78)/Indices!I78</f>
+        <v>-1.6205260888313928E-2</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>40480</v>
+      </c>
+      <c r="B80" s="3">
+        <f>(Indices!B80-Indices!B79)/Indices!B79</f>
+        <v>1.9305173307805845E-2</v>
+      </c>
+      <c r="C80" s="3">
+        <f>(Indices!C80-Indices!C79)/Indices!C79</f>
+        <v>-9.2584695569770722E-3</v>
+      </c>
+      <c r="D80" s="3">
+        <f>(Indices!D80-Indices!D79)/Indices!D79</f>
+        <v>3.5605595852428308E-3</v>
+      </c>
+      <c r="E80" s="3">
+        <f>(Indices!E80-Indices!E79)/Indices!E79</f>
+        <v>3.6855941114616146E-2</v>
+      </c>
+      <c r="F80" s="3">
+        <f>(Indices!G80-Indices!G79)/Indices!G79</f>
+        <v>2.4025874018173229E-2</v>
+      </c>
+      <c r="G80" s="3">
+        <f>(Indices!H80-Indices!H79)/Indices!H79</f>
+        <v>-6.1809457852273746E-3</v>
+      </c>
+      <c r="H80" s="3">
+        <f>(Indices!I80-Indices!I79)/Indices!I79</f>
+        <v>-6.1809457852273746E-3</v>
+      </c>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>40512</v>
+      </c>
+      <c r="B81" s="3">
+        <f>(Indices!B81-Indices!B80)/Indices!B80</f>
+        <v>-1.2013304637057411E-2</v>
+      </c>
+      <c r="C81" s="3">
+        <f>(Indices!C81-Indices!C80)/Indices!C80</f>
+        <v>1.3948935736057499E-2</v>
+      </c>
+      <c r="D81" s="3">
+        <f>(Indices!D81-Indices!D80)/Indices!D80</f>
+        <v>-5.7474019825240136E-3</v>
+      </c>
+      <c r="E81" s="3">
+        <f>(Indices!E81-Indices!E80)/Indices!E80</f>
+        <v>-2.290282778087687E-3</v>
+      </c>
+      <c r="F81" s="3">
+        <f>(Indices!G81-Indices!G80)/Indices!G80</f>
+        <v>-1.5528650924951105E-2</v>
+      </c>
+      <c r="G81" s="3">
+        <f>(Indices!H81-Indices!H80)/Indices!H80</f>
+        <v>-1.0369958288468728E-2</v>
+      </c>
+      <c r="H81" s="3">
+        <f>(Indices!I81-Indices!I80)/Indices!I80</f>
+        <v>-1.0369958288468728E-2</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B82" s="3">
+        <f>(Indices!B82-Indices!B81)/Indices!B81</f>
+        <v>-1.2119771863117881E-2</v>
+      </c>
+      <c r="C82" s="3">
+        <f>(Indices!C82-Indices!C81)/Indices!C81</f>
+        <v>1.8690707159006201E-2</v>
+      </c>
+      <c r="D82" s="3">
+        <f>(Indices!D82-Indices!D81)/Indices!D81</f>
+        <v>-1.0783669582095191E-2</v>
+      </c>
+      <c r="E82" s="3">
+        <f>(Indices!E82-Indices!E81)/Indices!E81</f>
+        <v>6.5300072000338952E-2</v>
+      </c>
+      <c r="F82" s="3">
+        <f>(Indices!G82-Indices!G81)/Indices!G81</f>
+        <v>5.3393423213535574E-2</v>
+      </c>
+      <c r="G82" s="3">
+        <f>(Indices!H82-Indices!H81)/Indices!H81</f>
+        <v>-6.415288304696478E-3</v>
+      </c>
+      <c r="H82" s="3">
+        <f>(Indices!I82-Indices!I81)/Indices!I81</f>
+        <v>-6.415288304696478E-3</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>40574</v>
+      </c>
+      <c r="B83" s="3">
+        <f>(Indices!B83-Indices!B82)/Indices!B82</f>
+        <v>9.8027423622804977E-2</v>
+      </c>
+      <c r="C83" s="3">
+        <f>(Indices!C83-Indices!C82)/Indices!C82</f>
+        <v>1.4662168210567354E-3</v>
+      </c>
+      <c r="D83" s="3">
+        <f>(Indices!D83-Indices!D82)/Indices!D82</f>
+        <v>1.1638535128877473E-3</v>
+      </c>
+      <c r="E83" s="3">
+        <f>(Indices!E83-Indices!E82)/Indices!E82</f>
+        <v>2.2645590152984788E-2</v>
+      </c>
+      <c r="F83" s="3">
+        <f>(Indices!G83-Indices!G82)/Indices!G82</f>
+        <v>1.5372901635183674E-2</v>
+      </c>
+      <c r="G83" s="3">
+        <f>(Indices!H83-Indices!H82)/Indices!H82</f>
+        <v>-6.3992957186320672E-3</v>
+      </c>
+      <c r="H83" s="3">
+        <f>(Indices!I83-Indices!I82)/Indices!I82</f>
+        <v>-6.3992957186320672E-3</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B84" s="3">
+        <f>(Indices!B84-Indices!B83)/Indices!B83</f>
+        <v>5.4770511556569634E-4</v>
+      </c>
+      <c r="C84" s="3">
+        <f>(Indices!C84-Indices!C83)/Indices!C83</f>
+        <v>9.8046468046283468E-3</v>
+      </c>
+      <c r="D84" s="3">
+        <f>(Indices!D84-Indices!D83)/Indices!D83</f>
+        <v>2.501506381580088E-3</v>
+      </c>
+      <c r="E84" s="3">
+        <f>(Indices!E84-Indices!E83)/Indices!E83</f>
+        <v>3.195658258949409E-2</v>
+      </c>
+      <c r="F84" s="3">
+        <f>(Indices!G84-Indices!G83)/Indices!G83</f>
+        <v>2.2924477771826515E-2</v>
+      </c>
+      <c r="G84" s="3">
+        <f>(Indices!H84-Indices!H83)/Indices!H83</f>
+        <v>4.7093975474295172E-3</v>
+      </c>
+      <c r="H84" s="3">
+        <f>(Indices!I84-Indices!I83)/Indices!I83</f>
+        <v>4.7093975474295172E-3</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B85" s="3">
+        <f>(Indices!B85-Indices!B84)/Indices!B84</f>
+        <v>5.9119772279395836E-3</v>
+      </c>
+      <c r="C85" s="3">
+        <f>(Indices!C85-Indices!C84)/Indices!C84</f>
+        <v>2.3502910392864867E-2</v>
+      </c>
+      <c r="D85" s="3">
+        <f>(Indices!D85-Indices!D84)/Indices!D84</f>
+        <v>5.5247947933367446E-4</v>
+      </c>
+      <c r="E85" s="3">
+        <f>(Indices!E85-Indices!E84)/Indices!E84</f>
+        <v>-1.047301879115821E-3</v>
+      </c>
+      <c r="F85" s="3">
+        <f>(Indices!G85-Indices!G84)/Indices!G84</f>
+        <v>-3.68974063601775E-2</v>
+      </c>
+      <c r="G85" s="3">
+        <f>(Indices!H85-Indices!H84)/Indices!H84</f>
+        <v>-1.079150698275742E-2</v>
+      </c>
+      <c r="H85" s="3">
+        <f>(Indices!I85-Indices!I84)/Indices!I84</f>
+        <v>-1.079150698275742E-2</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>40662</v>
+      </c>
+      <c r="B86" s="3">
+        <f>(Indices!B86-Indices!B85)/Indices!B85</f>
+        <v>5.4418807139759869E-4</v>
+      </c>
+      <c r="C86" s="3">
+        <f>(Indices!C86-Indices!C85)/Indices!C85</f>
+        <v>1.7893408962808565E-2</v>
+      </c>
+      <c r="D86" s="3">
+        <f>(Indices!D86-Indices!D85)/Indices!D85</f>
+        <v>1.2693943678209786E-2</v>
+      </c>
+      <c r="E86" s="3">
+        <f>(Indices!E86-Indices!E85)/Indices!E85</f>
+        <v>2.8495357625034863E-2</v>
+      </c>
+      <c r="F86" s="3">
+        <f>(Indices!G86-Indices!G85)/Indices!G85</f>
+        <v>2.8561072852482768E-2</v>
+      </c>
+      <c r="G86" s="3">
+        <f>(Indices!H86-Indices!H85)/Indices!H85</f>
+        <v>8.6520467305002957E-3</v>
+      </c>
+      <c r="H86" s="3">
+        <f>(Indices!I86-Indices!I85)/Indices!I85</f>
+        <v>8.6520467305002957E-3</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B87" s="3">
+        <f>(Indices!B87-Indices!B86)/Indices!B86</f>
+        <v>-7.6870082309003383E-3</v>
+      </c>
+      <c r="C87" s="3">
+        <f>(Indices!C87-Indices!C86)/Indices!C86</f>
+        <v>-2.1425704399696575E-2</v>
+      </c>
+      <c r="D87" s="3">
+        <f>(Indices!D87-Indices!D86)/Indices!D86</f>
+        <v>1.3050121333772714E-2</v>
+      </c>
+      <c r="E87" s="3">
+        <f>(Indices!E87-Indices!E86)/Indices!E86</f>
+        <v>-1.3500927684601796E-2</v>
+      </c>
+      <c r="F87" s="3">
+        <f>(Indices!G87-Indices!G86)/Indices!G86</f>
+        <v>-9.584889703291178E-3</v>
+      </c>
+      <c r="G87" s="3">
+        <f>(Indices!H87-Indices!H86)/Indices!H86</f>
+        <v>1.4099441834548565E-2</v>
+      </c>
+      <c r="H87" s="3">
+        <f>(Indices!I87-Indices!I86)/Indices!I86</f>
+        <v>1.4099441834548565E-2</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B88" s="3">
+        <f>(Indices!B88-Indices!B87)/Indices!B87</f>
+        <v>-2.7295648043263884E-2</v>
+      </c>
+      <c r="C88" s="3">
+        <f>(Indices!C88-Indices!C87)/Indices!C87</f>
+        <v>1.4353035574211271E-2</v>
+      </c>
+      <c r="D88" s="3">
+        <f>(Indices!D88-Indices!D87)/Indices!D87</f>
+        <v>-2.9277294423119275E-3</v>
+      </c>
+      <c r="E88" s="3">
+        <f>(Indices!E88-Indices!E87)/Indices!E87</f>
+        <v>-1.8257508177222676E-2</v>
+      </c>
+      <c r="F88" s="3">
+        <f>(Indices!G88-Indices!G87)/Indices!G87</f>
+        <v>-2.9175265067956979E-2</v>
+      </c>
+      <c r="G88" s="3">
+        <f>(Indices!H88-Indices!H87)/Indices!H87</f>
+        <v>-8.8505321095268021E-3</v>
+      </c>
+      <c r="H88" s="3">
+        <f>(Indices!I88-Indices!I87)/Indices!I87</f>
+        <v>-8.8505321095268021E-3</v>
+      </c>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>40753</v>
+      </c>
+      <c r="B89" s="3">
+        <f>(Indices!B89-Indices!B88)/Indices!B88</f>
+        <v>3.5274229902329028E-2</v>
+      </c>
+      <c r="C89" s="3">
+        <f>(Indices!C89-Indices!C88)/Indices!C88</f>
+        <v>-3.3559622195985478E-3</v>
+      </c>
+      <c r="D89" s="3">
+        <f>(Indices!D89-Indices!D88)/Indices!D88</f>
+        <v>1.5868025483752327E-2</v>
+      </c>
+      <c r="E89" s="3">
+        <f>(Indices!E89-Indices!E88)/Indices!E88</f>
+        <v>-2.1474436636782262E-2</v>
+      </c>
+      <c r="F89" s="3">
+        <f>(Indices!G89-Indices!G88)/Indices!G88</f>
+        <v>-2.7889760316645949E-2</v>
+      </c>
+      <c r="G89" s="3">
+        <f>(Indices!H89-Indices!H88)/Indices!H88</f>
+        <v>1.7056852191470677E-2</v>
+      </c>
+      <c r="H89" s="3">
+        <f>(Indices!I89-Indices!I88)/Indices!I88</f>
+        <v>1.7056852191470677E-2</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B90" s="3">
+        <f>(Indices!B90-Indices!B89)/Indices!B89</f>
+        <v>-4.7425523422475399E-2</v>
+      </c>
+      <c r="C90" s="3">
+        <f>(Indices!C90-Indices!C89)/Indices!C89</f>
+        <v>1.3788896029473153E-2</v>
+      </c>
+      <c r="D90" s="3">
+        <f>(Indices!D90-Indices!D89)/Indices!D89</f>
+        <v>1.4609963037143864E-2</v>
+      </c>
+      <c r="E90" s="3">
+        <f>(Indices!E90-Indices!E89)/Indices!E89</f>
+        <v>-5.679109790447881E-2</v>
+      </c>
+      <c r="F90" s="3">
+        <f>(Indices!G90-Indices!G89)/Indices!G89</f>
+        <v>-0.1048821866163996</v>
+      </c>
+      <c r="G90" s="3">
+        <f>(Indices!H90-Indices!H89)/Indices!H89</f>
+        <v>1.2878382513686872E-2</v>
+      </c>
+      <c r="H90" s="3">
+        <f>(Indices!I90-Indices!I89)/Indices!I89</f>
+        <v>1.2878382513686872E-2</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B91" s="3">
+        <f>(Indices!B91-Indices!B90)/Indices!B90</f>
+        <v>-3.3254609172634432E-2</v>
+      </c>
+      <c r="C91" s="3">
+        <f>(Indices!C91-Indices!C90)/Indices!C90</f>
+        <v>1.1229291976197649E-2</v>
+      </c>
+      <c r="D91" s="3">
+        <f>(Indices!D91-Indices!D90)/Indices!D90</f>
+        <v>7.2746108025668905E-3</v>
+      </c>
+      <c r="E91" s="3">
+        <f>(Indices!E91-Indices!E90)/Indices!E90</f>
+        <v>-7.1762012979021919E-2</v>
+      </c>
+      <c r="F91" s="3">
+        <f>(Indices!G91-Indices!G90)/Indices!G90</f>
+        <v>-4.7382386387566859E-2</v>
+      </c>
+      <c r="G91" s="3">
+        <f>(Indices!H91-Indices!H90)/Indices!H90</f>
+        <v>9.4226106702990694E-3</v>
+      </c>
+      <c r="H91" s="3">
+        <f>(Indices!I91-Indices!I90)/Indices!I90</f>
+        <v>9.4226106702990694E-3</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B92" s="3">
+        <f>(Indices!B92-Indices!B91)/Indices!B91</f>
+        <v>1.8676858820284411E-2</v>
+      </c>
+      <c r="C92" s="3">
+        <f>(Indices!C92-Indices!C91)/Indices!C91</f>
+        <v>3.9360070255919893E-2</v>
+      </c>
+      <c r="D92" s="3">
+        <f>(Indices!D92-Indices!D91)/Indices!D91</f>
+        <v>1.0741690902129951E-3</v>
+      </c>
+      <c r="E92" s="3">
+        <f>(Indices!E92-Indices!E91)/Indices!E91</f>
+        <v>0.10772303830584563</v>
+      </c>
+      <c r="F92" s="3">
+        <f>(Indices!G92-Indices!G91)/Indices!G91</f>
+        <v>7.6487753116986398E-2</v>
+      </c>
+      <c r="G92" s="3">
+        <f>(Indices!H92-Indices!H91)/Indices!H91</f>
+        <v>-3.6714734954196196E-3</v>
+      </c>
+      <c r="H92" s="3">
+        <f>(Indices!I92-Indices!I91)/Indices!I91</f>
+        <v>-3.6714734954196196E-3</v>
+      </c>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B93" s="3">
+        <f>(Indices!B93-Indices!B92)/Indices!B92</f>
+        <v>-3.3651800564731216E-2</v>
+      </c>
+      <c r="C93" s="3">
+        <f>(Indices!C93-Indices!C92)/Indices!C92</f>
+        <v>2.0236917295740838E-2</v>
+      </c>
+      <c r="D93" s="3">
+        <f>(Indices!D93-Indices!D92)/Indices!D92</f>
+        <v>-8.6754524647986771E-4</v>
+      </c>
+      <c r="E93" s="3">
+        <f>(Indices!E93-Indices!E92)/Indices!E92</f>
+        <v>-5.0586451767333585E-3</v>
+      </c>
+      <c r="F93" s="3">
+        <f>(Indices!G93-Indices!G92)/Indices!G92</f>
+        <v>-1.3964185970100121E-2</v>
+      </c>
+      <c r="G93" s="3">
+        <f>(Indices!H93-Indices!H92)/Indices!H92</f>
+        <v>-1.4820157905631423E-2</v>
+      </c>
+      <c r="H93" s="3">
+        <f>(Indices!I93-Indices!I92)/Indices!I92</f>
+        <v>-1.4820157905631423E-2</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>40907</v>
+      </c>
+      <c r="B94" s="3">
+        <f>(Indices!B94-Indices!B93)/Indices!B93</f>
+        <v>2.2855541768402432E-2</v>
+      </c>
+      <c r="C94" s="3">
+        <f>(Indices!C94-Indices!C93)/Indices!C93</f>
+        <v>1.0352277092317742E-2</v>
+      </c>
+      <c r="D94" s="3">
+        <f>(Indices!D94-Indices!D93)/Indices!D93</f>
+        <v>1.0990831452971929E-2</v>
+      </c>
+      <c r="E94" s="3">
+        <f>(Indices!E94-Indices!E93)/Indices!E93</f>
+        <v>8.5407711554499454E-3</v>
+      </c>
+      <c r="F94" s="3">
+        <f>(Indices!G94-Indices!G93)/Indices!G93</f>
+        <v>1.8577140953015575E-2</v>
+      </c>
+      <c r="G94" s="3">
+        <f>(Indices!H94-Indices!H93)/Indices!H93</f>
+        <v>3.2805345119815692E-2</v>
+      </c>
+      <c r="H94" s="3">
+        <f>(Indices!I94-Indices!I93)/Indices!I93</f>
+        <v>3.2805345119815692E-2</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B95" s="3">
+        <f>(Indices!B95-Indices!B94)/Indices!B94</f>
+        <v>4.8681224074508984E-2</v>
+      </c>
+      <c r="C95" s="3">
+        <f>(Indices!C95-Indices!C94)/Indices!C94</f>
+        <v>1.7863450436677142E-2</v>
+      </c>
+      <c r="D95" s="3">
+        <f>(Indices!D95-Indices!D94)/Indices!D94</f>
+        <v>8.7807027952468732E-3</v>
+      </c>
+      <c r="E95" s="3">
+        <f>(Indices!E95-Indices!E94)/Indices!E94</f>
+        <v>4.3574717122160433E-2</v>
+      </c>
+      <c r="F95" s="3">
+        <f>(Indices!G95-Indices!G94)/Indices!G94</f>
+        <v>4.0361495051934267E-2</v>
+      </c>
+      <c r="G95" s="3">
+        <f>(Indices!H95-Indices!H94)/Indices!H94</f>
+        <v>1.8760384342508166E-2</v>
+      </c>
+      <c r="H95" s="3">
+        <f>(Indices!I95-Indices!I94)/Indices!I94</f>
+        <v>1.8760384342508166E-2</v>
+      </c>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B96" s="3">
+        <f>(Indices!B96-Indices!B95)/Indices!B95</f>
+        <v>2.4180909023061276E-2</v>
+      </c>
+      <c r="C96" s="3">
+        <f>(Indices!C96-Indices!C95)/Indices!C95</f>
+        <v>1.1904824977350629E-2</v>
+      </c>
+      <c r="D96" s="3">
+        <f>(Indices!D96-Indices!D95)/Indices!D95</f>
+        <v>-2.29649420555222E-4</v>
+      </c>
+      <c r="E96" s="3">
+        <f>(Indices!E96-Indices!E95)/Indices!E95</f>
+        <v>4.0589449943234185E-2</v>
+      </c>
+      <c r="F96" s="3">
+        <f>(Indices!G96-Indices!G95)/Indices!G95</f>
+        <v>3.895287134939663E-2</v>
+      </c>
+      <c r="G96" s="3">
+        <f>(Indices!H96-Indices!H95)/Indices!H95</f>
+        <v>9.8282216642506855E-3</v>
+      </c>
+      <c r="H96" s="3">
+        <f>(Indices!I96-Indices!I95)/Indices!I95</f>
+        <v>9.8282216642506855E-3</v>
+      </c>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B97" s="3">
+        <f>(Indices!B97-Indices!B96)/Indices!B96</f>
+        <v>7.1449391532463796E-2</v>
+      </c>
+      <c r="C97" s="3">
+        <f>(Indices!C97-Indices!C96)/Indices!C96</f>
+        <v>-8.3248688440473544E-4</v>
+      </c>
+      <c r="D97" s="3">
+        <f>(Indices!D97-Indices!D96)/Indices!D96</f>
+        <v>-5.4792371646908387E-3</v>
+      </c>
+      <c r="E97" s="3">
+        <f>(Indices!E97-Indices!E96)/Indices!E96</f>
+        <v>3.1332376545017838E-2</v>
+      </c>
+      <c r="F97" s="3">
+        <f>(Indices!G97-Indices!G96)/Indices!G96</f>
+        <v>-3.7832929782082325E-3</v>
+      </c>
+      <c r="G97" s="3">
+        <f>(Indices!H97-Indices!H96)/Indices!H96</f>
+        <v>2.2407655177694363E-3</v>
+      </c>
+      <c r="H97" s="3">
+        <f>(Indices!I97-Indices!I96)/Indices!I96</f>
+        <v>2.2407655177694363E-3</v>
+      </c>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B98" s="3">
+        <f>(Indices!B98-Indices!B97)/Indices!B97</f>
+        <v>4.3493045873431564E-2</v>
+      </c>
+      <c r="C98" s="3">
+        <f>(Indices!C98-Indices!C97)/Indices!C97</f>
+        <v>1.1819110750124507E-2</v>
+      </c>
+      <c r="D98" s="3">
+        <f>(Indices!D98-Indices!D97)/Indices!D97</f>
+        <v>1.1086449519474427E-2</v>
+      </c>
+      <c r="E98" s="3">
+        <f>(Indices!E98-Indices!E97)/Indices!E97</f>
+        <v>-7.4974972842871664E-3</v>
+      </c>
+      <c r="F98" s="3">
+        <f>(Indices!G98-Indices!G97)/Indices!G97</f>
+        <v>-2.2937870271912582E-2</v>
+      </c>
+      <c r="G98" s="3">
+        <f>(Indices!H98-Indices!H97)/Indices!H97</f>
+        <v>4.626497442455981E-3</v>
+      </c>
+      <c r="H98" s="3">
+        <f>(Indices!I98-Indices!I97)/Indices!I97</f>
+        <v>4.626497442455981E-3</v>
+      </c>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B99" s="3">
+        <f>(Indices!B99-Indices!B98)/Indices!B98</f>
+        <v>-1.2904907775532935E-2</v>
+      </c>
+      <c r="C99" s="3">
+        <f>(Indices!C99-Indices!C98)/Indices!C98</f>
+        <v>-9.8036930869204401E-3</v>
+      </c>
+      <c r="D99" s="3">
+        <f>(Indices!D99-Indices!D98)/Indices!D98</f>
+        <v>9.0482611069633775E-3</v>
+      </c>
+      <c r="E99" s="3">
+        <f>(Indices!E99-Indices!E98)/Indices!E98</f>
+        <v>-6.2650671359386623E-2</v>
+      </c>
+      <c r="F99" s="3">
+        <f>(Indices!G99-Indices!G98)/Indices!G98</f>
+        <v>-6.821361940298501E-2</v>
+      </c>
+      <c r="G99" s="3">
+        <f>(Indices!H99-Indices!H98)/Indices!H98</f>
+        <v>1.7521938666376354E-2</v>
+      </c>
+      <c r="H99" s="3">
+        <f>(Indices!I99-Indices!I98)/Indices!I98</f>
+        <v>1.7521938666376354E-2</v>
+      </c>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>41089</v>
+      </c>
+      <c r="B100" s="3">
+        <f>(Indices!B100-Indices!B99)/Indices!B99</f>
+        <v>-5.9755694948828075E-3</v>
+      </c>
+      <c r="C100" s="3">
+        <f>(Indices!C100-Indices!C99)/Indices!C99</f>
+        <v>-1.9273264556283101E-3</v>
+      </c>
+      <c r="D100" s="3">
+        <f>(Indices!D100-Indices!D99)/Indices!D99</f>
+        <v>3.9203560345876803E-4</v>
+      </c>
+      <c r="E100" s="3">
+        <f>(Indices!E100-Indices!E99)/Indices!E99</f>
+        <v>3.955492127937249E-2</v>
+      </c>
+      <c r="F100" s="3">
+        <f>(Indices!G100-Indices!G99)/Indices!G99</f>
+        <v>4.772035206273724E-2</v>
+      </c>
+      <c r="G100" s="3">
+        <f>(Indices!H100-Indices!H99)/Indices!H99</f>
+        <v>-7.2743265199471854E-3</v>
+      </c>
+      <c r="H100" s="3">
+        <f>(Indices!I100-Indices!I99)/Indices!I99</f>
+        <v>-7.2743265199471854E-3</v>
+      </c>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B101" s="3">
+        <f>(Indices!B101-Indices!B100)/Indices!B100</f>
+        <v>-4.9885416320701398E-2</v>
+      </c>
+      <c r="C101" s="3">
+        <f>(Indices!C101-Indices!C100)/Indices!C100</f>
+        <v>1.2385434079725749E-2</v>
+      </c>
+      <c r="D101" s="3">
+        <f>(Indices!D101-Indices!D100)/Indices!D100</f>
+        <v>1.3793141513547531E-2</v>
+      </c>
+      <c r="E101" s="3">
+        <f>(Indices!E101-Indices!E100)/Indices!E100</f>
+        <v>1.259763904387139E-2</v>
+      </c>
+      <c r="F101" s="3">
+        <f>(Indices!G101-Indices!G100)/Indices!G100</f>
+        <v>4.0649759127284343E-2</v>
+      </c>
+      <c r="G101" s="3">
+        <f>(Indices!H101-Indices!H100)/Indices!H100</f>
+        <v>2.6115175397360118E-2</v>
+      </c>
+      <c r="H101" s="3">
+        <f>(Indices!I101-Indices!I100)/Indices!I100</f>
+        <v>2.6115175397360118E-2</v>
+      </c>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B102" s="3">
+        <f>(Indices!B102-Indices!B101)/Indices!B101</f>
+        <v>-2.0624322718214949E-3</v>
+      </c>
+      <c r="C102" s="3">
+        <f>(Indices!C102-Indices!C101)/Indices!C101</f>
+        <v>1.521021778795772E-2</v>
+      </c>
+      <c r="D102" s="3">
+        <f>(Indices!D102-Indices!D101)/Indices!D101</f>
+        <v>6.5332433197589528E-4</v>
+      </c>
+      <c r="E102" s="3">
+        <f>(Indices!E102-Indices!E101)/Indices!E101</f>
+        <v>1.9763361656468401E-2</v>
+      </c>
+      <c r="F102" s="3">
+        <f>(Indices!G102-Indices!G101)/Indices!G101</f>
+        <v>1.85553600122428E-2</v>
+      </c>
+      <c r="G102" s="3">
+        <f>(Indices!H102-Indices!H101)/Indices!H101</f>
+        <v>4.6747272328064521E-3</v>
+      </c>
+      <c r="H102" s="3">
+        <f>(Indices!I102-Indices!I101)/Indices!I101</f>
+        <v>4.6747272328064521E-3</v>
+      </c>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>41180</v>
+      </c>
+      <c r="B103" s="3">
+        <f>(Indices!B103-Indices!B102)/Indices!B102</f>
+        <v>5.7447106627434011E-3</v>
+      </c>
+      <c r="C103" s="3">
+        <f>(Indices!C103-Indices!C102)/Indices!C102</f>
+        <v>1.1803335525744757E-3</v>
+      </c>
+      <c r="D103" s="3">
+        <f>(Indices!D103-Indices!D102)/Indices!D102</f>
+        <v>1.3765261485559929E-3</v>
+      </c>
+      <c r="E103" s="3">
+        <f>(Indices!E103-Indices!E102)/Indices!E102</f>
+        <v>2.4236090375236493E-2</v>
+      </c>
+      <c r="F103" s="3">
+        <f>(Indices!G103-Indices!G102)/Indices!G102</f>
+        <v>8.4513390677233968E-3</v>
+      </c>
+      <c r="G103" s="3">
+        <f>(Indices!H103-Indices!H102)/Indices!H102</f>
+        <v>5.9926042007592334E-3</v>
+      </c>
+      <c r="H103" s="3">
+        <f>(Indices!I103-Indices!I102)/Indices!I102</f>
+        <v>5.9926042007592334E-3</v>
+      </c>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B104" s="3">
+        <f>(Indices!B104-Indices!B103)/Indices!B103</f>
+        <v>-2.6121482307049318E-2</v>
+      </c>
+      <c r="C104" s="3">
+        <f>(Indices!C104-Indices!C103)/Indices!C103</f>
+        <v>7.3766630593927462E-3</v>
+      </c>
+      <c r="D104" s="3">
+        <f>(Indices!D104-Indices!D103)/Indices!D103</f>
+        <v>1.9668675189758655E-3</v>
+      </c>
+      <c r="E104" s="3">
+        <f>(Indices!E104-Indices!E103)/Indices!E103</f>
+        <v>-1.9789403541407811E-2</v>
+      </c>
+      <c r="F104" s="3">
+        <f>(Indices!G104-Indices!G103)/Indices!G103</f>
+        <v>6.7789034564958023E-3</v>
+      </c>
+      <c r="G104" s="3">
+        <f>(Indices!H104-Indices!H103)/Indices!H103</f>
+        <v>3.4716855012220556E-3</v>
+      </c>
+      <c r="H104" s="3">
+        <f>(Indices!I104-Indices!I103)/Indices!I103</f>
+        <v>3.4716855012220556E-3</v>
+      </c>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B105" s="3">
+        <f>(Indices!B105-Indices!B104)/Indices!B104</f>
+        <v>2.4247192618553653E-2</v>
+      </c>
+      <c r="C105" s="3">
+        <f>(Indices!C105-Indices!C104)/Indices!C104</f>
+        <v>-1.8242160446082446E-2</v>
+      </c>
+      <c r="D105" s="3">
+        <f>(Indices!D105-Indices!D104)/Indices!D104</f>
+        <v>1.5779969741501765E-3</v>
+      </c>
+      <c r="E105" s="3">
+        <f>(Indices!E105-Indices!E104)/Indices!E104</f>
+        <v>2.8467029231814961E-3</v>
+      </c>
+      <c r="F105" s="3">
+        <f>(Indices!G105-Indices!G104)/Indices!G104</f>
+        <v>2.0273769885312473E-2</v>
+      </c>
+      <c r="G105" s="3">
+        <f>(Indices!H105-Indices!H104)/Indices!H104</f>
+        <v>9.3631867308364043E-3</v>
+      </c>
+      <c r="H105" s="3">
+        <f>(Indices!I105-Indices!I104)/Indices!I104</f>
+        <v>9.3631867308364043E-3</v>
+      </c>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B106" s="3">
+        <f>(Indices!B106-Indices!B105)/Indices!B105</f>
+        <v>5.2060055865921877E-2</v>
+      </c>
+      <c r="C106" s="3">
+        <f>(Indices!C106-Indices!C105)/Indices!C105</f>
+        <v>7.9556133417438939E-3</v>
+      </c>
+      <c r="D106" s="3">
+        <f>(Indices!D106-Indices!D105)/Indices!D105</f>
+        <v>-1.4239152797478542E-3</v>
+      </c>
+      <c r="E106" s="3">
+        <f>(Indices!E106-Indices!E105)/Indices!E105</f>
+        <v>7.0683105254981645E-3</v>
+      </c>
+      <c r="F106" s="3">
+        <f>(Indices!G106-Indices!G105)/Indices!G105</f>
+        <v>1.4141707157879595E-2</v>
+      </c>
+      <c r="G106" s="3">
+        <f>(Indices!H106-Indices!H105)/Indices!H105</f>
+        <v>6.1302563468004154E-3</v>
+      </c>
+      <c r="H106" s="3">
+        <f>(Indices!I106-Indices!I105)/Indices!I105</f>
+        <v>6.1302563468004154E-3</v>
+      </c>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B107" s="3">
+        <f>(Indices!B107-Indices!B106)/Indices!B106</f>
+        <v>0.10504131957120566</v>
+      </c>
+      <c r="C107" s="3">
+        <f>(Indices!C107-Indices!C106)/Indices!C106</f>
+        <v>1.9665640685066193E-2</v>
+      </c>
+      <c r="D107" s="3">
+        <f>(Indices!D107-Indices!D106)/Indices!D106</f>
+        <v>-6.9941823583949654E-3</v>
+      </c>
+      <c r="E107" s="3">
+        <f>(Indices!E107-Indices!E106)/Indices!E106</f>
+        <v>5.0428063581991069E-2</v>
+      </c>
+      <c r="F107" s="3">
+        <f>(Indices!G107-Indices!G106)/Indices!G106</f>
+        <v>2.6959382151029821E-2</v>
+      </c>
+      <c r="G107" s="3">
+        <f>(Indices!H107-Indices!H106)/Indices!H106</f>
+        <v>-1.9333828691485925E-2</v>
+      </c>
+      <c r="H107" s="3">
+        <f>(Indices!I107-Indices!I106)/Indices!I106</f>
+        <v>-1.9333828691485925E-2</v>
+      </c>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B108" s="3">
+        <f>(Indices!B108-Indices!B107)/Indices!B107</f>
+        <v>3.7481979817395539E-2</v>
+      </c>
+      <c r="C108" s="3">
+        <f>(Indices!C108-Indices!C107)/Indices!C107</f>
+        <v>-6.9690426208811199E-3</v>
+      </c>
+      <c r="D108" s="3">
+        <f>(Indices!D108-Indices!D107)/Indices!D107</f>
+        <v>5.0123123795380066E-3</v>
+      </c>
+      <c r="E108" s="3">
+        <f>(Indices!E108-Indices!E107)/Indices!E107</f>
+        <v>1.1060603026480141E-2</v>
+      </c>
+      <c r="F108" s="3">
+        <f>(Indices!G108-Indices!G107)/Indices!G107</f>
+        <v>9.4700926119349986E-3</v>
+      </c>
+      <c r="G108" s="3">
+        <f>(Indices!H108-Indices!H107)/Indices!H107</f>
+        <v>6.237586356631959E-3</v>
+      </c>
+      <c r="H108" s="3">
+        <f>(Indices!I108-Indices!I107)/Indices!I107</f>
+        <v>6.237586356631959E-3</v>
+      </c>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>41362</v>
+      </c>
+      <c r="B109" s="3">
+        <f>(Indices!B109-Indices!B108)/Indices!B108</f>
+        <v>1.3229504400185251E-2</v>
+      </c>
+      <c r="C109" s="3">
+        <f>(Indices!C109-Indices!C108)/Indices!C108</f>
+        <v>6.3746808875615136E-3</v>
+      </c>
+      <c r="D109" s="3">
+        <f>(Indices!D109-Indices!D108)/Indices!D108</f>
+        <v>7.9862224081450085E-4</v>
+      </c>
+      <c r="E109" s="3">
+        <f>(Indices!E109-Indices!E108)/Indices!E108</f>
+        <v>3.5987799403174259E-2</v>
+      </c>
+      <c r="F109" s="3">
+        <f>(Indices!G109-Indices!G108)/Indices!G108</f>
+        <v>1.3244119472994326E-2</v>
+      </c>
+      <c r="G109" s="3">
+        <f>(Indices!H109-Indices!H108)/Indices!H108</f>
+        <v>1.1429339997029535E-2</v>
+      </c>
+      <c r="H109" s="3">
+        <f>(Indices!I109-Indices!I108)/Indices!I108</f>
+        <v>1.1429339997029535E-2</v>
+      </c>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B110" s="3">
+        <f>(Indices!B110-Indices!B109)/Indices!B109</f>
+        <v>-1.9028027770635034E-2</v>
+      </c>
+      <c r="C110" s="3">
+        <f>(Indices!C110-Indices!C109)/Indices!C109</f>
+        <v>-1.0715923988379247E-2</v>
+      </c>
+      <c r="D110" s="3">
+        <f>(Indices!D110-Indices!D109)/Indices!D109</f>
+        <v>1.0118666333720494E-2</v>
+      </c>
+      <c r="E110" s="3">
+        <f>(Indices!E110-Indices!E109)/Indices!E109</f>
+        <v>1.8085763992887974E-2</v>
+      </c>
+      <c r="F110" s="3">
+        <f>(Indices!G110-Indices!G109)/Indices!G109</f>
+        <v>1.0007488596909439E-2</v>
+      </c>
+      <c r="G110" s="3">
+        <f>(Indices!H110-Indices!H109)/Indices!H109</f>
+        <v>1.8339890751345084E-2</v>
+      </c>
+      <c r="H110" s="3">
+        <f>(Indices!I110-Indices!I109)/Indices!I109</f>
+        <v>1.8339890751345084E-2</v>
+      </c>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B111" s="3">
+        <f>(Indices!B111-Indices!B110)/Indices!B110</f>
+        <v>-4.0192223678462244E-2</v>
+      </c>
+      <c r="C111" s="3">
+        <f>(Indices!C111-Indices!C110)/Indices!C110</f>
+        <v>1.434638071878867E-2</v>
+      </c>
+      <c r="D111" s="3">
+        <f>(Indices!D111-Indices!D110)/Indices!D110</f>
+        <v>-1.7841980244843583E-2</v>
+      </c>
+      <c r="E111" s="3">
+        <f>(Indices!E111-Indices!E110)/Indices!E110</f>
+        <v>2.0762783477406357E-2</v>
+      </c>
+      <c r="F111" s="3">
+        <f>(Indices!G111-Indices!G110)/Indices!G110</f>
+        <v>1.4019951469398651E-2</v>
+      </c>
+      <c r="G111" s="3">
+        <f>(Indices!H111-Indices!H110)/Indices!H110</f>
+        <v>-1.3948866257568407E-2</v>
+      </c>
+      <c r="H111" s="3">
+        <f>(Indices!I111-Indices!I110)/Indices!I110</f>
+        <v>-1.3948866257568407E-2</v>
+      </c>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>41453</v>
+      </c>
+      <c r="B112" s="3">
+        <f>(Indices!B112-Indices!B111)/Indices!B111</f>
+        <v>-2.2758306781975419E-3</v>
+      </c>
+      <c r="C112" s="3">
+        <f>(Indices!C112-Indices!C111)/Indices!C111</f>
+        <v>-1.0246648981080433E-2</v>
+      </c>
+      <c r="D112" s="3">
+        <f>(Indices!D112-Indices!D111)/Indices!D111</f>
+        <v>-1.5468543100712408E-2</v>
+      </c>
+      <c r="E112" s="3">
+        <f>(Indices!E112-Indices!E111)/Indices!E111</f>
+        <v>-1.4999325459607317E-2</v>
+      </c>
+      <c r="F112" s="3">
+        <f>(Indices!G112-Indices!G111)/Indices!G111</f>
+        <v>-5.2712044668971066E-2</v>
+      </c>
+      <c r="G112" s="3">
+        <f>(Indices!H112-Indices!H111)/Indices!H111</f>
+        <v>-1.8230105418922268E-2</v>
+      </c>
+      <c r="H112" s="3">
+        <f>(Indices!I112-Indices!I111)/Indices!I111</f>
+        <v>-1.8230105418922268E-2</v>
+      </c>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B113" s="3">
+        <f>(Indices!B113-Indices!B112)/Indices!B112</f>
+        <v>3.6040145985401353E-2</v>
+      </c>
+      <c r="C113" s="3">
+        <f>(Indices!C113-Indices!C112)/Indices!C112</f>
+        <v>2.4276671781618589E-2</v>
+      </c>
+      <c r="D113" s="3">
+        <f>(Indices!D113-Indices!D112)/Indices!D112</f>
+        <v>1.367190756456662E-3</v>
+      </c>
+      <c r="E113" s="3">
+        <f>(Indices!E113-Indices!E112)/Indices!E112</f>
+        <v>4.9462111213487092E-2</v>
+      </c>
+      <c r="F113" s="3">
+        <f>(Indices!G113-Indices!G112)/Indices!G112</f>
+        <v>5.1084134446705502E-2</v>
+      </c>
+      <c r="G113" s="3">
+        <f>(Indices!H113-Indices!H112)/Indices!H112</f>
+        <v>4.3060974923804342E-3</v>
+      </c>
+      <c r="H113" s="3">
+        <f>(Indices!I113-Indices!I112)/Indices!I112</f>
+        <v>4.3060974923804342E-3</v>
+      </c>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>41516</v>
+      </c>
+      <c r="B114" s="3">
+        <f>(Indices!B114-Indices!B113)/Indices!B113</f>
+        <v>-4.6969029795968935E-4</v>
+      </c>
+      <c r="C114" s="3">
+        <f>(Indices!C114-Indices!C113)/Indices!C113</f>
+        <v>9.2104582313849801E-3</v>
+      </c>
+      <c r="D114" s="3">
+        <f>(Indices!D114-Indices!D113)/Indices!D113</f>
+        <v>-5.1116402204499116E-3</v>
+      </c>
+      <c r="E114" s="3">
+        <f>(Indices!E114-Indices!E113)/Indices!E113</f>
+        <v>-3.1298013323604608E-2</v>
+      </c>
+      <c r="F114" s="3">
+        <f>(Indices!G114-Indices!G113)/Indices!G113</f>
+        <v>-7.5438947860337509E-3</v>
+      </c>
+      <c r="G114" s="3">
+        <f>(Indices!H114-Indices!H113)/Indices!H113</f>
+        <v>-1.0869475029247739E-3</v>
+      </c>
+      <c r="H114" s="3">
+        <f>(Indices!I114-Indices!I113)/Indices!I113</f>
+        <v>-1.0869475029247739E-3</v>
+      </c>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B115" s="3">
+        <f>(Indices!B115-Indices!B114)/Indices!B114</f>
+        <v>1.0631736614878571E-2</v>
+      </c>
+      <c r="C115" s="3">
+        <f>(Indices!C115-Indices!C114)/Indices!C114</f>
+        <v>-1.9971629543363333E-3</v>
+      </c>
+      <c r="D115" s="3">
+        <f>(Indices!D115-Indices!D114)/Indices!D114</f>
+        <v>9.4669076627839667E-3</v>
+      </c>
+      <c r="E115" s="3">
+        <f>(Indices!E115-Indices!E114)/Indices!E114</f>
+        <v>2.9749474883188257E-2</v>
+      </c>
+      <c r="F115" s="3">
+        <f>(Indices!G115-Indices!G114)/Indices!G114</f>
+        <v>4.4194806942015295E-2</v>
+      </c>
+      <c r="G115" s="3">
+        <f>(Indices!H115-Indices!H114)/Indices!H114</f>
+        <v>1.1109726721488572E-2</v>
+      </c>
+      <c r="H115" s="3">
+        <f>(Indices!I115-Indices!I114)/Indices!I114</f>
+        <v>1.1109726721488572E-2</v>
+      </c>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B116" s="3">
+        <f>(Indices!B116-Indices!B115)/Indices!B115</f>
+        <v>7.160501002586378E-2</v>
+      </c>
+      <c r="C116" s="3">
+        <f>(Indices!C116-Indices!C115)/Indices!C115</f>
+        <v>-1.0568471216817492E-2</v>
+      </c>
+      <c r="D116" s="3">
+        <f>(Indices!D116-Indices!D115)/Indices!D115</f>
+        <v>8.084972340884157E-3</v>
+      </c>
+      <c r="E116" s="3">
+        <f>(Indices!E116-Indices!E115)/Indices!E115</f>
+        <v>4.4595759864410819E-2</v>
+      </c>
+      <c r="F116" s="3">
+        <f>(Indices!G116-Indices!G115)/Indices!G115</f>
+        <v>3.8362429942665803E-2</v>
+      </c>
+      <c r="G116" s="3">
+        <f>(Indices!H116-Indices!H115)/Indices!H115</f>
+        <v>9.4663284795957359E-3</v>
+      </c>
+      <c r="H116" s="3">
+        <f>(Indices!I116-Indices!I115)/Indices!I115</f>
+        <v>9.4663284795957359E-3</v>
+      </c>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B117" s="3">
+        <f>(Indices!B117-Indices!B116)/Indices!B116</f>
+        <v>3.0345762711864399E-2</v>
+      </c>
+      <c r="C117" s="3">
+        <f>(Indices!C117-Indices!C116)/Indices!C116</f>
+        <v>-8.6538770605499755E-3</v>
+      </c>
+      <c r="D117" s="3">
+        <f>(Indices!D117-Indices!D116)/Indices!D116</f>
+        <v>-3.7441891062188373E-3</v>
+      </c>
+      <c r="E117" s="3">
+        <f>(Indices!E117-Indices!E116)/Indices!E116</f>
+        <v>2.804946087194142E-2</v>
+      </c>
+      <c r="F117" s="3">
+        <f>(Indices!G117-Indices!G116)/Indices!G116</f>
+        <v>8.6546514874213491E-3</v>
+      </c>
+      <c r="G117" s="3">
+        <f>(Indices!H117-Indices!H116)/Indices!H116</f>
+        <v>3.5893812907633188E-3</v>
+      </c>
+      <c r="H117" s="3">
+        <f>(Indices!I117-Indices!I116)/Indices!I116</f>
+        <v>3.5893812907633188E-3</v>
+      </c>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B118" s="3">
+        <f>(Indices!B118-Indices!B117)/Indices!B117</f>
+        <v>2.3451071221771924E-2</v>
+      </c>
+      <c r="C118" s="3">
+        <f>(Indices!C118-Indices!C117)/Indices!C117</f>
+        <v>-8.0535138411195976E-3</v>
+      </c>
+      <c r="D118" s="3">
+        <f>(Indices!D118-Indices!D117)/Indices!D117</f>
+        <v>-5.6511475626330838E-3</v>
+      </c>
+      <c r="E118" s="3">
+        <f>(Indices!E118-Indices!E117)/Indices!E117</f>
+        <v>2.3562833299184276E-2</v>
+      </c>
+      <c r="F118" s="3">
+        <f>(Indices!G118-Indices!G117)/Indices!G117</f>
+        <v>9.5337679911427168E-3</v>
+      </c>
+      <c r="G118" s="3">
+        <f>(Indices!H118-Indices!H117)/Indices!H117</f>
+        <v>-6.4166954702518653E-3</v>
+      </c>
+      <c r="H118" s="3">
+        <f>(Indices!I118-Indices!I117)/Indices!I117</f>
+        <v>-6.4166954702518653E-3</v>
+      </c>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B119" s="3">
+        <f>(Indices!B119-Indices!B118)/Indices!B118</f>
+        <v>1.9519094766619453E-2</v>
+      </c>
+      <c r="C119" s="3">
+        <f>(Indices!C119-Indices!C118)/Indices!C118</f>
+        <v>-1.8455473028356256E-3</v>
+      </c>
+      <c r="D119" s="3">
+        <f>(Indices!D119-Indices!D118)/Indices!D118</f>
+        <v>1.4775381005611351E-2</v>
+      </c>
+      <c r="E119" s="3">
+        <f>(Indices!E119-Indices!E118)/Indices!E118</f>
+        <v>-3.5582895107013776E-2</v>
+      </c>
+      <c r="F119" s="3">
+        <f>(Indices!G119-Indices!G118)/Indices!G118</f>
+        <v>-1.7486139036129927E-2</v>
+      </c>
+      <c r="G119" s="3">
+        <f>(Indices!H119-Indices!H118)/Indices!H118</f>
+        <v>2.067511258762543E-2</v>
+      </c>
+      <c r="H119" s="3">
+        <f>(Indices!I119-Indices!I118)/Indices!I118</f>
+        <v>2.067511258762543E-2</v>
+      </c>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B120" s="3">
+        <f>(Indices!B120-Indices!B119)/Indices!B119</f>
+        <v>-2.9008172737362527E-2</v>
+      </c>
+      <c r="C120" s="3">
+        <f>(Indices!C120-Indices!C119)/Indices!C119</f>
+        <v>-1.1761297798377838E-2</v>
+      </c>
+      <c r="D120" s="3">
+        <f>(Indices!D120-Indices!D119)/Indices!D119</f>
+        <v>5.3169444202076609E-3</v>
+      </c>
+      <c r="E120" s="3">
+        <f>(Indices!E120-Indices!E119)/Indices!E119</f>
+        <v>4.3117037568930677E-2</v>
+      </c>
+      <c r="F120" s="3">
+        <f>(Indices!G120-Indices!G119)/Indices!G119</f>
+        <v>4.8059035098598539E-2</v>
+      </c>
+      <c r="G120" s="3">
+        <f>(Indices!H120-Indices!H119)/Indices!H119</f>
+        <v>4.5881921393539533E-3</v>
+      </c>
+      <c r="H120" s="3">
+        <f>(Indices!I120-Indices!I119)/Indices!I119</f>
+        <v>4.5881921393539533E-3</v>
+      </c>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B121" s="3">
+        <f>(Indices!B121-Indices!B120)/Indices!B120</f>
+        <v>-2.4757105003377078E-2</v>
+      </c>
+      <c r="C121" s="3">
+        <f>(Indices!C121-Indices!C120)/Indices!C120</f>
+        <v>-2.4546851859876548E-3</v>
+      </c>
+      <c r="D121" s="3">
+        <f>(Indices!D121-Indices!D120)/Indices!D120</f>
+        <v>-1.7032725615809515E-3</v>
+      </c>
+      <c r="E121" s="3">
+        <f>(Indices!E121-Indices!E120)/Indices!E120</f>
+        <v>6.9321573583585854E-3</v>
+      </c>
+      <c r="F121" s="3">
+        <f>(Indices!G121-Indices!G120)/Indices!G120</f>
+        <v>-1.0975681912312822E-2</v>
+      </c>
+      <c r="G121" s="3">
+        <f>(Indices!H121-Indices!H120)/Indices!H120</f>
+        <v>5.0816167849060965E-3</v>
+      </c>
+      <c r="H121" s="3">
+        <f>(Indices!I121-Indices!I120)/Indices!I120</f>
+        <v>5.0816167849060965E-3</v>
+      </c>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B122" s="3">
+        <f>(Indices!B122-Indices!B121)/Indices!B121</f>
+        <v>2.0670733331557473E-2</v>
+      </c>
+      <c r="C122" s="3">
+        <f>(Indices!C122-Indices!C121)/Indices!C121</f>
+        <v>1.8689248443840262E-2</v>
+      </c>
+      <c r="D122" s="3">
+        <f>(Indices!D122-Indices!D121)/Indices!D121</f>
+        <v>8.4385205148965695E-3</v>
+      </c>
+      <c r="E122" s="3">
+        <f>(Indices!E122-Indices!E121)/Indices!E121</f>
+        <v>6.2007968638175372E-3</v>
+      </c>
+      <c r="F122" s="3">
+        <f>(Indices!G122-Indices!G121)/Indices!G121</f>
+        <v>1.0708623732463833E-2</v>
+      </c>
+      <c r="G122" s="3">
+        <f>(Indices!H122-Indices!H121)/Indices!H121</f>
+        <v>9.0407750536775026E-3</v>
+      </c>
+      <c r="H122" s="3">
+        <f>(Indices!I122-Indices!I121)/Indices!I121</f>
+        <v>9.0407750536775026E-3</v>
+      </c>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B123" s="3">
+        <f>(Indices!B123-Indices!B122)/Indices!B122</f>
+        <v>-1.2266095988725601E-2</v>
+      </c>
+      <c r="C123" s="3">
+        <f>(Indices!C123-Indices!C122)/Indices!C122</f>
+        <v>3.5844901194496486E-3</v>
+      </c>
+      <c r="D123" s="3">
+        <f>(Indices!D123-Indices!D122)/Indices!D122</f>
+        <v>1.1385311708604925E-2</v>
+      </c>
+      <c r="E123" s="3">
+        <f>(Indices!E123-Indices!E122)/Indices!E122</f>
+        <v>2.1030282120013743E-2</v>
+      </c>
+      <c r="F123" s="3">
+        <f>(Indices!G123-Indices!G122)/Indices!G122</f>
+        <v>1.8793098345615506E-2</v>
+      </c>
+      <c r="G123" s="3">
+        <f>(Indices!H123-Indices!H122)/Indices!H122</f>
+        <v>1.1669874643639836E-2</v>
+      </c>
+      <c r="H123" s="3">
+        <f>(Indices!I123-Indices!I122)/Indices!I122</f>
+        <v>1.1669874643639836E-2</v>
+      </c>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B124" s="3">
+        <f>(Indices!B124-Indices!B123)/Indices!B123</f>
+        <v>2.906439083678933E-3</v>
+      </c>
+      <c r="C124" s="3">
+        <f>(Indices!C124-Indices!C123)/Indices!C123</f>
+        <v>-1.6943645320689548E-2</v>
+      </c>
+      <c r="D124" s="3">
+        <f>(Indices!D124-Indices!D123)/Indices!D123</f>
+        <v>5.167738395230909E-4</v>
+      </c>
+      <c r="E124" s="3">
+        <f>(Indices!E124-Indices!E123)/Indices!E123</f>
+        <v>1.9058313448431865E-2</v>
+      </c>
+      <c r="F124" s="3">
+        <f>(Indices!G124-Indices!G123)/Indices!G123</f>
+        <v>-6.9137810829653593E-3</v>
+      </c>
+      <c r="G124" s="3">
+        <f>(Indices!H124-Indices!H123)/Indices!H123</f>
+        <v>9.3403068861005276E-3</v>
+      </c>
+      <c r="H124" s="3">
+        <f>(Indices!I124-Indices!I123)/Indices!I123</f>
+        <v>9.3403068861005276E-3</v>
+      </c>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B125" s="3">
+        <f>(Indices!B125-Indices!B124)/Indices!B124</f>
+        <v>3.0877045077324413E-2</v>
+      </c>
+      <c r="C125" s="3">
+        <f>(Indices!C125-Indices!C124)/Indices!C124</f>
+        <v>5.2680823366690688E-3</v>
+      </c>
+      <c r="D125" s="3">
+        <f>(Indices!D125-Indices!D124)/Indices!D124</f>
+        <v>-2.5079872204473038E-3</v>
+      </c>
+      <c r="E125" s="3">
+        <f>(Indices!E125-Indices!E124)/Indices!E124</f>
+        <v>-1.5079863077291922E-2</v>
+      </c>
+      <c r="F125" s="3">
+        <f>(Indices!G125-Indices!G124)/Indices!G124</f>
+        <v>-1.7170771660913835E-2</v>
+      </c>
+      <c r="G125" s="3">
+        <f>(Indices!H125-Indices!H124)/Indices!H124</f>
+        <v>8.7850304771576286E-3</v>
+      </c>
+      <c r="H125" s="3">
+        <f>(Indices!I125-Indices!I124)/Indices!I124</f>
+        <v>8.7850304771576286E-3</v>
+      </c>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>41880</v>
+      </c>
+      <c r="B126" s="3">
+        <f>(Indices!B126-Indices!B125)/Indices!B125</f>
+        <v>7.71806077333942E-3</v>
+      </c>
+      <c r="C126" s="3">
+        <f>(Indices!C126-Indices!C125)/Indices!C125</f>
+        <v>6.6745240070412905E-3</v>
+      </c>
+      <c r="D126" s="3">
+        <f>(Indices!D126-Indices!D125)/Indices!D125</f>
+        <v>1.1039401267289136E-2</v>
+      </c>
+      <c r="E126" s="3">
+        <f>(Indices!E126-Indices!E125)/Indices!E125</f>
+        <v>3.7655321727690289E-2</v>
+      </c>
+      <c r="F126" s="3">
+        <f>(Indices!G126-Indices!G125)/Indices!G125</f>
+        <v>1.7887437126104917E-2</v>
+      </c>
+      <c r="G126" s="3">
+        <f>(Indices!H126-Indices!H125)/Indices!H125</f>
+        <v>1.8998948100748054E-2</v>
+      </c>
+      <c r="H126" s="3">
+        <f>(Indices!I126-Indices!I125)/Indices!I125</f>
+        <v>1.8998948100748054E-2</v>
+      </c>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B127" s="3">
+        <f>(Indices!B127-Indices!B126)/Indices!B126</f>
+        <v>3.0940123253277128E-3</v>
+      </c>
+      <c r="C127" s="3">
+        <f>(Indices!C127-Indices!C126)/Indices!C126</f>
+        <v>4.9268509608740409E-3</v>
+      </c>
+      <c r="D127" s="3">
+        <f>(Indices!D127-Indices!D126)/Indices!D126</f>
+        <v>-6.7899702740804382E-3</v>
+      </c>
+      <c r="E127" s="3">
+        <f>(Indices!E127-Indices!E126)/Indices!E126</f>
+        <v>-1.5513859147336702E-2</v>
+      </c>
+      <c r="F127" s="3">
+        <f>(Indices!G127-Indices!G126)/Indices!G126</f>
+        <v>3.1578947368420588E-3</v>
+      </c>
+      <c r="G127" s="3">
+        <f>(Indices!H127-Indices!H126)/Indices!H126</f>
+        <v>3.359021341561662E-3</v>
+      </c>
+      <c r="H127" s="3">
+        <f>(Indices!I127-Indices!I126)/Indices!I126</f>
+        <v>3.359021341561662E-3</v>
+      </c>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B128" s="3">
+        <f>(Indices!B128-Indices!B127)/Indices!B127</f>
+        <v>3.2892574520264076E-2</v>
+      </c>
+      <c r="C128" s="3">
+        <f>(Indices!C128-Indices!C127)/Indices!C127</f>
+        <v>7.1527861114445753E-3</v>
+      </c>
+      <c r="D128" s="3">
+        <f>(Indices!D128-Indices!D127)/Indices!D127</f>
+        <v>9.8293029115788071E-3</v>
+      </c>
+      <c r="E128" s="3">
+        <f>(Indices!E128-Indices!E127)/Indices!E127</f>
+        <v>2.3201456175308902E-2</v>
+      </c>
+      <c r="F128" s="3">
+        <f>(Indices!G128-Indices!G127)/Indices!G127</f>
+        <v>-1.8304768567097975E-2</v>
+      </c>
+      <c r="G128" s="3">
+        <f>(Indices!H128-Indices!H127)/Indices!H127</f>
+        <v>3.3109822239051584E-3</v>
+      </c>
+      <c r="H128" s="3">
+        <f>(Indices!I128-Indices!I127)/Indices!I127</f>
+        <v>3.3109822239051584E-3</v>
+      </c>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>41971</v>
+      </c>
+      <c r="B129" s="3">
+        <f>(Indices!B129-Indices!B128)/Indices!B128</f>
+        <v>5.9259803201644826E-2</v>
+      </c>
+      <c r="C129" s="3">
+        <f>(Indices!C129-Indices!C128)/Indices!C128</f>
+        <v>1.4856830790999007E-2</v>
+      </c>
+      <c r="D129" s="3">
+        <f>(Indices!D129-Indices!D128)/Indices!D128</f>
+        <v>7.0962307854285211E-3</v>
+      </c>
+      <c r="E129" s="3">
+        <f>(Indices!E129-Indices!E128)/Indices!E128</f>
+        <v>2.4533584400782932E-2</v>
+      </c>
+      <c r="F129" s="3">
+        <f>(Indices!G129-Indices!G128)/Indices!G128</f>
+        <v>3.1027315914489276E-2</v>
+      </c>
+      <c r="G129" s="3">
+        <f>(Indices!H129-Indices!H128)/Indices!H128</f>
+        <v>1.0293351703597509E-2</v>
+      </c>
+      <c r="H129" s="3">
+        <f>(Indices!I129-Indices!I128)/Indices!I128</f>
+        <v>1.0293351703597509E-2</v>
+      </c>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B130" s="3">
+        <f>(Indices!B130-Indices!B129)/Indices!B129</f>
+        <v>9.8902368573078516E-3</v>
+      </c>
+      <c r="C130" s="3">
+        <f>(Indices!C130-Indices!C129)/Indices!C129</f>
+        <v>-7.6315338893917072E-4</v>
+      </c>
+      <c r="D130" s="3">
+        <f>(Indices!D130-Indices!D129)/Indices!D129</f>
+        <v>9.3566395550628498E-4</v>
+      </c>
+      <c r="E130" s="3">
+        <f>(Indices!E130-Indices!E129)/Indices!E129</f>
+        <v>-4.1885120625277401E-3</v>
+      </c>
+      <c r="F130" s="3">
+        <f>(Indices!G130-Indices!G129)/Indices!G129</f>
+        <v>-1.3563714902807717E-2</v>
+      </c>
+      <c r="G130" s="3">
+        <f>(Indices!H130-Indices!H129)/Indices!H129</f>
+        <v>1.2885617401372862E-2</v>
+      </c>
+      <c r="H130" s="3">
+        <f>(Indices!I130-Indices!I129)/Indices!I129</f>
+        <v>1.2885617401372862E-2</v>
+      </c>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>42034</v>
+      </c>
+      <c r="B131" s="3">
+        <f>(Indices!B131-Indices!B130)/Indices!B130</f>
+        <v>8.0086035283618975E-2</v>
+      </c>
+      <c r="C131" s="3">
+        <f>(Indices!C131-Indices!C130)/Indices!C130</f>
+        <v>1.0298199834523772E-2</v>
+      </c>
+      <c r="D131" s="3">
+        <f>(Indices!D131-Indices!D130)/Indices!D130</f>
+        <v>2.09674808211524E-2</v>
+      </c>
+      <c r="E131" s="3">
+        <f>(Indices!E131-Indices!E130)/Indices!E130</f>
+        <v>-3.1040847054252307E-2</v>
+      </c>
+      <c r="F131" s="3">
+        <f>(Indices!G131-Indices!G130)/Indices!G130</f>
+        <v>7.1553687160623547E-2</v>
+      </c>
+      <c r="G131" s="3">
+        <f>(Indices!H131-Indices!H130)/Indices!H130</f>
+        <v>3.3386952782223429E-2</v>
+      </c>
+      <c r="H131" s="3">
+        <f>(Indices!I131-Indices!I130)/Indices!I130</f>
+        <v>3.3386952782223429E-2</v>
+      </c>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>42062</v>
+      </c>
+      <c r="B132" s="3">
+        <f>(Indices!B132-Indices!B131)/Indices!B131</f>
+        <v>2.351545452619566E-3</v>
+      </c>
+      <c r="C132" s="3">
+        <f>(Indices!C132-Indices!C131)/Indices!C131</f>
+        <v>1.8171906232963879E-2</v>
+      </c>
+      <c r="D132" s="3">
+        <f>(Indices!D132-Indices!D131)/Indices!D131</f>
+        <v>-9.401438348456732E-3</v>
+      </c>
+      <c r="E132" s="3">
+        <f>(Indices!E132-Indices!E131)/Indices!E131</f>
+        <v>5.4892505726845744E-2</v>
+      </c>
+      <c r="F132" s="3">
+        <f>(Indices!G132-Indices!G131)/Indices!G131</f>
+        <v>6.8546519547745446E-2</v>
+      </c>
+      <c r="G132" s="3">
+        <f>(Indices!H132-Indices!H131)/Indices!H131</f>
+        <v>3.2848658683428586E-3</v>
+      </c>
+      <c r="H132" s="3">
+        <f>(Indices!I132-Indices!I131)/Indices!I131</f>
+        <v>3.2848658683428586E-3</v>
+      </c>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B133" s="3">
+        <f>(Indices!B133-Indices!B132)/Indices!B132</f>
+        <v>7.3551168787251518E-3</v>
+      </c>
+      <c r="C133" s="3">
+        <f>(Indices!C133-Indices!C132)/Indices!C132</f>
+        <v>1.7416860015467765E-2</v>
+      </c>
+      <c r="D133" s="3">
+        <f>(Indices!D133-Indices!D132)/Indices!D132</f>
+        <v>4.6420604758757476E-3</v>
+      </c>
+      <c r="E133" s="3">
+        <f>(Indices!E133-Indices!E132)/Indices!E132</f>
+        <v>-1.7396056070325554E-2</v>
+      </c>
+      <c r="F133" s="3">
+        <f>(Indices!G133-Indices!G132)/Indices!G132</f>
+        <v>1.297774151602466E-2</v>
+      </c>
+      <c r="G133" s="3">
+        <f>(Indices!H133-Indices!H132)/Indices!H132</f>
+        <v>1.2080038293489461E-2</v>
+      </c>
+      <c r="H133" s="3">
+        <f>(Indices!I133-Indices!I132)/Indices!I132</f>
+        <v>1.2080038293489461E-2</v>
+      </c>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B134" s="3">
+        <f>(Indices!B134-Indices!B133)/Indices!B133</f>
+        <v>2.100205614535687E-2</v>
+      </c>
+      <c r="C134" s="3">
+        <f>(Indices!C134-Indices!C133)/Indices!C133</f>
+        <v>-1.2227981213629396E-2</v>
+      </c>
+      <c r="D134" s="3">
+        <f>(Indices!D134-Indices!D133)/Indices!D133</f>
+        <v>-3.5875269193012121E-3</v>
+      </c>
+      <c r="E134" s="3">
+        <f>(Indices!E134-Indices!E133)/Indices!E133</f>
+        <v>8.5207627098154871E-3</v>
+      </c>
+      <c r="F134" s="3">
+        <f>(Indices!G134-Indices!G133)/Indices!G133</f>
+        <v>-3.8006544173168661E-3</v>
+      </c>
+      <c r="G134" s="3">
+        <f>(Indices!H134-Indices!H133)/Indices!H133</f>
+        <v>-1.3434697366970474E-2</v>
+      </c>
+      <c r="H134" s="3">
+        <f>(Indices!I134-Indices!I133)/Indices!I133</f>
+        <v>-1.3434697366970474E-2</v>
+      </c>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>42153</v>
+      </c>
+      <c r="B135" s="3">
+        <f>(Indices!B135-Indices!B134)/Indices!B134</f>
+        <v>5.9593531019460369E-2</v>
+      </c>
+      <c r="C135" s="3">
+        <f>(Indices!C135-Indices!C134)/Indices!C134</f>
+        <v>-1.9913998048853429E-3</v>
+      </c>
+      <c r="D135" s="3">
+        <f>(Indices!D135-Indices!D134)/Indices!D134</f>
+        <v>-2.4088927862172503E-3</v>
+      </c>
+      <c r="E135" s="3">
+        <f>(Indices!E135-Indices!E134)/Indices!E134</f>
+        <v>1.0491438545008008E-2</v>
+      </c>
+      <c r="F135" s="3">
+        <f>(Indices!G135-Indices!G134)/Indices!G134</f>
+        <v>1.0308496930190212E-2</v>
+      </c>
+      <c r="G135" s="3">
+        <f>(Indices!H135-Indices!H134)/Indices!H134</f>
+        <v>-4.9850155935108557E-3</v>
+      </c>
+      <c r="H135" s="3">
+        <f>(Indices!I135-Indices!I134)/Indices!I134</f>
+        <v>-4.9850155935108557E-3</v>
+      </c>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B136" s="3">
+        <f>(Indices!B136-Indices!B135)/Indices!B135</f>
+        <v>2.4009464150650653E-2</v>
+      </c>
+      <c r="C136" s="3">
+        <f>(Indices!C136-Indices!C135)/Indices!C135</f>
+        <v>2.1863692982976281E-2</v>
+      </c>
+      <c r="D136" s="3">
+        <f>(Indices!D136-Indices!D135)/Indices!D135</f>
+        <v>-1.09049731641485E-2</v>
+      </c>
+      <c r="E136" s="3">
+        <f>(Indices!E136-Indices!E135)/Indices!E135</f>
+        <v>-2.1011772856471631E-2</v>
+      </c>
+      <c r="F136" s="3">
+        <f>(Indices!G136-Indices!G135)/Indices!G135</f>
+        <v>-4.641508490259335E-2</v>
+      </c>
+      <c r="G136" s="3">
+        <f>(Indices!H136-Indices!H135)/Indices!H135</f>
+        <v>-1.8925309480094611E-2</v>
+      </c>
+      <c r="H136" s="3">
+        <f>(Indices!I136-Indices!I135)/Indices!I135</f>
+        <v>-1.8925309480094611E-2</v>
+      </c>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B137" s="3">
+        <f>(Indices!B137-Indices!B136)/Indices!B136</f>
+        <v>4.1021950341849529E-2</v>
+      </c>
+      <c r="C137" s="3">
+        <f>(Indices!C137-Indices!C136)/Indices!C136</f>
+        <v>3.2389885996888704E-2</v>
+      </c>
+      <c r="D137" s="3">
+        <f>(Indices!D137-Indices!D136)/Indices!D136</f>
+        <v>6.9528305339041736E-3</v>
+      </c>
+      <c r="E137" s="3">
+        <f>(Indices!E137-Indices!E136)/Indices!E136</f>
+        <v>1.9742039930008587E-2</v>
+      </c>
+      <c r="F137" s="3">
+        <f>(Indices!G137-Indices!G136)/Indices!G136</f>
+        <v>3.9495423671028825E-2</v>
+      </c>
+      <c r="G137" s="3">
+        <f>(Indices!H137-Indices!H136)/Indices!H136</f>
+        <v>1.6501398309459517E-2</v>
+      </c>
+      <c r="H137" s="3">
+        <f>(Indices!I137-Indices!I136)/Indices!I136</f>
+        <v>1.6501398309459517E-2</v>
+      </c>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B138" s="3">
+        <f>(Indices!B138-Indices!B137)/Indices!B137</f>
+        <v>1.0533592883002671E-2</v>
+      </c>
+      <c r="C138" s="3">
+        <f>(Indices!C138-Indices!C137)/Indices!C137</f>
+        <v>6.144296509535907E-3</v>
+      </c>
+      <c r="D138" s="3">
+        <f>(Indices!D138-Indices!D137)/Indices!D137</f>
+        <v>-1.4380720489671225E-3</v>
+      </c>
+      <c r="E138" s="3">
+        <f>(Indices!E138-Indices!E137)/Indices!E137</f>
+        <v>-6.2580804623925804E-2</v>
+      </c>
+      <c r="F138" s="3">
+        <f>(Indices!G138-Indices!G137)/Indices!G137</f>
+        <v>-8.4718823321643877E-2</v>
+      </c>
+      <c r="G138" s="3">
+        <f>(Indices!H138-Indices!H137)/Indices!H137</f>
+        <v>-1.2879507165095212E-2</v>
+      </c>
+      <c r="H138" s="3">
+        <f>(Indices!I138-Indices!I137)/Indices!I137</f>
+        <v>-1.2879507165095212E-2</v>
+      </c>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B139" s="3">
+        <f>(Indices!B139-Indices!B138)/Indices!B138</f>
+        <v>2.9903143340654616E-2</v>
+      </c>
+      <c r="C139" s="3">
+        <f>(Indices!C139-Indices!C138)/Indices!C138</f>
+        <v>-3.2903266185636362E-3</v>
+      </c>
+      <c r="D139" s="3">
+        <f>(Indices!D139-Indices!D138)/Indices!D138</f>
+        <v>6.7639933035946341E-3</v>
+      </c>
+      <c r="E139" s="3">
+        <f>(Indices!E139-Indices!E138)/Indices!E138</f>
+        <v>-2.6442819620927142E-2</v>
+      </c>
+      <c r="F139" s="3">
+        <f>(Indices!G139-Indices!G138)/Indices!G138</f>
+        <v>-4.1401361669285368E-2</v>
+      </c>
+      <c r="G139" s="3">
+        <f>(Indices!H139-Indices!H138)/Indices!H138</f>
+        <v>5.1783105957405829E-3</v>
+      </c>
+      <c r="H139" s="3">
+        <f>(Indices!I139-Indices!I138)/Indices!I138</f>
+        <v>5.1783105957405829E-3</v>
+      </c>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>42307</v>
+      </c>
+      <c r="B140" s="3">
+        <f>(Indices!B140-Indices!B139)/Indices!B139</f>
+        <v>7.4413970318317577E-2</v>
+      </c>
+      <c r="C140" s="3">
+        <f>(Indices!C140-Indices!C139)/Indices!C139</f>
+        <v>2.4256559766764007E-2</v>
+      </c>
+      <c r="D140" s="3">
+        <f>(Indices!D140-Indices!D139)/Indices!D139</f>
+        <v>1.7041669463906635E-4</v>
+      </c>
+      <c r="E140" s="3">
+        <f>(Indices!E140-Indices!E139)/Indices!E139</f>
+        <v>8.298307838940025E-2</v>
+      </c>
+      <c r="F140" s="3">
+        <f>(Indices!G140-Indices!G139)/Indices!G139</f>
+        <v>7.9650343617908528E-2</v>
+      </c>
+      <c r="G140" s="3">
+        <f>(Indices!H140-Indices!H139)/Indices!H139</f>
+        <v>1.202745164362703E-2</v>
+      </c>
+      <c r="H140" s="3">
+        <f>(Indices!I140-Indices!I139)/Indices!I139</f>
+        <v>1.202745164362703E-2</v>
+      </c>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B141" s="3">
+        <f>(Indices!B141-Indices!B140)/Indices!B140</f>
+        <v>-1.8368475855785441E-2</v>
+      </c>
+      <c r="C141" s="3">
+        <f>(Indices!C141-Indices!C140)/Indices!C140</f>
+        <v>-4.304863416214904E-2</v>
+      </c>
+      <c r="D141" s="3">
+        <f>(Indices!D141-Indices!D140)/Indices!D140</f>
+        <v>-2.6435903261115942E-3</v>
+      </c>
+      <c r="E141" s="3">
+        <f>(Indices!E141-Indices!E140)/Indices!E140</f>
+        <v>5.0496306555850219E-4</v>
+      </c>
+      <c r="F141" s="3">
+        <f>(Indices!G141-Indices!G140)/Indices!G140</f>
+        <v>2.6526753136069402E-2</v>
+      </c>
+      <c r="G141" s="3">
+        <f>(Indices!H141-Indices!H140)/Indices!H140</f>
+        <v>1.0123647468384584E-2</v>
+      </c>
+      <c r="H141" s="3">
+        <f>(Indices!I141-Indices!I140)/Indices!I140</f>
+        <v>1.0123647468384584E-2</v>
+      </c>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B142" s="3">
+        <f>(Indices!B142-Indices!B141)/Indices!B141</f>
+        <v>3.0430098616060351E-2</v>
+      </c>
+      <c r="C142" s="3">
+        <f>(Indices!C142-Indices!C141)/Indices!C141</f>
+        <v>1.323174428847629E-2</v>
+      </c>
+      <c r="D142" s="3">
+        <f>(Indices!D142-Indices!D141)/Indices!D141</f>
+        <v>-3.2304156053923135E-3</v>
+      </c>
+      <c r="E142" s="3">
+        <f>(Indices!E142-Indices!E141)/Indices!E141</f>
+        <v>-1.7530198374358805E-2</v>
+      </c>
+      <c r="F142" s="3">
+        <f>(Indices!G142-Indices!G141)/Indices!G141</f>
+        <v>-5.0904184936304914E-2</v>
+      </c>
+      <c r="G142" s="3">
+        <f>(Indices!H142-Indices!H141)/Indices!H141</f>
+        <v>-1.9068711622253348E-2</v>
+      </c>
+      <c r="H142" s="3">
+        <f>(Indices!I142-Indices!I141)/Indices!I141</f>
+        <v>-1.9068711622253348E-2</v>
+      </c>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="8">
+        <v>42398</v>
+      </c>
+      <c r="B143" s="9">
+        <f>(Indices!B143-Indices!B142)/Indices!B142</f>
+        <v>-4.712808222483162E-2</v>
+      </c>
+      <c r="C143" s="9">
+        <f>(Indices!C143-Indices!C142)/Indices!C142</f>
+        <v>-7.7680777169077102E-3</v>
+      </c>
+      <c r="D143" s="9">
+        <f>(Indices!D143-Indices!D142)/Indices!D142</f>
+        <v>1.3758180118416957E-2</v>
+      </c>
+      <c r="E143" s="9">
+        <f>(Indices!E143-Indices!E142)/Indices!E142</f>
+        <v>-5.0735344481736278E-2</v>
+      </c>
+      <c r="F143" s="9">
+        <f>(Indices!G143-Indices!G142)/Indices!G142</f>
+        <v>-6.435034580793314E-2</v>
+      </c>
+      <c r="G143" s="9">
+        <f>(Indices!H143-Indices!H142)/Indices!H142</f>
+        <v>1.0871219938706794E-2</v>
+      </c>
+      <c r="H143" s="9">
+        <f>(Indices!I143-Indices!I142)/Indices!I142</f>
+        <v>1.0871219938706794E-2</v>
+      </c>
+      <c r="I143" s="10"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B144" s="3">
+        <f>(Indices!B144-Indices!B143)/Indices!B143</f>
+        <v>2.8493779645853371E-2</v>
+      </c>
+      <c r="C144" s="3">
+        <f>(Indices!C144-Indices!C143)/Indices!C143</f>
+        <v>8.7324020591808722E-3</v>
+      </c>
+      <c r="D144" s="3">
+        <f>(Indices!D144-Indices!D143)/Indices!D143</f>
+        <v>7.0956867446423256E-3</v>
+      </c>
+      <c r="E144" s="3">
+        <f>(Indices!E144-Indices!E143)/Indices!E143</f>
+        <v>-4.1283552550199932E-3</v>
+      </c>
+      <c r="F144" s="3">
+        <f>(Indices!G144-Indices!G143)/Indices!G143</f>
+        <v>-2.4395944722002998E-2</v>
+      </c>
+      <c r="G144" s="3">
+        <f>(Indices!H144-Indices!H143)/Indices!H143</f>
+        <v>5.3933989257987118E-3</v>
+      </c>
+      <c r="H144" s="3">
+        <f>(Indices!I144-Indices!I143)/Indices!I143</f>
+        <v>5.3933989257987118E-3</v>
+      </c>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B145" s="3">
+        <f>(Indices!B145-Indices!B144)/Indices!B144</f>
+        <v>3.6419439019186359E-2</v>
+      </c>
+      <c r="C145" s="3">
+        <f>(Indices!C145-Indices!C144)/Indices!C144</f>
+        <v>4.0226967635678627E-3</v>
+      </c>
+      <c r="D145" s="3">
+        <f>(Indices!D145-Indices!D144)/Indices!D144</f>
+        <v>9.17211838798619E-3</v>
+      </c>
+      <c r="E145" s="3">
+        <f>(Indices!E145-Indices!E144)/Indices!E144</f>
+        <v>6.5991108718941205E-2</v>
+      </c>
+      <c r="F145" s="3">
+        <f>(Indices!G145-Indices!G144)/Indices!G144</f>
+        <v>1.0840919980833745E-2</v>
+      </c>
+      <c r="G145" s="3">
+        <f>(Indices!H145-Indices!H144)/Indices!H144</f>
+        <v>2.2822126720010712E-3</v>
+      </c>
+      <c r="H145" s="3">
+        <f>(Indices!I145-Indices!I144)/Indices!I144</f>
+        <v>2.2822126720010712E-3</v>
+      </c>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>42489</v>
+      </c>
+      <c r="B146" s="3">
+        <f>(Indices!B146-Indices!B145)/Indices!B145</f>
+        <v>2.2011781845822295E-3</v>
+      </c>
+      <c r="C146" s="3">
+        <f>(Indices!C146-Indices!C145)/Indices!C145</f>
+        <v>6.2019963237449228E-4</v>
+      </c>
+      <c r="D146" s="3">
+        <f>(Indices!D146-Indices!D145)/Indices!D145</f>
+        <v>3.8411711035050023E-3</v>
+      </c>
+      <c r="E146" s="3">
+        <f>(Indices!E146-Indices!E145)/Indices!E145</f>
+        <v>2.6993698233759604E-3</v>
+      </c>
+      <c r="F146" s="3">
+        <f>(Indices!G146-Indices!G145)/Indices!G145</f>
+        <v>1.1672690644071806E-2</v>
+      </c>
+      <c r="G146" s="3">
+        <f>(Indices!H146-Indices!H145)/Indices!H145</f>
+        <v>-4.6891019119353373E-3</v>
+      </c>
+      <c r="H146" s="3">
+        <f>(Indices!I146-Indices!I145)/Indices!I145</f>
+        <v>-4.6891019119353373E-3</v>
+      </c>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B147" s="3">
+        <f>(Indices!B147-Indices!B146)/Indices!B146</f>
+        <v>-1.8107984262170803E-2</v>
+      </c>
+      <c r="C147" s="3">
+        <f>(Indices!C147-Indices!C146)/Indices!C146</f>
+        <v>-5.6367253993990765E-4</v>
+      </c>
+      <c r="D147" s="3">
+        <f>(Indices!D147-Indices!D146)/Indices!D146</f>
+        <v>2.5610252135442623E-4</v>
+      </c>
+      <c r="E147" s="3">
+        <f>(Indices!E147-Indices!E146)/Indices!E146</f>
+        <v>1.5329492083474484E-2</v>
+      </c>
+      <c r="F147" s="3">
+        <f>(Indices!G147-Indices!G146)/Indices!G146</f>
+        <v>1.7482722267775478E-2</v>
+      </c>
+      <c r="G147" s="3">
+        <f>(Indices!H147-Indices!H146)/Indices!H146</f>
+        <v>1.2979639257958635E-2</v>
+      </c>
+      <c r="H147" s="3">
+        <f>(Indices!I147-Indices!I146)/Indices!I146</f>
+        <v>1.2979639257958635E-2</v>
+      </c>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B148" s="3">
+        <f>(Indices!B148-Indices!B147)/Indices!B147</f>
+        <v>-3.7141339856133514E-2</v>
+      </c>
+      <c r="C148" s="3">
+        <f>(Indices!C148-Indices!C147)/Indices!C147</f>
+        <v>-8.6665782856937407E-3</v>
+      </c>
+      <c r="D148" s="3">
+        <f>(Indices!D148-Indices!D147)/Indices!D147</f>
+        <v>1.7967769466338653E-2</v>
+      </c>
+      <c r="E148" s="3">
+        <f>(Indices!E148-Indices!E147)/Indices!E147</f>
+        <v>9.0607355409740335E-4</v>
+      </c>
+      <c r="F148" s="3">
+        <f>(Indices!G148-Indices!G147)/Indices!G147</f>
+        <v>-5.0568427111814633E-2</v>
+      </c>
+      <c r="G148" s="3">
+        <f>(Indices!H148-Indices!H147)/Indices!H147</f>
+        <v>8.6832437552857508E-3</v>
+      </c>
+      <c r="H148" s="3">
+        <f>(Indices!I148-Indices!I147)/Indices!I147</f>
+        <v>8.6832437552857508E-3</v>
+      </c>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B149" s="3">
+        <f>(Indices!B149-Indices!B148)/Indices!B148</f>
+        <v>-2.2796784383199882E-2</v>
+      </c>
+      <c r="C149" s="3">
+        <f>(Indices!C149-Indices!C148)/Indices!C148</f>
+        <v>-4.7870965987134237E-3</v>
+      </c>
+      <c r="D149" s="3">
+        <f>(Indices!D149-Indices!D148)/Indices!D148</f>
+        <v>6.3224654656283434E-3</v>
+      </c>
+      <c r="E149" s="3">
+        <f>(Indices!E149-Indices!E148)/Indices!E148</f>
+        <v>3.5609807228685945E-2</v>
+      </c>
+      <c r="F149" s="3">
+        <f>(Indices!G149-Indices!G148)/Indices!G148</f>
+        <v>3.6407178367891327E-2</v>
+      </c>
+      <c r="G149" s="3">
+        <f>(Indices!H149-Indices!H148)/Indices!H148</f>
+        <v>9.3955245941673721E-3</v>
+      </c>
+      <c r="H149" s="3">
+        <f>(Indices!I149-Indices!I148)/Indices!I148</f>
+        <v>9.3955245941673721E-3</v>
+      </c>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B150" s="3">
+        <f>(Indices!B150-Indices!B149)/Indices!B149</f>
+        <v>3.5454685388838364E-2</v>
+      </c>
+      <c r="C150" s="3">
+        <f>(Indices!C150-Indices!C149)/Indices!C149</f>
+        <v>3.8945599147296416E-2</v>
+      </c>
+      <c r="D150" s="3">
+        <f>(Indices!D150-Indices!D149)/Indices!D149</f>
+        <v>-1.1418713948963383E-3</v>
+      </c>
+      <c r="E150" s="3">
+        <f>(Indices!E150-Indices!E149)/Indices!E149</f>
+        <v>-1.2191755612808663E-3</v>
+      </c>
+      <c r="F150" s="3">
+        <f>(Indices!G150-Indices!G149)/Indices!G149</f>
+        <v>4.7968644885781576E-3</v>
+      </c>
+      <c r="G150" s="3">
+        <f>(Indices!H150-Indices!H149)/Indices!H149</f>
+        <v>2.0674697158767669E-3</v>
+      </c>
+      <c r="H150" s="3">
+        <f>(Indices!I150-Indices!I149)/Indices!I149</f>
+        <v>2.0674697158767669E-3</v>
+      </c>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B151" s="3">
+        <f>(Indices!B151-Indices!B150)/Indices!B150</f>
+        <v>-4.0071355422681761E-2</v>
+      </c>
+      <c r="C151" s="3">
+        <f>(Indices!C151-Indices!C150)/Indices!C150</f>
+        <v>2.284216110519204E-3</v>
+      </c>
+      <c r="D151" s="3">
+        <f>(Indices!D151-Indices!D150)/Indices!D150</f>
+        <v>-5.8876056089258327E-4</v>
+      </c>
+      <c r="E151" s="3">
+        <f>(Indices!E151-Indices!E150)/Indices!E150</f>
+        <v>-1.2344825997834296E-3</v>
+      </c>
+      <c r="F151" s="3">
+        <f>(Indices!G151-Indices!G150)/Indices!G150</f>
+        <v>-1.7756818909555406E-3</v>
+      </c>
+      <c r="G151" s="3">
+        <f>(Indices!H151-Indices!H150)/Indices!H150</f>
+        <v>-5.3344267058496111E-3</v>
+      </c>
+      <c r="H151" s="3">
+        <f>(Indices!I151-Indices!I150)/Indices!I150</f>
+        <v>-5.3344267058496111E-3</v>
+      </c>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B152" s="3">
+        <f>(Indices!B152-Indices!B151)/Indices!B151</f>
+        <v>1.913414550209926E-2</v>
+      </c>
+      <c r="C152" s="3">
+        <f>(Indices!C152-Indices!C151)/Indices!C151</f>
+        <v>4.1883923572227956E-3</v>
+      </c>
+      <c r="D152" s="3">
+        <f>(Indices!D152-Indices!D151)/Indices!D151</f>
+        <v>-7.6485777965419038E-3</v>
+      </c>
+      <c r="E152" s="3">
+        <f>(Indices!E152-Indices!E151)/Indices!E151</f>
+        <v>-1.9425625037472222E-2</v>
+      </c>
+      <c r="F152" s="3">
+        <f>(Indices!G152-Indices!G151)/Indices!G151</f>
+        <v>-1.1518721567712553E-2</v>
+      </c>
+      <c r="G152" s="3">
+        <f>(Indices!H152-Indices!H151)/Indices!H151</f>
+        <v>-2.5468243582477058E-2</v>
+      </c>
+      <c r="H152" s="3">
+        <f>(Indices!I152-Indices!I151)/Indices!I151</f>
+        <v>-2.5468243582477058E-2</v>
+      </c>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B153" s="3">
+        <f>(Indices!B153-Indices!B152)/Indices!B152</f>
+        <v>-2.7689606267305776E-3</v>
+      </c>
+      <c r="C153" s="3">
+        <f>(Indices!C153-Indices!C152)/Indices!C152</f>
+        <v>4.1447865641831812E-3</v>
+      </c>
+      <c r="D153" s="3">
+        <f>(Indices!D153-Indices!D152)/Indices!D152</f>
+        <v>-2.3651924408825652E-2</v>
+      </c>
+      <c r="E153" s="3">
+        <f>(Indices!E153-Indices!E152)/Indices!E152</f>
+        <v>3.4174446769983234E-2</v>
+      </c>
+      <c r="F153" s="3">
+        <f>(Indices!G153-Indices!G152)/Indices!G152</f>
+        <v>8.9093430097058196E-3</v>
+      </c>
+      <c r="G153" s="3">
+        <f>(Indices!H153-Indices!H152)/Indices!H152</f>
+        <v>-4.123679806335088E-3</v>
+      </c>
+      <c r="H153" s="3">
+        <f>(Indices!I153-Indices!I152)/Indices!I152</f>
+        <v>-4.123679806335088E-3</v>
+      </c>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>42734</v>
+      </c>
+      <c r="B154" s="3">
+        <f>(Indices!B154-Indices!B153)/Indices!B153</f>
+        <v>2.8443722064202624E-3</v>
+      </c>
+      <c r="C154" s="3">
+        <f>(Indices!C154-Indices!C153)/Indices!C153</f>
+        <v>1.0253039905950568E-2</v>
+      </c>
+      <c r="D154" s="3">
+        <f>(Indices!D154-Indices!D153)/Indices!D153</f>
+        <v>1.4086005705338863E-3</v>
+      </c>
+      <c r="E154" s="3">
+        <f>(Indices!E154-Indices!E153)/Indices!E153</f>
+        <v>1.8200754044233009E-2</v>
+      </c>
+      <c r="F154" s="3">
+        <f>(Indices!G154-Indices!G153)/Indices!G153</f>
+        <v>5.6814526740547988E-2</v>
+      </c>
+      <c r="G154" s="3">
+        <f>(Indices!H154-Indices!H153)/Indices!H153</f>
+        <v>7.516279788140047E-3</v>
+      </c>
+      <c r="H154" s="3">
+        <f>(Indices!I154-Indices!I153)/Indices!I153</f>
+        <v>7.516279788140047E-3</v>
+      </c>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B155" s="3">
+        <f>(Indices!B155-Indices!B154)/Indices!B154</f>
+        <v>2.1204754186925891E-2</v>
+      </c>
+      <c r="C155" s="3">
+        <f>(Indices!C155-Indices!C154)/Indices!C154</f>
+        <v>6.355190752338327E-4</v>
+      </c>
+      <c r="D155" s="3">
+        <f>(Indices!D155-Indices!D154)/Indices!D154</f>
+        <v>1.963195150705642E-3</v>
+      </c>
+      <c r="E155" s="3">
+        <f>(Indices!E155-Indices!E154)/Indices!E154</f>
+        <v>1.7884341374735897E-2</v>
+      </c>
+      <c r="F155" s="3">
+        <f>(Indices!G155-Indices!G154)/Indices!G154</f>
+        <v>-3.5969232471916644E-3</v>
+      </c>
+      <c r="G155" s="3">
+        <f>(Indices!H155-Indices!H154)/Indices!H154</f>
+        <v>-1.4856394285647143E-2</v>
+      </c>
+      <c r="H155" s="3">
+        <f>(Indices!I155-Indices!I154)/Indices!I154</f>
+        <v>-1.4856394285647143E-2</v>
+      </c>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B156" s="3">
+        <f>(Indices!B156-Indices!B155)/Indices!B155</f>
+        <v>1.848300489353252E-2</v>
+      </c>
+      <c r="C156" s="3">
+        <f>(Indices!C156-Indices!C155)/Indices!C155</f>
+        <v>9.2907090763584479E-4</v>
+      </c>
+      <c r="D156" s="3">
+        <f>(Indices!D156-Indices!D155)/Indices!D155</f>
+        <v>6.7213735639439186E-3</v>
+      </c>
+      <c r="E156" s="3">
+        <f>(Indices!E156-Indices!E155)/Indices!E155</f>
+        <v>3.7198260541408672E-2</v>
+      </c>
+      <c r="F156" s="3">
+        <f>(Indices!G156-Indices!G155)/Indices!G155</f>
+        <v>2.8101743863156739E-2</v>
+      </c>
+      <c r="G156" s="3">
+        <f>(Indices!H156-Indices!H155)/Indices!H155</f>
+        <v>1.4595039057146791E-2</v>
+      </c>
+      <c r="H156" s="3">
+        <f>(Indices!I156-Indices!I155)/Indices!I155</f>
+        <v>1.4595039057146791E-2</v>
+      </c>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B157" s="3">
+        <f>(Indices!B157-Indices!B156)/Indices!B156</f>
+        <v>2.0793429211440541E-2</v>
+      </c>
+      <c r="C157" s="3">
+        <f>(Indices!C157-Indices!C156)/Indices!C156</f>
+        <v>1.0253167270466542E-2</v>
+      </c>
+      <c r="D157" s="3">
+        <f>(Indices!D157-Indices!D156)/Indices!D156</f>
+        <v>-5.2669596099437922E-4</v>
+      </c>
+      <c r="E157" s="3">
+        <f>(Indices!E157-Indices!E156)/Indices!E156</f>
+        <v>-3.8923017041515325E-4</v>
+      </c>
+      <c r="F157" s="3">
+        <f>(Indices!G157-Indices!G156)/Indices!G156</f>
+        <v>2.9440363007778678E-2</v>
+      </c>
+      <c r="G157" s="3">
+        <f>(Indices!H157-Indices!H156)/Indices!H156</f>
+        <v>-3.5985595304748631E-3</v>
+      </c>
+      <c r="H157" s="3">
+        <f>(Indices!I157-Indices!I156)/Indices!I156</f>
+        <v>-3.5985595304748631E-3</v>
+      </c>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>42853</v>
+      </c>
+      <c r="B158" s="3">
+        <f>(Indices!B158-Indices!B157)/Indices!B157</f>
+        <v>5.662537567382768E-2</v>
+      </c>
+      <c r="C158" s="3">
+        <f>(Indices!C158-Indices!C157)/Indices!C157</f>
+        <v>1.6374797622609533E-2</v>
+      </c>
+      <c r="D158" s="3">
+        <f>(Indices!D158-Indices!D157)/Indices!D157</f>
+        <v>7.7189073078680207E-3</v>
+      </c>
+      <c r="E158" s="3">
+        <f>(Indices!E158-Indices!E157)/Indices!E157</f>
+        <v>9.0912169025529985E-3</v>
+      </c>
+      <c r="F158" s="3">
+        <f>(Indices!G158-Indices!G157)/Indices!G157</f>
+        <v>1.5611061552185519E-2</v>
+      </c>
+      <c r="G158" s="3">
+        <f>(Indices!H158-Indices!H157)/Indices!H157</f>
+        <v>6.4924047566365072E-3</v>
+      </c>
+      <c r="H158" s="3">
+        <f>(Indices!I158-Indices!I157)/Indices!I157</f>
+        <v>6.4924047566365072E-3</v>
+      </c>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B159" s="3">
+        <f>(Indices!B159-Indices!B158)/Indices!B158</f>
+        <v>-2.9195762099687795E-3</v>
+      </c>
+      <c r="C159" s="3">
+        <f>(Indices!C159-Indices!C158)/Indices!C158</f>
+        <v>1.5440823399235803E-2</v>
+      </c>
+      <c r="D159" s="3">
+        <f>(Indices!D159-Indices!D158)/Indices!D158</f>
+        <v>7.6946446269466045E-3</v>
+      </c>
+      <c r="E159" s="3">
+        <f>(Indices!E159-Indices!E158)/Indices!E158</f>
+        <v>1.1576210049492646E-2</v>
+      </c>
+      <c r="F159" s="3">
+        <f>(Indices!G159-Indices!G158)/Indices!G158</f>
+        <v>7.4917977731277846E-3</v>
+      </c>
+      <c r="G159" s="3">
+        <f>(Indices!H159-Indices!H158)/Indices!H158</f>
+        <v>-1.1843559011206685E-3</v>
+      </c>
+      <c r="H159" s="3">
+        <f>(Indices!I159-Indices!I158)/Indices!I158</f>
+        <v>-1.1843559011206685E-3</v>
+      </c>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B160" s="3">
+        <f>(Indices!B160-Indices!B159)/Indices!B159</f>
+        <v>-8.4221330032902587E-3</v>
+      </c>
+      <c r="C160" s="3">
+        <f>(Indices!C160-Indices!C159)/Indices!C159</f>
+        <v>1.0310740851916042E-2</v>
+      </c>
+      <c r="D160" s="3">
+        <f>(Indices!D160-Indices!D159)/Indices!D159</f>
+        <v>-1.0032915871776235E-3</v>
+      </c>
+      <c r="E160" s="3">
+        <f>(Indices!E160-Indices!E159)/Indices!E159</f>
+        <v>4.81383199270241E-3</v>
+      </c>
+      <c r="F160" s="3">
+        <f>(Indices!G160-Indices!G159)/Indices!G159</f>
+        <v>-2.7231467473524971E-2</v>
+      </c>
+      <c r="G160" s="3">
+        <f>(Indices!H160-Indices!H159)/Indices!H159</f>
+        <v>-8.9397450223950934E-3</v>
+      </c>
+      <c r="H160" s="3">
+        <f>(Indices!I160-Indices!I159)/Indices!I159</f>
+        <v>-8.9397450223950934E-3</v>
+      </c>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B161" s="3">
+        <f>(Indices!B161-Indices!B160)/Indices!B160</f>
+        <v>2.0001217730150976E-2</v>
+      </c>
+      <c r="C161" s="3">
+        <f>(Indices!C161-Indices!C160)/Indices!C160</f>
+        <v>5.8099189867338637E-3</v>
+      </c>
+      <c r="D161" s="3">
+        <f>(Indices!D161-Indices!D160)/Indices!D160</f>
+        <v>4.3041393947489725E-3</v>
+      </c>
+      <c r="E161" s="3">
+        <f>(Indices!E161-Indices!E160)/Indices!E160</f>
+        <v>1.9348768883515513E-2</v>
+      </c>
+      <c r="F161" s="3">
+        <f>(Indices!G161-Indices!G160)/Indices!G160</f>
+        <v>-4.006642591665081E-3</v>
+      </c>
+      <c r="G161" s="3">
+        <f>(Indices!H161-Indices!H160)/Indices!H160</f>
+        <v>-9.9763210505634625E-4</v>
+      </c>
+      <c r="H161" s="3">
+        <f>(Indices!I161-Indices!I160)/Indices!I160</f>
+        <v>-9.9763210505634625E-4</v>
+      </c>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B162" s="3">
+        <f>(Indices!B162-Indices!B161)/Indices!B161</f>
+        <v>-4.4754514251604254E-2</v>
+      </c>
+      <c r="C162" s="3">
+        <f>(Indices!C162-Indices!C161)/Indices!C161</f>
+        <v>8.7606422582619137E-4</v>
+      </c>
+      <c r="D162" s="3">
+        <f>(Indices!D162-Indices!D161)/Indices!D161</f>
+        <v>8.9654730764873302E-3</v>
+      </c>
+      <c r="E162" s="3">
+        <f>(Indices!E162-Indices!E161)/Indices!E161</f>
+        <v>5.4649232886690234E-4</v>
+      </c>
+      <c r="F162" s="3">
+        <f>(Indices!G162-Indices!G161)/Indices!G161</f>
+        <v>-1.0506814873627172E-2</v>
+      </c>
+      <c r="G162" s="3">
+        <f>(Indices!H162-Indices!H161)/Indices!H161</f>
+        <v>4.7229454308687696E-3</v>
+      </c>
+      <c r="H162" s="3">
+        <f>(Indices!I162-Indices!I161)/Indices!I161</f>
+        <v>4.7229454308687696E-3</v>
+      </c>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B163" s="3">
+        <f>(Indices!B163-Indices!B162)/Indices!B162</f>
+        <v>-2.0262142444267432E-2</v>
+      </c>
+      <c r="C163" s="3">
+        <f>(Indices!C163-Indices!C162)/Indices!C162</f>
+        <v>-8.2253698788531115E-3</v>
+      </c>
+      <c r="D163" s="3">
+        <f>(Indices!D163-Indices!D162)/Indices!D162</f>
+        <v>-4.7602540755098356E-3</v>
+      </c>
+      <c r="E163" s="3">
+        <f>(Indices!E163-Indices!E162)/Indices!E162</f>
+        <v>1.9302894827342074E-2</v>
+      </c>
+      <c r="F163" s="3">
+        <f>(Indices!G163-Indices!G162)/Indices!G162</f>
+        <v>3.8194072964587648E-2</v>
+      </c>
+      <c r="G163" s="3">
+        <f>(Indices!H163-Indices!H162)/Indices!H162</f>
+        <v>-2.7417363105577497E-4</v>
+      </c>
+      <c r="H163" s="3">
+        <f>(Indices!I163-Indices!I162)/Indices!I162</f>
+        <v>-2.7417363105577497E-4</v>
+      </c>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B164" s="3">
+        <f>(Indices!B164-Indices!B163)/Indices!B163</f>
+        <v>1.8066141531396563E-2</v>
+      </c>
+      <c r="C164" s="3">
+        <f>(Indices!C164-Indices!C163)/Indices!C163</f>
+        <v>1.7838653132770697E-2</v>
+      </c>
+      <c r="D164" s="3">
+        <f>(Indices!D164-Indices!D163)/Indices!D163</f>
+        <v>5.7886836141011534E-4</v>
+      </c>
+      <c r="E164" s="3">
+        <f>(Indices!E164-Indices!E163)/Indices!E163</f>
+        <v>2.218817477454595E-2</v>
+      </c>
+      <c r="F164" s="3">
+        <f>(Indices!G164-Indices!G163)/Indices!G163</f>
+        <v>1.8188375927452601E-2</v>
+      </c>
+      <c r="G164" s="3">
+        <f>(Indices!H164-Indices!H163)/Indices!H163</f>
+        <v>8.853381855400343E-3</v>
+      </c>
+      <c r="H164" s="3">
+        <f>(Indices!I164-Indices!I163)/Indices!I163</f>
+        <v>8.853381855400343E-3</v>
+      </c>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B165" s="3">
+        <f>(Indices!B165-Indices!B164)/Indices!B164</f>
+        <v>-9.9769762087490478E-3</v>
+      </c>
+      <c r="C165" s="3">
+        <f>(Indices!C165-Indices!C164)/Indices!C164</f>
+        <v>1.5687703755917402E-2</v>
+      </c>
+      <c r="D165" s="3">
+        <f>(Indices!D165-Indices!D164)/Indices!D164</f>
+        <v>-1.2845404090918585E-3</v>
+      </c>
+      <c r="E165" s="3">
+        <f>(Indices!E165-Indices!E164)/Indices!E164</f>
+        <v>2.8082601368405406E-2</v>
+      </c>
+      <c r="F165" s="3">
+        <f>(Indices!G165-Indices!G164)/Indices!G164</f>
+        <v>-2.1582915844339936E-2</v>
+      </c>
+      <c r="G165" s="3">
+        <f>(Indices!H165-Indices!H164)/Indices!H164</f>
+        <v>5.7273271981710854E-4</v>
+      </c>
+      <c r="H165" s="3">
+        <f>(Indices!I165-Indices!I164)/Indices!I164</f>
+        <v>5.7273271981710854E-4</v>
+      </c>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>43098</v>
+      </c>
+      <c r="B166" s="3">
+        <f>(Indices!B166-Indices!B165)/Indices!B165</f>
+        <v>-4.5246005378895959E-3</v>
+      </c>
+      <c r="C166" s="3">
+        <f>(Indices!C166-Indices!C165)/Indices!C165</f>
+        <v>1.9814434371834243E-3</v>
+      </c>
+      <c r="D166" s="3">
+        <f>(Indices!D166-Indices!D165)/Indices!D165</f>
+        <v>4.5900383894119396E-3</v>
+      </c>
+      <c r="E166" s="3">
+        <f>(Indices!E166-Indices!E165)/Indices!E165</f>
+        <v>9.8316198188535195E-3</v>
+      </c>
+      <c r="F166" s="3">
+        <f>(Indices!G166-Indices!G165)/Indices!G165</f>
+        <v>6.4392665959813007E-3</v>
+      </c>
+      <c r="G166" s="3">
+        <f>(Indices!H166-Indices!H165)/Indices!H165</f>
+        <v>-3.0730472695507461E-3</v>
+      </c>
+      <c r="H166" s="3">
+        <f>(Indices!I166-Indices!I165)/Indices!I165</f>
+        <v>-3.0730472695507461E-3</v>
+      </c>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B167" s="3">
+        <f>(Indices!B167-Indices!B166)/Indices!B166</f>
+        <v>6.0024791812345019E-2</v>
+      </c>
+      <c r="C167" s="3">
+        <f>(Indices!C167-Indices!C166)/Indices!C166</f>
+        <v>-3.6343172422477602E-3</v>
+      </c>
+      <c r="D167" s="3">
+        <f>(Indices!D167-Indices!D166)/Indices!D166</f>
+        <v>-1.1517956185831466E-2</v>
+      </c>
+      <c r="E167" s="3">
+        <f>(Indices!E167-Indices!E166)/Indices!E166</f>
+        <v>5.6178724645703677E-2</v>
+      </c>
+      <c r="F167" s="3">
+        <f>(Indices!G167-Indices!G166)/Indices!G166</f>
+        <v>1.613649211161923E-2</v>
+      </c>
+      <c r="G167" s="3">
+        <f>(Indices!H167-Indices!H166)/Indices!H166</f>
+        <v>-4.4216689159673299E-3</v>
+      </c>
+      <c r="H167" s="3">
+        <f>(Indices!I167-Indices!I166)/Indices!I166</f>
+        <v>-4.4216689159673299E-3</v>
+      </c>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B168" s="3">
+        <f>(Indices!B168-Indices!B167)/Indices!B167</f>
+        <v>3.6881006281765439E-3</v>
+      </c>
+      <c r="C168" s="3">
+        <f>(Indices!C168-Indices!C167)/Indices!C167</f>
+        <v>-2.758884912829601E-3</v>
+      </c>
+      <c r="D168" s="3">
+        <f>(Indices!D168-Indices!D167)/Indices!D167</f>
+        <v>-9.4769626260628077E-3</v>
+      </c>
+      <c r="E168" s="3">
+        <f>(Indices!E168-Indices!E167)/Indices!E167</f>
+        <v>-3.8947379604151844E-2</v>
+      </c>
+      <c r="F168" s="3">
+        <f>(Indices!G168-Indices!G167)/Indices!G167</f>
+        <v>-4.0029332928741175E-2</v>
+      </c>
+      <c r="G168" s="3">
+        <f>(Indices!H168-Indices!H167)/Indices!H167</f>
+        <v>-1.1128370490478697E-3</v>
+      </c>
+      <c r="H168" s="3">
+        <f>(Indices!I168-Indices!I167)/Indices!I167</f>
+        <v>-1.1128370490478697E-3</v>
+      </c>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>43189</v>
+      </c>
+      <c r="B169" s="3">
+        <f>(Indices!B169-Indices!B168)/Indices!B168</f>
+        <v>7.5731548837138871E-3</v>
+      </c>
+      <c r="C169" s="3">
+        <f>(Indices!C169-Indices!C168)/Indices!C168</f>
+        <v>9.8085617475993196E-3</v>
+      </c>
+      <c r="D169" s="3">
+        <f>(Indices!D169-Indices!D168)/Indices!D168</f>
+        <v>6.4133597520499835E-3</v>
+      </c>
+      <c r="E169" s="3">
+        <f>(Indices!E169-Indices!E168)/Indices!E168</f>
+        <v>-2.6884513768364281E-2</v>
+      </c>
+      <c r="F169" s="3">
+        <f>(Indices!G169-Indices!G168)/Indices!G168</f>
+        <v>-2.3075099438927354E-2</v>
+      </c>
+      <c r="G169" s="3">
+        <f>(Indices!H169-Indices!H168)/Indices!H168</f>
+        <v>1.1994354877834023E-2</v>
+      </c>
+      <c r="H169" s="3">
+        <f>(Indices!I169-Indices!I168)/Indices!I168</f>
+        <v>1.1994354877834023E-2</v>
+      </c>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B170" s="3">
+        <f>(Indices!B170-Indices!B169)/Indices!B169</f>
+        <v>3.9137782785305343E-3</v>
+      </c>
+      <c r="C170" s="3">
+        <f>(Indices!C170-Indices!C169)/Indices!C169</f>
+        <v>2.0454188892376026E-3</v>
+      </c>
+      <c r="D170" s="3">
+        <f>(Indices!D170-Indices!D169)/Indices!D169</f>
+        <v>-7.4387050702213759E-3</v>
+      </c>
+      <c r="E170" s="3">
+        <f>(Indices!E170-Indices!E169)/Indices!E169</f>
+        <v>2.718801001185326E-3</v>
+      </c>
+      <c r="F170" s="3">
+        <f>(Indices!G170-Indices!G169)/Indices!G169</f>
+        <v>3.8962439668886642E-2</v>
+      </c>
+      <c r="G170" s="3">
+        <f>(Indices!H170-Indices!H169)/Indices!H169</f>
+        <v>-4.3594381360573106E-3</v>
+      </c>
+      <c r="H170" s="3">
+        <f>(Indices!I170-Indices!I169)/Indices!I169</f>
+        <v>-4.3594381360573106E-3</v>
+      </c>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B171" s="3">
+        <f>(Indices!B171-Indices!B170)/Indices!B170</f>
+        <v>-3.0169231223603696E-2</v>
+      </c>
+      <c r="C171" s="3">
+        <f>(Indices!C171-Indices!C170)/Indices!C170</f>
+        <v>-2.6851259288833392E-3</v>
+      </c>
+      <c r="D171" s="3">
+        <f>(Indices!D171-Indices!D170)/Indices!D170</f>
+        <v>7.1347203069728263E-3</v>
+      </c>
+      <c r="E171" s="3">
+        <f>(Indices!E171-Indices!E170)/Indices!E170</f>
+        <v>2.1608353316591378E-2</v>
+      </c>
+      <c r="F171" s="3">
+        <f>(Indices!G171-Indices!G170)/Indices!G170</f>
+        <v>-5.8652548531090802E-3</v>
+      </c>
+      <c r="G171" s="3">
+        <f>(Indices!H171-Indices!H170)/Indices!H170</f>
+        <v>-1.8162164225524941E-3</v>
+      </c>
+      <c r="H171" s="3">
+        <f>(Indices!I171-Indices!I170)/Indices!I170</f>
+        <v>-1.8162164225524941E-3</v>
+      </c>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B172" s="3">
+        <f>(Indices!B172-Indices!B171)/Indices!B171</f>
+        <v>2.4210125618576808E-3</v>
+      </c>
+      <c r="C172" s="3">
+        <f>(Indices!C172-Indices!C171)/Indices!C171</f>
+        <v>9.7529194981860765E-4</v>
+      </c>
+      <c r="D172" s="3">
+        <f>(Indices!D172-Indices!D171)/Indices!D171</f>
+        <v>-1.2303051950629134E-3</v>
+      </c>
+      <c r="E172" s="3">
+        <f>(Indices!E172-Indices!E171)/Indices!E171</f>
+        <v>4.842400204046143E-3</v>
+      </c>
+      <c r="F172" s="3">
+        <f>(Indices!G172-Indices!G171)/Indices!G171</f>
+        <v>-8.1710437007257233E-3</v>
+      </c>
+      <c r="G172" s="3">
+        <f>(Indices!H172-Indices!H171)/Indices!H171</f>
+        <v>8.5435357461791778E-4</v>
+      </c>
+      <c r="H172" s="3">
+        <f>(Indices!I172-Indices!I171)/Indices!I171</f>
+        <v>8.5435357461791778E-4</v>
+      </c>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B173" s="3">
+        <f>(Indices!B173-Indices!B172)/Indices!B172</f>
+        <v>-4.6389403651608707E-2</v>
+      </c>
+      <c r="C173" s="3">
+        <f>(Indices!C173-Indices!C172)/Indices!C172</f>
+        <v>1.1390191496369174E-2</v>
+      </c>
+      <c r="D173" s="3">
+        <f>(Indices!D173-Indices!D172)/Indices!D172</f>
+        <v>2.384169117062794E-4</v>
+      </c>
+      <c r="E173" s="3">
+        <f>(Indices!E173-Indices!E172)/Indices!E172</f>
+        <v>3.6021586465418642E-2</v>
+      </c>
+      <c r="F173" s="3">
+        <f>(Indices!G173-Indices!G172)/Indices!G172</f>
+        <v>3.0742505198326026E-2</v>
+      </c>
+      <c r="G173" s="3">
+        <f>(Indices!H173-Indices!H172)/Indices!H172</f>
+        <v>-2.8960701587106069E-3</v>
+      </c>
+      <c r="H173" s="3">
+        <f>(Indices!I173-Indices!I172)/Indices!I172</f>
+        <v>-2.8960701587106069E-3</v>
+      </c>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B174" s="3">
+        <f>(Indices!B174-Indices!B173)/Indices!B173</f>
+        <v>-3.5043007327160497E-4</v>
+      </c>
+      <c r="C174" s="3">
+        <f>(Indices!C174-Indices!C173)/Indices!C173</f>
+        <v>4.1655521052611196E-3</v>
+      </c>
+      <c r="D174" s="3">
+        <f>(Indices!D174-Indices!D173)/Indices!D173</f>
+        <v>6.4357222310503911E-3</v>
+      </c>
+      <c r="E174" s="3">
+        <f>(Indices!E174-Indices!E173)/Indices!E173</f>
+        <v>3.0263218631603996E-2</v>
+      </c>
+      <c r="F174" s="3">
+        <f>(Indices!G174-Indices!G173)/Indices!G173</f>
+        <v>-2.3875794795842859E-2</v>
+      </c>
+      <c r="G174" s="3">
+        <f>(Indices!H174-Indices!H173)/Indices!H173</f>
+        <v>-2.3788881191020498E-3</v>
+      </c>
+      <c r="H174" s="3">
+        <f>(Indices!I174-Indices!I173)/Indices!I173</f>
+        <v>-2.3788881191020498E-3</v>
+      </c>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B175" s="3">
+        <f>(Indices!B175-Indices!B174)/Indices!B174</f>
+        <v>1.5456196819527606E-3</v>
+      </c>
+      <c r="C175" s="3">
+        <f>(Indices!C175-Indices!C174)/Indices!C174</f>
+        <v>4.9454972232249152E-3</v>
+      </c>
+      <c r="D175" s="3">
+        <f>(Indices!D175-Indices!D174)/Indices!D174</f>
+        <v>-6.4389752901239218E-3</v>
+      </c>
+      <c r="E175" s="3">
+        <f>(Indices!E175-Indices!E174)/Indices!E174</f>
+        <v>4.2943009181394707E-3</v>
+      </c>
+      <c r="F175" s="3">
+        <f>(Indices!G175-Indices!G174)/Indices!G174</f>
+        <v>2.4067388688327734E-3</v>
+      </c>
+      <c r="G175" s="3">
+        <f>(Indices!H175-Indices!H174)/Indices!H174</f>
+        <v>-3.2269920226557897E-3</v>
+      </c>
+      <c r="H175" s="3">
+        <f>(Indices!I175-Indices!I174)/Indices!I174</f>
+        <v>-3.2269920226557897E-3</v>
+      </c>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B176" s="3">
+        <f>(Indices!B176-Indices!B175)/Indices!B175</f>
+        <v>-2.3387160925940551E-2</v>
+      </c>
+      <c r="C176" s="3">
+        <f>(Indices!C176-Indices!C175)/Indices!C175</f>
+        <v>9.3044876289115758E-3</v>
+      </c>
+      <c r="D176" s="3">
+        <f>(Indices!D176-Indices!D175)/Indices!D175</f>
+        <v>-7.9009966876400217E-3</v>
+      </c>
+      <c r="E176" s="3">
+        <f>(Indices!E176-Indices!E175)/Indices!E175</f>
+        <v>-6.9403358979814631E-2</v>
+      </c>
+      <c r="F176" s="3">
+        <f>(Indices!G176-Indices!G175)/Indices!G175</f>
+        <v>-5.629208205021137E-2</v>
+      </c>
+      <c r="G176" s="3">
+        <f>(Indices!H176-Indices!H175)/Indices!H175</f>
+        <v>1.7165916022762176E-3</v>
+      </c>
+      <c r="H176" s="3">
+        <f>(Indices!I176-Indices!I175)/Indices!I175</f>
+        <v>1.7165916022762176E-3</v>
+      </c>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B177" s="3">
+        <f>(Indices!B177-Indices!B176)/Indices!B176</f>
+        <v>3.8445874399283433E-3</v>
+      </c>
+      <c r="C177" s="3">
+        <f>(Indices!C177-Indices!C176)/Indices!C176</f>
+        <v>8.6763230964519746E-3</v>
+      </c>
+      <c r="D177" s="3">
+        <f>(Indices!D177-Indices!D176)/Indices!D176</f>
+        <v>5.9666826846067958E-3</v>
+      </c>
+      <c r="E177" s="3">
+        <f>(Indices!E177-Indices!E176)/Indices!E176</f>
+        <v>1.7859381799140144E-2</v>
+      </c>
+      <c r="F177" s="3">
+        <f>(Indices!G177-Indices!G176)/Indices!G176</f>
+        <v>-1.1393490224274784E-2</v>
+      </c>
+      <c r="G177" s="3">
+        <f>(Indices!H177-Indices!H176)/Indices!H176</f>
+        <v>1.8972553185452181E-4</v>
+      </c>
+      <c r="H177" s="3">
+        <f>(Indices!I177-Indices!I176)/Indices!I176</f>
+        <v>1.8972553185452181E-4</v>
+      </c>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B178" s="3">
+        <f>(Indices!B178-Indices!B177)/Indices!B177</f>
+        <v>-7.6434981580955127E-3</v>
+      </c>
+      <c r="C178" s="3">
+        <f>(Indices!C178-Indices!C177)/Indices!C177</f>
+        <v>1.9592009237526686E-2</v>
+      </c>
+      <c r="D178" s="3">
+        <f>(Indices!D178-Indices!D177)/Indices!D177</f>
+        <v>1.8371083953664189E-2</v>
+      </c>
+      <c r="E178" s="3">
+        <f>(Indices!E178-Indices!E177)/Indices!E177</f>
+        <v>-9.1776955767217297E-2</v>
+      </c>
+      <c r="F178" s="3">
+        <f>(Indices!G178-Indices!G177)/Indices!G177</f>
+        <v>-5.5498055889675324E-2</v>
+      </c>
+      <c r="G178" s="3">
+        <f>(Indices!H178-Indices!H177)/Indices!H177</f>
+        <v>6.9153639351226806E-3</v>
+      </c>
+      <c r="H178" s="3">
+        <f>(Indices!I178-Indices!I177)/Indices!I177</f>
+        <v>6.9153639351226806E-3</v>
+      </c>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B179" s="3">
+        <f>(Indices!B179-Indices!B178)/Indices!B178</f>
+        <v>4.2322158626328696E-2</v>
+      </c>
+      <c r="C179" s="3">
+        <f>(Indices!C179-Indices!C178)/Indices!C178</f>
+        <v>-2.7239283784483274E-3</v>
+      </c>
+      <c r="D179" s="3">
+        <f>(Indices!D179-Indices!D178)/Indices!D178</f>
+        <v>1.0622495846770368E-2</v>
+      </c>
+      <c r="E179" s="3">
+        <f>(Indices!E179-Indices!E178)/Indices!E178</f>
+        <v>7.8684404731036967E-2</v>
+      </c>
+      <c r="F179" s="3">
+        <f>(Indices!G179-Indices!G178)/Indices!G178</f>
+        <v>6.225381312009489E-2</v>
+      </c>
+      <c r="G179" s="3">
+        <f>(Indices!H179-Indices!H178)/Indices!H178</f>
+        <v>1.4127272198495345E-2</v>
+      </c>
+      <c r="H179" s="3">
+        <f>(Indices!I179-Indices!I178)/Indices!I178</f>
+        <v>1.4127272198495345E-2</v>
+      </c>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B180" s="3">
+        <f>(Indices!B180-Indices!B179)/Indices!B179</f>
+        <v>4.0964573723681341E-2</v>
+      </c>
+      <c r="C180" s="3">
+        <f>(Indices!C180-Indices!C179)/Indices!C179</f>
+        <v>6.7968767395773276E-3</v>
+      </c>
+      <c r="D180" s="3">
+        <f>(Indices!D180-Indices!D179)/Indices!D179</f>
+        <v>-5.8017540636465606E-4</v>
+      </c>
+      <c r="E180" s="3">
+        <f>(Indices!E180-Indices!E179)/Indices!E179</f>
+        <v>2.9728930143115964E-2</v>
+      </c>
+      <c r="F180" s="3">
+        <f>(Indices!G180-Indices!G179)/Indices!G179</f>
+        <v>3.9395544651071999E-2</v>
+      </c>
+      <c r="G180" s="3">
+        <f>(Indices!H180-Indices!H179)/Indices!H179</f>
+        <v>1.0311100762439795E-3</v>
+      </c>
+      <c r="H180" s="3">
+        <f>(Indices!I180-Indices!I179)/Indices!I179</f>
+        <v>1.0311100762439795E-3</v>
+      </c>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B181" s="3">
+        <f>(Indices!B181-Indices!B180)/Indices!B180</f>
+        <v>4.3738413540520556E-2</v>
+      </c>
+      <c r="C181" s="3">
+        <f>(Indices!C181-Indices!C180)/Indices!C180</f>
+        <v>3.2562519927679834E-2</v>
+      </c>
+      <c r="D181" s="3">
+        <f>(Indices!D181-Indices!D180)/Indices!D180</f>
+        <v>1.9200441189276031E-2</v>
+      </c>
+      <c r="E181" s="3">
+        <f>(Indices!E181-Indices!E180)/Indices!E180</f>
+        <v>1.7924287751078408E-2</v>
+      </c>
+      <c r="F181" s="3">
+        <f>(Indices!G181-Indices!G180)/Indices!G180</f>
+        <v>1.6872317596566426E-2</v>
+      </c>
+      <c r="G181" s="3">
+        <f>(Indices!H181-Indices!H180)/Indices!H180</f>
+        <v>1.7496277888046658E-2</v>
+      </c>
+      <c r="H181" s="3">
+        <f>(Indices!I181-Indices!I180)/Indices!I180</f>
+        <v>1.7496277888046658E-2</v>
+      </c>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B182" s="3">
+        <f>(Indices!B182-Indices!B181)/Indices!B181</f>
+        <v>5.9955812912448891E-2</v>
+      </c>
+      <c r="C182" s="3">
+        <f>(Indices!C182-Indices!C181)/Indices!C181</f>
+        <v>6.413151154385139E-3</v>
+      </c>
+      <c r="D182" s="3">
+        <f>(Indices!D182-Indices!D181)/Indices!D181</f>
+        <v>2.563092418467383E-4</v>
+      </c>
+      <c r="E182" s="3">
+        <f>(Indices!E182-Indices!E181)/Indices!E181</f>
+        <v>3.9313434942139368E-2</v>
+      </c>
+      <c r="F182" s="3">
+        <f>(Indices!G182-Indices!G181)/Indices!G181</f>
+        <v>3.2340605133345773E-2</v>
+      </c>
+      <c r="G182" s="3">
+        <f>(Indices!H182-Indices!H181)/Indices!H181</f>
+        <v>-1.2754003223169233E-3</v>
+      </c>
+      <c r="H182" s="3">
+        <f>(Indices!I182-Indices!I181)/Indices!I181</f>
+        <v>-1.2754003223169233E-3</v>
+      </c>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B183" s="3">
+        <f>(Indices!B183-Indices!B182)/Indices!B182</f>
+        <v>3.6851354849256938E-2</v>
+      </c>
+      <c r="C183" s="3">
+        <f>(Indices!C183-Indices!C182)/Indices!C182</f>
+        <v>1.531263744839032E-2</v>
+      </c>
+      <c r="D183" s="3">
+        <f>(Indices!D183-Indices!D182)/Indices!D182</f>
+        <v>1.775198470131031E-2</v>
+      </c>
+      <c r="E183" s="3">
+        <f>(Indices!E183-Indices!E182)/Indices!E182</f>
+        <v>-6.5777726481161508E-2</v>
+      </c>
+      <c r="F183" s="3">
+        <f>(Indices!G183-Indices!G182)/Indices!G182</f>
+        <v>-5.6956688386354974E-2</v>
+      </c>
+      <c r="G183" s="3">
+        <f>(Indices!H183-Indices!H182)/Indices!H182</f>
+        <v>6.5618675340084641E-3</v>
+      </c>
+      <c r="H183" s="3">
+        <f>(Indices!I183-Indices!I182)/Indices!I182</f>
+        <v>6.5618675340084641E-3</v>
+      </c>
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B184" s="3">
+        <f>(Indices!B184-Indices!B183)/Indices!B183</f>
+        <v>-2.1508908393335791E-2</v>
+      </c>
+      <c r="C184" s="3">
+        <f>(Indices!C184-Indices!C183)/Indices!C183</f>
+        <v>1.3813534748690678E-2</v>
+      </c>
+      <c r="D184" s="3">
+        <f>(Indices!D184-Indices!D183)/Indices!D183</f>
+        <v>1.2556066356456062E-2</v>
+      </c>
+      <c r="E184" s="3">
+        <f>(Indices!E184-Indices!E183)/Indices!E183</f>
+        <v>6.8930183208215035E-2</v>
+      </c>
+      <c r="F184" s="3">
+        <f>(Indices!G184-Indices!G183)/Indices!G183</f>
+        <v>4.2838562835311338E-2</v>
+      </c>
+      <c r="G184" s="3">
+        <f>(Indices!H184-Indices!H183)/Indices!H183</f>
+        <v>1.4678089879420894E-2</v>
+      </c>
+      <c r="H184" s="3">
+        <f>(Indices!I184-Indices!I183)/Indices!I183</f>
+        <v>1.4678089879420894E-2</v>
+      </c>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B185" s="3">
+        <f>(Indices!B185-Indices!B184)/Indices!B184</f>
+        <v>2.1458017214754758E-2</v>
+      </c>
+      <c r="C185" s="3">
+        <f>(Indices!C185-Indices!C184)/Indices!C184</f>
+        <v>6.1131308258241222E-3</v>
+      </c>
+      <c r="D185" s="3">
+        <f>(Indices!D185-Indices!D184)/Indices!D184</f>
+        <v>2.2010305243332423E-3</v>
+      </c>
+      <c r="E185" s="3">
+        <f>(Indices!E185-Indices!E184)/Indices!E184</f>
+        <v>1.312819536603934E-2</v>
+      </c>
+      <c r="F185" s="3">
+        <f>(Indices!G185-Indices!G184)/Indices!G184</f>
+        <v>2.3384519448124749E-3</v>
+      </c>
+      <c r="G185" s="3">
+        <f>(Indices!H185-Indices!H184)/Indices!H184</f>
+        <v>1.2918373282775534E-2</v>
+      </c>
+      <c r="H185" s="3">
+        <f>(Indices!I185-Indices!I184)/Indices!I184</f>
+        <v>1.2918373282775534E-2</v>
+      </c>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B186" s="3">
+        <f>(Indices!B186-Indices!B185)/Indices!B185</f>
+        <v>-3.316725604385494E-2</v>
+      </c>
+      <c r="C186" s="3">
+        <f>(Indices!C186-Indices!C185)/Indices!C185</f>
+        <v>2.142350729015717E-3</v>
+      </c>
+      <c r="D186" s="3">
+        <f>(Indices!D186-Indices!D185)/Indices!D185</f>
+        <v>2.5913282395048955E-2</v>
+      </c>
+      <c r="E186" s="3">
+        <f>(Indices!E186-Indices!E185)/Indices!E185</f>
+        <v>-1.8091652742267789E-2</v>
+      </c>
+      <c r="F186" s="3">
+        <f>(Indices!G186-Indices!G185)/Indices!G185</f>
+        <v>-1.6305052233195852E-2</v>
+      </c>
+      <c r="G186" s="3">
+        <f>(Indices!H186-Indices!H185)/Indices!H185</f>
+        <v>2.1002369162251948E-2</v>
+      </c>
+      <c r="H186" s="3">
+        <f>(Indices!I186-Indices!I185)/Indices!I185</f>
+        <v>2.1002369162251948E-2</v>
+      </c>
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B187" s="3">
+        <f>(Indices!B187-Indices!B186)/Indices!B186</f>
+        <v>-2.5480651565006944E-2</v>
+      </c>
+      <c r="C187" s="3">
+        <f>(Indices!C187-Indices!C186)/Indices!C186</f>
+        <v>1.1339926075165379E-2</v>
+      </c>
+      <c r="D187" s="3">
+        <f>(Indices!D187-Indices!D186)/Indices!D186</f>
+        <v>-5.324937636874129E-3</v>
+      </c>
+      <c r="E187" s="3">
+        <f>(Indices!E187-Indices!E186)/Indices!E186</f>
+        <v>1.7181167690656883E-2</v>
+      </c>
+      <c r="F187" s="3">
+        <f>(Indices!G187-Indices!G186)/Indices!G186</f>
+        <v>3.6022978813112567E-2</v>
+      </c>
+      <c r="G187" s="3">
+        <f>(Indices!H187-Indices!H186)/Indices!H186</f>
+        <v>-4.7962146553035185E-4</v>
+      </c>
+      <c r="H187" s="3">
+        <f>(Indices!I187-Indices!I186)/Indices!I186</f>
+        <v>-4.7962146553035185E-4</v>
+      </c>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B188" s="3">
+        <f>(Indices!B188-Indices!B187)/Indices!B187</f>
+        <v>1.2320013394351946E-2</v>
+      </c>
+      <c r="C188" s="3">
+        <f>(Indices!C188-Indices!C187)/Indices!C187</f>
+        <v>-1.1135048367336979E-3</v>
+      </c>
+      <c r="D188" s="3">
+        <f>(Indices!D188-Indices!D187)/Indices!D187</f>
+        <v>3.0121566861774219E-3</v>
+      </c>
+      <c r="E188" s="3">
+        <f>(Indices!E188-Indices!E187)/Indices!E187</f>
+        <v>2.0431747482144953E-2</v>
+      </c>
+      <c r="F188" s="3">
+        <f>(Indices!G188-Indices!G187)/Indices!G187</f>
+        <v>9.1568103777184863E-3</v>
+      </c>
+      <c r="G188" s="3">
+        <f>(Indices!H188-Indices!H187)/Indices!H187</f>
+        <v>-5.9128559181765147E-3</v>
+      </c>
+      <c r="H188" s="3">
+        <f>(Indices!I188-Indices!I187)/Indices!I187</f>
+        <v>-5.9128559181765147E-3</v>
+      </c>
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B189" s="3">
+        <f>(Indices!B189-Indices!B188)/Indices!B188</f>
+        <v>6.4695748053201094E-2</v>
+      </c>
+      <c r="C189" s="3">
+        <f>(Indices!C189-Indices!C188)/Indices!C188</f>
+        <v>-1.3003115876082256E-2</v>
+      </c>
+      <c r="D189" s="3">
+        <f>(Indices!D189-Indices!D188)/Indices!D188</f>
+        <v>-5.1174086160995136E-4</v>
+      </c>
+      <c r="E189" s="3">
+        <f>(Indices!E189-Indices!E188)/Indices!E188</f>
+        <v>3.4047064090915104E-2</v>
+      </c>
+      <c r="F189" s="3">
+        <f>(Indices!G189-Indices!G188)/Indices!G188</f>
+        <v>2.6918714555765614E-2</v>
+      </c>
+      <c r="G189" s="3">
+        <f>(Indices!H189-Indices!H188)/Indices!H188</f>
+        <v>-3.8059185983250182E-3</v>
+      </c>
+      <c r="H189" s="3">
+        <f>(Indices!I189-Indices!I188)/Indices!I188</f>
+        <v>-3.8059185983250182E-3</v>
+      </c>
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B190" s="3">
+        <f>(Indices!B190-Indices!B189)/Indices!B189</f>
+        <v>1.149529443746844E-2</v>
+      </c>
+      <c r="C190" s="3">
+        <f>(Indices!C190-Indices!C189)/Indices!C189</f>
+        <v>-1.962367111755515E-3</v>
+      </c>
+      <c r="D190" s="3">
+        <f>(Indices!D190-Indices!D189)/Indices!D189</f>
+        <v>-6.9614425905557104E-4</v>
+      </c>
+      <c r="E190" s="3">
+        <f>(Indices!E190-Indices!E189)/Indices!E189</f>
+        <v>2.8589803182446302E-2</v>
+      </c>
+      <c r="F190" s="3">
+        <f>(Indices!G190-Indices!G189)/Indices!G189</f>
+        <v>2.0641582603146476E-2</v>
+      </c>
+      <c r="G190" s="3">
+        <f>(Indices!H190-Indices!H189)/Indices!H189</f>
+        <v>-6.0934972110207476E-3</v>
+      </c>
+      <c r="H190" s="3">
+        <f>(Indices!I190-Indices!I189)/Indices!I189</f>
+        <v>-6.0934972110207476E-3</v>
+      </c>
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B191" s="3">
+        <f>(Indices!B191-Indices!B190)/Indices!B190</f>
+        <v>-1.3898665165030669E-2</v>
+      </c>
+      <c r="C191" s="3">
+        <f>(Indices!C191-Indices!C190)/Indices!C190</f>
+        <v>1.3897522727506962E-2</v>
+      </c>
+      <c r="D191" s="3">
+        <f>(Indices!D191-Indices!D190)/Indices!D190</f>
+        <v>1.9244943820224791E-2</v>
+      </c>
+      <c r="E191" s="3">
+        <f>(Indices!E191-Indices!E190)/Indices!E190</f>
+        <v>-1.6280898111292685E-3</v>
+      </c>
+      <c r="F191" s="3">
+        <f>(Indices!G191-Indices!G190)/Indices!G190</f>
+        <v>-1.2336475567525962E-2</v>
+      </c>
+      <c r="G191" s="3">
+        <f>(Indices!H191-Indices!H190)/Indices!H190</f>
+        <v>2.2788755765518826E-2</v>
+      </c>
+      <c r="H191" s="3">
+        <f>(Indices!I191-Indices!I190)/Indices!I190</f>
+        <v>2.2788755765518826E-2</v>
+      </c>
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B192" s="3">
+        <f>(Indices!B192-Indices!B191)/Indices!B191</f>
+        <v>-7.1134702988929335E-2</v>
+      </c>
+      <c r="C192" s="3">
+        <f>(Indices!C192-Indices!C191)/Indices!C191</f>
+        <v>2.4597452352280592E-2</v>
+      </c>
+      <c r="D192" s="3">
+        <f>(Indices!D192-Indices!D191)/Indices!D191</f>
+        <v>1.7999664876400995E-2</v>
+      </c>
+      <c r="E192" s="3">
+        <f>(Indices!E192-Indices!E191)/Indices!E191</f>
+        <v>-8.4110469009648109E-2</v>
+      </c>
+      <c r="F192" s="3">
+        <f>(Indices!G192-Indices!G191)/Indices!G191</f>
+        <v>-8.5364369019502825E-2</v>
+      </c>
+      <c r="G192" s="3">
+        <f>(Indices!H192-Indices!H191)/Indices!H191</f>
+        <v>7.015268502275771E-4</v>
+      </c>
+      <c r="H192" s="3">
+        <f>(Indices!I192-Indices!I191)/Indices!I191</f>
+        <v>7.015268502275771E-4</v>
+      </c>
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B193" s="3">
+        <f>(Indices!B193-Indices!B192)/Indices!B192</f>
+        <v>-4.9965069163057131E-2</v>
+      </c>
+      <c r="C193" s="3">
+        <f>(Indices!C193-Indices!C192)/Indices!C192</f>
+        <v>1.4310273576328627E-2</v>
+      </c>
+      <c r="D193" s="3">
+        <f>(Indices!D193-Indices!D192)/Indices!D192</f>
+        <v>-5.8865825767550123E-3</v>
+      </c>
+      <c r="E193" s="3">
+        <f>(Indices!E193-Indices!E192)/Indices!E192</f>
+        <v>-0.12511932083595659</v>
+      </c>
+      <c r="F193" s="3">
+        <f>(Indices!G193-Indices!G192)/Indices!G192</f>
+        <v>-0.14798349527485685</v>
+      </c>
+      <c r="G193" s="3">
+        <f>(Indices!H193-Indices!H192)/Indices!H192</f>
+        <v>-3.5377741978746692E-2</v>
+      </c>
+      <c r="H193" s="3">
+        <f>(Indices!I193-Indices!I192)/Indices!I192</f>
+        <v>-3.5377741978746692E-2</v>
+      </c>
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B194" s="3">
+        <f>(Indices!B194-Indices!B193)/Indices!B193</f>
+        <v>5.4387151807512281E-2</v>
+      </c>
+      <c r="C194" s="3">
+        <f>(Indices!C194-Indices!C193)/Indices!C193</f>
+        <v>1.5470814381191828E-2</v>
+      </c>
+      <c r="D194" s="3">
+        <f>(Indices!D194-Indices!D193)/Indices!D193</f>
+        <v>1.7777390470795722E-2</v>
+      </c>
+      <c r="E194" s="3">
+        <f>(Indices!E194-Indices!E193)/Indices!E193</f>
+        <v>0.12684410293315368</v>
+      </c>
+      <c r="F194" s="3">
+        <f>(Indices!G194-Indices!G193)/Indices!G193</f>
+        <v>6.2394551021683342E-2</v>
+      </c>
+      <c r="G194" s="3">
+        <f>(Indices!H194-Indices!H193)/Indices!H193</f>
+        <v>1.9783723439639734E-2</v>
+      </c>
+      <c r="H194" s="3">
+        <f>(Indices!I194-Indices!I193)/Indices!I193</f>
+        <v>1.9783723439639734E-2</v>
+      </c>
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B195" s="3">
+        <f>(Indices!B195-Indices!B194)/Indices!B194</f>
+        <v>7.684260447469736E-2</v>
+      </c>
+      <c r="C195" s="3">
+        <f>(Indices!C195-Indices!C194)/Indices!C194</f>
+        <v>1.3097416145081111E-2</v>
+      </c>
+      <c r="D195" s="3">
+        <f>(Indices!D195-Indices!D194)/Indices!D194</f>
+        <v>4.6535522400838625E-3</v>
+      </c>
+      <c r="E195" s="3">
+        <f>(Indices!E195-Indices!E194)/Indices!E194</f>
+        <v>4.5281775012618368E-2</v>
+      </c>
+      <c r="F195" s="3">
+        <f>(Indices!G195-Indices!G194)/Indices!G194</f>
+        <v>3.0379672381848782E-2</v>
+      </c>
+      <c r="G195" s="3">
+        <f>(Indices!H195-Indices!H194)/Indices!H194</f>
+        <v>-2.7331535629326847E-3</v>
+      </c>
+      <c r="H195" s="3">
+        <f>(Indices!I195-Indices!I194)/Indices!I194</f>
+        <v>-2.7331535629326847E-3</v>
+      </c>
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B196" s="3">
+        <f>(Indices!B196-Indices!B195)/Indices!B195</f>
+        <v>2.2098159350267561E-2</v>
+      </c>
+      <c r="C196" s="3">
+        <f>(Indices!C196-Indices!C195)/Indices!C195</f>
+        <v>3.8779522257829349E-3</v>
+      </c>
+      <c r="D196" s="3">
+        <f>(Indices!D196-Indices!D195)/Indices!D195</f>
+        <v>6.30241358150969E-3</v>
+      </c>
+      <c r="E196" s="3">
+        <f>(Indices!E196-Indices!E195)/Indices!E195</f>
+        <v>1.838840328350267E-2</v>
+      </c>
+      <c r="F196" s="3">
+        <f>(Indices!G196-Indices!G195)/Indices!G195</f>
+        <v>2.8484986870647221E-2</v>
+      </c>
+      <c r="G196" s="3">
+        <f>(Indices!H196-Indices!H195)/Indices!H195</f>
+        <v>5.8635912520380723E-3</v>
+      </c>
+      <c r="H196" s="3">
+        <f>(Indices!I196-Indices!I195)/Indices!I195</f>
+        <v>5.8635912520380723E-3</v>
+      </c>
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B197" s="3">
+        <f>(Indices!B197-Indices!B196)/Indices!B196</f>
+        <v>-1.0556731341959573E-2</v>
+      </c>
+      <c r="C197" s="3">
+        <f>(Indices!C197-Indices!C196)/Indices!C196</f>
+        <v>6.8643494095878711E-4</v>
+      </c>
+      <c r="D197" s="3">
+        <f>(Indices!D197-Indices!D196)/Indices!D196</f>
+        <v>1.4935359155794376E-2</v>
+      </c>
+      <c r="E197" s="3">
+        <f>(Indices!E197-Indices!E196)/Indices!E196</f>
+        <v>5.5101296975444213E-2</v>
+      </c>
+      <c r="F197" s="3">
+        <f>(Indices!G197-Indices!G196)/Indices!G196</f>
+        <v>-1.1128378753399542E-2</v>
+      </c>
+      <c r="G197" s="3">
+        <f>(Indices!H197-Indices!H196)/Indices!H196</f>
+        <v>1.0476500140924194E-2</v>
+      </c>
+      <c r="H197" s="3">
+        <f>(Indices!I197-Indices!I196)/Indices!I196</f>
+        <v>1.0476500140924194E-2</v>
+      </c>
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B198" s="3">
+        <f>(Indices!B198-Indices!B197)/Indices!B197</f>
+        <v>4.4957348156876688E-3</v>
+      </c>
+      <c r="C198" s="3">
+        <f>(Indices!C198-Indices!C197)/Indices!C197</f>
+        <v>1.2361545642630024E-2</v>
+      </c>
+      <c r="D198" s="3">
+        <f>(Indices!D198-Indices!D197)/Indices!D197</f>
+        <v>-8.0733317200578948E-3</v>
+      </c>
+      <c r="E198" s="3">
+        <f>(Indices!E198-Indices!E197)/Indices!E197</f>
+        <v>7.0064687324219249E-2</v>
+      </c>
+      <c r="F198" s="3">
+        <f>(Indices!G198-Indices!G197)/Indices!G197</f>
+        <v>2.8569023096567808E-2</v>
+      </c>
+      <c r="G198" s="3">
+        <f>(Indices!H198-Indices!H197)/Indices!H197</f>
+        <v>-7.341353287996271E-3</v>
+      </c>
+      <c r="H198" s="3">
+        <f>(Indices!I198-Indices!I197)/Indices!I197</f>
+        <v>-7.341353287996271E-3</v>
+      </c>
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B199" s="3">
+        <f>(Indices!B199-Indices!B198)/Indices!B198</f>
+        <v>-5.5084475613644242E-3</v>
+      </c>
+      <c r="C199" s="3">
+        <f>(Indices!C199-Indices!C198)/Indices!C198</f>
+        <v>-5.4830112323847463E-3</v>
+      </c>
+      <c r="D199" s="3">
+        <f>(Indices!D199-Indices!D198)/Indices!D198</f>
+        <v>-5.4680894915927166E-4</v>
+      </c>
+      <c r="E199" s="3">
+        <f>(Indices!E199-Indices!E198)/Indices!E198</f>
+        <v>-3.9227954095494386E-2</v>
+      </c>
+      <c r="F199" s="3">
+        <f>(Indices!G199-Indices!G198)/Indices!G198</f>
+        <v>-1.4788136749338397E-2</v>
+      </c>
+      <c r="G199" s="3">
+        <f>(Indices!H199-Indices!H198)/Indices!H198</f>
+        <v>6.9335942574315348E-3</v>
+      </c>
+      <c r="H199" s="3">
+        <f>(Indices!I199-Indices!I198)/Indices!I198</f>
+        <v>6.9335942574315348E-3</v>
+      </c>
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B200" s="3">
+        <f>(Indices!B200-Indices!B199)/Indices!B199</f>
+        <v>6.6852153398382033E-2</v>
+      </c>
+      <c r="C200" s="3">
+        <f>(Indices!C200-Indices!C199)/Indices!C199</f>
+        <v>-2.1995009890941119E-2</v>
+      </c>
+      <c r="D200" s="3">
+        <f>(Indices!D200-Indices!D199)/Indices!D199</f>
+        <v>-4.4652439050052511E-3</v>
+      </c>
+      <c r="E200" s="3">
+        <f>(Indices!E200-Indices!E199)/Indices!E199</f>
+        <v>-2.766577460600653E-2</v>
+      </c>
+      <c r="F200" s="3">
+        <f>(Indices!G200-Indices!G199)/Indices!G199</f>
+        <v>-5.1870724750062207E-2</v>
+      </c>
+      <c r="G200" s="3">
+        <f>(Indices!H200-Indices!H199)/Indices!H199</f>
+        <v>7.2514393321117592E-3</v>
+      </c>
+      <c r="H200" s="3">
+        <f>(Indices!I200-Indices!I199)/Indices!I199</f>
+        <v>7.2514393321117592E-3</v>
+      </c>
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B201" s="3">
+        <f>(Indices!B201-Indices!B200)/Indices!B200</f>
+        <v>6.488636773348383E-2</v>
+      </c>
+      <c r="C201" s="3">
+        <f>(Indices!C201-Indices!C200)/Indices!C200</f>
+        <v>-9.5096249319368345E-3</v>
+      </c>
+      <c r="D201" s="3">
+        <f>(Indices!D201-Indices!D200)/Indices!D200</f>
+        <v>9.8117961378470855E-3</v>
+      </c>
+      <c r="E201" s="3">
+        <f>(Indices!E201-Indices!E200)/Indices!E200</f>
+        <v>0.10754565805086302</v>
+      </c>
+      <c r="F201" s="3">
+        <f>(Indices!G201-Indices!G200)/Indices!G200</f>
+        <v>0.13728239280289753</v>
+      </c>
+      <c r="G201" s="3">
+        <f>(Indices!H201-Indices!H200)/Indices!H200</f>
+        <v>3.6551839375257504E-3</v>
+      </c>
+      <c r="H201" s="3">
+        <f>(Indices!I201-Indices!I200)/Indices!I200</f>
+        <v>3.6551839375257504E-3</v>
+      </c>
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B202" s="3">
+        <f>(Indices!B202-Indices!B201)/Indices!B201</f>
+        <v>0.11002640904679144</v>
+      </c>
+      <c r="C202" s="3">
+        <f>(Indices!C202-Indices!C201)/Indices!C201</f>
+        <v>-1.7850155703804447E-3</v>
+      </c>
+      <c r="D202" s="3">
+        <f>(Indices!D202-Indices!D201)/Indices!D201</f>
+        <v>1.3773009088511316E-3</v>
+      </c>
+      <c r="E202" s="3">
+        <f>(Indices!E202-Indices!E201)/Indices!E201</f>
+        <v>3.7121406659432372E-2</v>
+      </c>
+      <c r="F202" s="3">
+        <f>(Indices!G202-Indices!G201)/Indices!G201</f>
+        <v>2.4835627696732993E-2</v>
+      </c>
+      <c r="G202" s="3">
+        <f>(Indices!H202-Indices!H201)/Indices!H201</f>
+        <v>4.2226085071779317E-3</v>
+      </c>
+      <c r="H202" s="3">
+        <f>(Indices!I202-Indices!I201)/Indices!I201</f>
+        <v>4.2226085071779317E-3</v>
+      </c>
+      <c r="I202" s="2"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B203" s="3">
+        <f>(Indices!B203-Indices!B202)/Indices!B202</f>
+        <v>3.7425651974988622E-2</v>
+      </c>
+      <c r="C203" s="3">
+        <f>(Indices!C203-Indices!C202)/Indices!C202</f>
+        <v>-1.8157433533427113E-3</v>
+      </c>
+      <c r="D203" s="3">
+        <f>(Indices!D203-Indices!D202)/Indices!D202</f>
+        <v>-7.1696724943771757E-3</v>
+      </c>
+      <c r="E203" s="3">
+        <f>(Indices!E203-Indices!E202)/Indices!E202</f>
+        <v>-1.1136640158463601E-2</v>
+      </c>
+      <c r="F203" s="3">
+        <f>(Indices!G203-Indices!G202)/Indices!G202</f>
+        <v>-7.969325614615318E-3</v>
+      </c>
+      <c r="G203" s="3">
+        <f>(Indices!H203-Indices!H202)/Indices!H202</f>
+        <v>-4.2940018869836059E-3</v>
+      </c>
+      <c r="H203" s="3">
+        <f>(Indices!I203-Indices!I202)/Indices!I202</f>
+        <v>-4.2940018869836059E-3</v>
+      </c>
+      <c r="I203" s="2"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B204" s="3">
+        <f>(Indices!B204-Indices!B203)/Indices!B203</f>
+        <v>7.5208749852992959E-2</v>
+      </c>
+      <c r="C204" s="3">
+        <f>(Indices!C204-Indices!C203)/Indices!C203</f>
+        <v>-1.1560112096089705E-2</v>
+      </c>
+      <c r="D204" s="3">
+        <f>(Indices!D204-Indices!D203)/Indices!D203</f>
+        <v>-1.4438685064866693E-2</v>
+      </c>
+      <c r="E204" s="3">
+        <f>(Indices!E204-Indices!E203)/Indices!E203</f>
+        <v>2.6091474971999741E-2</v>
+      </c>
+      <c r="F204" s="3">
+        <f>(Indices!G204-Indices!G203)/Indices!G203</f>
+        <v>2.3089554124036848E-2</v>
+      </c>
+      <c r="G204" s="3">
+        <f>(Indices!H204-Indices!H203)/Indices!H203</f>
+        <v>-1.8829870659746388E-2</v>
+      </c>
+      <c r="H204" s="3">
+        <f>(Indices!I204-Indices!I203)/Indices!I203</f>
+        <v>-1.8829870659746388E-2</v>
+      </c>
+      <c r="I204" s="2"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B205" s="3">
+        <f>(Indices!B205-Indices!B204)/Indices!B204</f>
+        <v>-6.7815149029257383E-3</v>
+      </c>
+      <c r="C205" s="3">
+        <f>(Indices!C205-Indices!C204)/Indices!C204</f>
+        <v>1.444183782523676E-2</v>
+      </c>
+      <c r="D205" s="3">
+        <f>(Indices!D205-Indices!D204)/Indices!D204</f>
+        <v>-1.2488357586581112E-2</v>
+      </c>
+      <c r="E205" s="3">
+        <f>(Indices!E205-Indices!E204)/Indices!E204</f>
+        <v>4.2438634008107733E-2</v>
+      </c>
+      <c r="F205" s="3">
+        <f>(Indices!G205-Indices!G204)/Indices!G204</f>
+        <v>6.07669325168523E-2</v>
+      </c>
+      <c r="G205" s="3">
+        <f>(Indices!H205-Indices!H204)/Indices!H204</f>
+        <v>3.8669840726041523E-3</v>
+      </c>
+      <c r="H205" s="3">
+        <f>(Indices!I205-Indices!I204)/Indices!I204</f>
+        <v>3.8669840726041523E-3</v>
+      </c>
+      <c r="I205" s="2"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B206" s="3">
+        <f>(Indices!B206-Indices!B205)/Indices!B205</f>
+        <v>6.2900354238936876E-2</v>
+      </c>
+      <c r="C206" s="3">
+        <f>(Indices!C206-Indices!C205)/Indices!C205</f>
+        <v>6.5201560047255525E-3</v>
+      </c>
+      <c r="D206" s="3">
+        <f>(Indices!D206-Indices!D205)/Indices!D205</f>
+        <v>7.9001449369417096E-3</v>
+      </c>
+      <c r="E206" s="3">
+        <f>(Indices!E206-Indices!E205)/Indices!E205</f>
+        <v>5.2425312555847307E-2</v>
+      </c>
+      <c r="F206" s="3">
+        <f>(Indices!G206-Indices!G205)/Indices!G205</f>
+        <v>1.8133147113593956E-2</v>
+      </c>
+      <c r="G206" s="3">
+        <f>(Indices!H206-Indices!H205)/Indices!H205</f>
+        <v>-7.5801853882188465E-3</v>
+      </c>
+      <c r="H206" s="3">
+        <f>(Indices!I206-Indices!I205)/Indices!I205</f>
+        <v>-7.5801853882188465E-3</v>
+      </c>
+      <c r="I206" s="2"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B207" s="3">
+        <f>(Indices!B207-Indices!B206)/Indices!B206</f>
+        <v>3.9371438438956527E-3</v>
+      </c>
+      <c r="C207" s="3">
+        <f>(Indices!C207-Indices!C206)/Indices!C206</f>
+        <v>1.5226084034477229E-3</v>
+      </c>
+      <c r="D207" s="3">
+        <f>(Indices!D207-Indices!D206)/Indices!D206</f>
+        <v>3.2666411974535104E-3</v>
+      </c>
+      <c r="E207" s="3">
+        <f>(Indices!E207-Indices!E206)/Indices!E206</f>
+        <v>5.4865025818131288E-3</v>
+      </c>
+      <c r="F207" s="3">
+        <f>(Indices!G207-Indices!G206)/Indices!G206</f>
+        <v>2.1422529093029115E-2</v>
+      </c>
+      <c r="G207" s="3">
+        <f>(Indices!H207-Indices!H206)/Indices!H206</f>
+        <v>1.9841421286924325E-3</v>
+      </c>
+      <c r="H207" s="3">
+        <f>(Indices!I207-Indices!I206)/Indices!I206</f>
+        <v>1.9841421286924325E-3</v>
+      </c>
+      <c r="I207" s="2"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B208" s="3">
+        <f>(Indices!B208-Indices!B207)/Indices!B207</f>
+        <v>3.2027245519281718E-2</v>
+      </c>
+      <c r="C208" s="3">
+        <f>(Indices!C208-Indices!C207)/Indices!C207</f>
+        <v>6.7490118894343734E-3</v>
+      </c>
+      <c r="D208" s="3">
+        <f>(Indices!D208-Indices!D207)/Indices!D207</f>
+        <v>7.0254404805709667E-3</v>
+      </c>
+      <c r="E208" s="3">
+        <f>(Indices!E208-Indices!E207)/Indices!E207</f>
+        <v>2.221397632316955E-2</v>
+      </c>
+      <c r="F208" s="3">
+        <f>(Indices!G208-Indices!G207)/Indices!G207</f>
+        <v>1.3609096606679166E-2</v>
+      </c>
+      <c r="G208" s="3">
+        <f>(Indices!H208-Indices!H207)/Indices!H207</f>
+        <v>4.8713482929833478E-3</v>
+      </c>
+      <c r="H208" s="3">
+        <f>(Indices!I208-Indices!I207)/Indices!I207</f>
+        <v>4.8713482929833478E-3</v>
+      </c>
+      <c r="I208" s="2"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B209" s="3">
+        <f>(Indices!B209-Indices!B208)/Indices!B208</f>
+        <v>4.4016666666666614E-2</v>
+      </c>
+      <c r="C209" s="3">
+        <f>(Indices!C209-Indices!C208)/Indices!C208</f>
+        <v>4.4186825277861786E-3</v>
+      </c>
+      <c r="D209" s="3">
+        <f>(Indices!D209-Indices!D208)/Indices!D208</f>
+        <v>1.1182678744412979E-2</v>
+      </c>
+      <c r="E209" s="3">
+        <f>(Indices!E209-Indices!E208)/Indices!E208</f>
+        <v>2.2748109365910464E-2</v>
+      </c>
+      <c r="F209" s="3">
+        <f>(Indices!G209-Indices!G208)/Indices!G208</f>
+        <v>1.9653740835615306E-2</v>
+      </c>
+      <c r="G209" s="3">
+        <f>(Indices!H209-Indices!H208)/Indices!H208</f>
+        <v>1.7943795021078644E-2</v>
+      </c>
+      <c r="H209" s="3">
+        <f>(Indices!I209-Indices!I208)/Indices!I208</f>
+        <v>1.7943795021078644E-2</v>
+      </c>
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B210" s="3">
+        <f>(Indices!B210-Indices!B209)/Indices!B209</f>
+        <v>4.8682173017672144E-2</v>
+      </c>
+      <c r="C210" s="3">
+        <f>(Indices!C210-Indices!C209)/Indices!C209</f>
+        <v>5.7518801170380841E-3</v>
+      </c>
+      <c r="D210" s="3">
+        <f>(Indices!D210-Indices!D209)/Indices!D209</f>
+        <v>-1.9033933343418376E-3</v>
+      </c>
+      <c r="E210" s="3">
+        <f>(Indices!E210-Indices!E209)/Indices!E209</f>
+        <v>2.8990321391681052E-2</v>
+      </c>
+      <c r="F210" s="3">
+        <f>(Indices!G210-Indices!G209)/Indices!G209</f>
+        <v>1.9794689652185182E-2</v>
+      </c>
+      <c r="G210" s="3">
+        <f>(Indices!H210-Indices!H209)/Indices!H209</f>
+        <v>-5.8628957248836877E-3</v>
+      </c>
+      <c r="H210" s="3">
+        <f>(Indices!I210-Indices!I209)/Indices!I209</f>
+        <v>-5.8628957248836877E-3</v>
+      </c>
+      <c r="I210" s="2"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B211" s="3">
+        <f>(Indices!B211-Indices!B210)/Indices!B210</f>
+        <v>-1.1721634026228783E-3</v>
+      </c>
+      <c r="C211" s="3">
+        <f>(Indices!C211-Indices!C210)/Indices!C210</f>
+        <v>6.8823559125119399E-3</v>
+      </c>
+      <c r="D211" s="3">
+        <f>(Indices!D211-Indices!D210)/Indices!D210</f>
+        <v>-8.6594848090660263E-3</v>
+      </c>
+      <c r="E211" s="3">
+        <f>(Indices!E211-Indices!E210)/Indices!E210</f>
+        <v>-4.7569140421166278E-2</v>
+      </c>
+      <c r="F211" s="3">
+        <f>(Indices!G211-Indices!G210)/Indices!G210</f>
+        <v>-3.4127590893645927E-2</v>
+      </c>
+      <c r="G211" s="3">
+        <f>(Indices!H211-Indices!H210)/Indices!H210</f>
+        <v>-1.4817802495800019E-2</v>
+      </c>
+      <c r="H211" s="3">
+        <f>(Indices!I211-Indices!I210)/Indices!I210</f>
+        <v>-1.4817802495800019E-2</v>
+      </c>
+      <c r="I211" s="2"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B212" s="3">
+        <f>(Indices!B212-Indices!B211)/Indices!B211</f>
+        <v>5.0058295929953485E-2</v>
+      </c>
+      <c r="C212" s="3">
+        <f>(Indices!C212-Indices!C211)/Indices!C211</f>
+        <v>-2.7372606072767563E-3</v>
+      </c>
+      <c r="D212" s="3">
+        <f>(Indices!D212-Indices!D211)/Indices!D211</f>
+        <v>-2.7602490169270822E-4</v>
+      </c>
+      <c r="E212" s="3">
+        <f>(Indices!E212-Indices!E211)/Indices!E211</f>
+        <v>6.9143873301234615E-2</v>
+      </c>
+      <c r="F212" s="3">
+        <f>(Indices!G212-Indices!G211)/Indices!G211</f>
+        <v>4.5513511136518518E-2</v>
+      </c>
+      <c r="G212" s="3">
+        <f>(Indices!H212-Indices!H211)/Indices!H211</f>
+        <v>9.3526463947288577E-4</v>
+      </c>
+      <c r="H212" s="3">
+        <f>(Indices!I212-Indices!I211)/Indices!I211</f>
+        <v>9.3526463947288577E-4</v>
+      </c>
+      <c r="I212" s="2"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B213" s="3">
+        <f>(Indices!B213-Indices!B212)/Indices!B212</f>
+        <v>-2.3549304769369245E-2</v>
+      </c>
+      <c r="C213" s="3">
+        <f>(Indices!C213-Indices!C212)/Indices!C212</f>
+        <v>7.0317142416973545E-3</v>
+      </c>
+      <c r="D213" s="3">
+        <f>(Indices!D213-Indices!D212)/Indices!D212</f>
+        <v>2.9606534676175022E-3</v>
+      </c>
+      <c r="E213" s="3">
+        <f>(Indices!E213-Indices!E212)/Indices!E212</f>
+        <v>-8.3337314184714628E-3</v>
+      </c>
+      <c r="F213" s="3">
+        <f>(Indices!G213-Indices!G212)/Indices!G212</f>
+        <v>-2.6392715190006542E-2</v>
+      </c>
+      <c r="G213" s="3">
+        <f>(Indices!H213-Indices!H212)/Indices!H212</f>
+        <v>1.2385775030536651E-2</v>
+      </c>
+      <c r="H213" s="3">
+        <f>(Indices!I213-Indices!I212)/Indices!I212</f>
+        <v>1.2385775030536651E-2</v>
+      </c>
+      <c r="I213" s="2"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B214" s="3">
+        <f>(Indices!B214-Indices!B213)/Indices!B213</f>
+        <v>3.8780834033191922E-2</v>
+      </c>
+      <c r="C214" s="3">
+        <f>(Indices!C214-Indices!C213)/Indices!C213</f>
+        <v>5.5417575332774259E-4</v>
+      </c>
+      <c r="D214" s="3">
+        <f>(Indices!D214-Indices!D213)/Indices!D213</f>
+        <v>-2.5580430123920937E-3</v>
+      </c>
+      <c r="E214" s="3">
+        <f>(Indices!E214-Indices!E213)/Indices!E213</f>
+        <v>4.3612874972629799E-2</v>
+      </c>
+      <c r="F214" s="3">
+        <f>(Indices!G214-Indices!G213)/Indices!G213</f>
+        <v>5.3654743390357772E-2</v>
+      </c>
+      <c r="G214" s="3">
+        <f>(Indices!H214-Indices!H213)/Indices!H213</f>
+        <v>-1.1304966326010392E-2</v>
+      </c>
+      <c r="H214" s="3">
+        <f>(Indices!I214-Indices!I213)/Indices!I213</f>
+        <v>-1.1304966326010392E-2</v>
+      </c>
+      <c r="I214" s="2"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B215" s="3">
+        <f>(Indices!B215-Indices!B214)/Indices!B214</f>
+        <v>-3.2911446744270906E-2</v>
+      </c>
+      <c r="C215" s="3">
+        <f>(Indices!C215-Indices!C214)/Indices!C214</f>
+        <v>-9.8276609886012393E-3</v>
+      </c>
+      <c r="D215" s="3">
+        <f>(Indices!D215-Indices!D214)/Indices!D214</f>
+        <v>-2.1544366789235367E-2</v>
+      </c>
+      <c r="E215" s="3">
+        <f>(Indices!E215-Indices!E214)/Indices!E214</f>
+        <v>-5.2585089106999758E-2</v>
+      </c>
+      <c r="F215" s="3">
+        <f>(Indices!G215-Indices!G214)/Indices!G214</f>
+        <v>-3.8786387863878669E-2</v>
+      </c>
+      <c r="G215" s="3">
+        <f>(Indices!H215-Indices!H214)/Indices!H214</f>
+        <v>-1.5255359807753114E-2</v>
+      </c>
+      <c r="H215" s="3">
+        <f>(Indices!I215-Indices!I214)/Indices!I214</f>
+        <v>-1.5255359807753114E-2</v>
+      </c>
+      <c r="I215" s="2"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B216" s="3">
+        <f>(Indices!B216-Indices!B215)/Indices!B215</f>
+        <v>-2.7018029281861949E-2</v>
+      </c>
+      <c r="C216" s="3">
+        <f>(Indices!C216-Indices!C215)/Indices!C215</f>
+        <v>1.8329874717756423E-2</v>
+      </c>
+      <c r="D216" s="3">
+        <f>(Indices!D216-Indices!D215)/Indices!D215</f>
+        <v>-1.1156917201874689E-2</v>
+      </c>
+      <c r="E216" s="3">
+        <f>(Indices!E216-Indices!E215)/Indices!E215</f>
+        <v>-3.136052086678269E-2</v>
+      </c>
+      <c r="F216" s="3">
+        <f>(Indices!G216-Indices!G215)/Indices!G215</f>
+        <v>-3.3633339020644901E-2</v>
+      </c>
+      <c r="G216" s="3">
+        <f>(Indices!H216-Indices!H215)/Indices!H215</f>
+        <v>-2.3079135359923987E-2</v>
+      </c>
+      <c r="H216" s="3">
+        <f>(Indices!I216-Indices!I215)/Indices!I215</f>
+        <v>-2.3079135359923987E-2</v>
+      </c>
+      <c r="I216" s="2"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B217" s="3">
+        <f>(Indices!B217-Indices!B216)/Indices!B216</f>
+        <v>6.9808465825710694E-2</v>
+      </c>
+      <c r="C217" s="3">
+        <f>(Indices!C217-Indices!C216)/Indices!C216</f>
+        <v>1.775391471188963E-2</v>
+      </c>
+      <c r="D217" s="3">
+        <f>(Indices!D217-Indices!D216)/Indices!D216</f>
+        <v>-2.7783507190534889E-2</v>
+      </c>
+      <c r="E217" s="3">
+        <f>(Indices!E217-Indices!E216)/Indices!E216</f>
+        <v>3.5773238773279988E-2</v>
+      </c>
+      <c r="F217" s="3">
+        <f>(Indices!G217-Indices!G216)/Indices!G216</f>
+        <v>6.0691664275782922E-3</v>
+      </c>
+      <c r="G217" s="3">
+        <f>(Indices!H217-Indices!H216)/Indices!H216</f>
+        <v>-2.5406905360118342E-2</v>
+      </c>
+      <c r="H217" s="3">
+        <f>(Indices!I217-Indices!I216)/Indices!I216</f>
+        <v>-2.5406905360118342E-2</v>
+      </c>
+      <c r="I217" s="2"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B218" s="3">
+        <f>(Indices!B218-Indices!B217)/Indices!B217</f>
+        <v>-1.2182120570299578E-2</v>
+      </c>
+      <c r="C218" s="3">
+        <f>(Indices!C218-Indices!C217)/Indices!C217</f>
+        <v>-9.4184147872912218E-3</v>
+      </c>
+      <c r="D218" s="3">
+        <f>(Indices!D218-Indices!D217)/Indices!D217</f>
+        <v>-3.7948342947936767E-2</v>
+      </c>
+      <c r="E218" s="3">
+        <f>(Indices!E218-Indices!E217)/Indices!E217</f>
+        <v>-8.7956719149039395E-2</v>
+      </c>
+      <c r="F218" s="3">
+        <f>(Indices!G218-Indices!G217)/Indices!G217</f>
+        <v>-1.1999298030097019E-2</v>
+      </c>
+      <c r="G218" s="3">
+        <f>(Indices!H218-Indices!H217)/Indices!H217</f>
+        <v>-3.1987003934948008E-2</v>
+      </c>
+      <c r="H218" s="3">
+        <f>(Indices!I218-Indices!I217)/Indices!I217</f>
+        <v>-3.1987003934948008E-2</v>
+      </c>
+      <c r="I218" s="2"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B219" s="3">
+        <f>(Indices!B219-Indices!B218)/Indices!B218</f>
+        <v>-9.9148103378806168E-2</v>
+      </c>
+      <c r="C219" s="3">
+        <f>(Indices!C219-Indices!C218)/Indices!C218</f>
+        <v>-3.4379081556697392E-3</v>
+      </c>
+      <c r="D219" s="3">
+        <f>(Indices!D219-Indices!D218)/Indices!D218</f>
+        <v>6.4467393293327754E-3</v>
+      </c>
+      <c r="E219" s="3">
+        <f>(Indices!E219-Indices!E218)/Indices!E218</f>
+        <v>5.3243883608711947E-5</v>
+      </c>
+      <c r="F219" s="3">
+        <f>(Indices!G219-Indices!G218)/Indices!G218</f>
+        <v>-1.5630897666466758E-2</v>
+      </c>
+      <c r="G219" s="3">
+        <f>(Indices!H219-Indices!H218)/Indices!H218</f>
+        <v>-1.8673531409145738E-2</v>
+      </c>
+      <c r="H219" s="3">
+        <f>(Indices!I219-Indices!I218)/Indices!I218</f>
+        <v>-1.8673531409145738E-2</v>
+      </c>
+      <c r="I219" s="2"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B220" s="3">
+        <f>(Indices!B220-Indices!B219)/Indices!B219</f>
+        <v>-2.0055269799686831E-2</v>
+      </c>
+      <c r="C220" s="3">
+        <f>(Indices!C220-Indices!C219)/Indices!C219</f>
+        <v>-2.9600242715831018E-3</v>
+      </c>
+      <c r="D220" s="3">
+        <f>(Indices!D220-Indices!D219)/Indices!D219</f>
+        <v>-1.5687280016782868E-2</v>
+      </c>
+      <c r="E220" s="3">
+        <f>(Indices!E220-Indices!E219)/Indices!E219</f>
+        <v>-8.391999322386641E-2</v>
+      </c>
+      <c r="F220" s="3">
+        <f>(Indices!G220-Indices!G219)/Indices!G219</f>
+        <v>-8.1538288034284492E-2</v>
+      </c>
+      <c r="G220" s="3">
+        <f>(Indices!H220-Indices!H219)/Indices!H219</f>
+        <v>-2.4819872043558077E-2</v>
+      </c>
+      <c r="H220" s="3">
+        <f>(Indices!I220-Indices!I219)/Indices!I219</f>
+        <v>-2.4819872043558077E-2</v>
+      </c>
+      <c r="I220" s="2"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B221" s="3">
+        <f>(Indices!B221-Indices!B220)/Indices!B220</f>
+        <v>6.9849135647510482E-2</v>
+      </c>
+      <c r="C221" s="3">
+        <f>(Indices!C221-Indices!C220)/Indices!C220</f>
+        <v>-4.1288421169699118E-3</v>
+      </c>
+      <c r="D221" s="3">
+        <f>(Indices!D221-Indices!D220)/Indices!D220</f>
+        <v>2.4434024817656382E-2</v>
+      </c>
+      <c r="E221" s="3">
+        <f>(Indices!E221-Indices!E220)/Indices!E220</f>
+        <v>9.1116347632205968E-2</v>
+      </c>
+      <c r="F221" s="3">
+        <f>(Indices!G221-Indices!G220)/Indices!G220</f>
+        <v>7.6350687622789862E-2</v>
+      </c>
+      <c r="G221" s="3">
+        <f>(Indices!H221-Indices!H220)/Indices!H220</f>
+        <v>4.4253733917422614E-2</v>
+      </c>
+      <c r="H221" s="3">
+        <f>(Indices!I221-Indices!I220)/Indices!I220</f>
+        <v>4.4253733917422614E-2</v>
+      </c>
+      <c r="I221" s="2"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B222" s="3">
+        <f>(Indices!B222-Indices!B221)/Indices!B221</f>
+        <v>-2.3822402352529051E-2</v>
+      </c>
+      <c r="C222" s="3">
+        <f>(Indices!C222-Indices!C221)/Indices!C221</f>
+        <v>2.6538487787021634E-3</v>
+      </c>
+      <c r="D222" s="3">
+        <f>(Indices!D222-Indices!D221)/Indices!D221</f>
+        <v>-2.8252557801931436E-2</v>
+      </c>
+      <c r="E222" s="3">
+        <f>(Indices!E222-Indices!E221)/Indices!E221</f>
+        <v>-4.2440119216810436E-2</v>
+      </c>
+      <c r="F222" s="3">
+        <f>(Indices!G222-Indices!G221)/Indices!G221</f>
+        <v>-5.2864541741769182E-2</v>
+      </c>
+      <c r="G222" s="3">
+        <f>(Indices!H222-Indices!H221)/Indices!H221</f>
+        <v>-5.6739631463255377E-2</v>
+      </c>
+      <c r="H222" s="3">
+        <f>(Indices!I222-Indices!I221)/Indices!I221</f>
+        <v>-5.6739631463255377E-2</v>
+      </c>
+      <c r="I222" s="2"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B223" s="3">
+        <f>(Indices!B223-Indices!B222)/Indices!B222</f>
+        <v>-8.2849472435537141E-2</v>
+      </c>
+      <c r="C223" s="3">
+        <f>(Indices!C223-Indices!C222)/Indices!C222</f>
+        <v>-3.0894057407163847E-2</v>
+      </c>
+      <c r="D223" s="3">
+        <f>(Indices!D223-Indices!D222)/Indices!D222</f>
+        <v>-4.3208936761375605E-2</v>
+      </c>
+      <c r="E223" s="3">
+        <f>(Indices!E223-Indices!E222)/Indices!E222</f>
+        <v>-9.3395701643489287E-2</v>
+      </c>
+      <c r="F223" s="3">
+        <f>(Indices!G223-Indices!G222)/Indices!G222</f>
+        <v>-6.5691848140296744E-2</v>
+      </c>
+      <c r="G223" s="3">
+        <f>(Indices!H223-Indices!H222)/Indices!H222</f>
+        <v>-4.549994233598556E-2</v>
+      </c>
+      <c r="H223" s="3">
+        <f>(Indices!I223-Indices!I222)/Indices!I222</f>
+        <v>-4.549994233598556E-2</v>
+      </c>
+      <c r="I223" s="2"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B224" s="3">
+        <f>(Indices!B224-Indices!B223)/Indices!B223</f>
+        <v>5.1633764465622928E-2</v>
+      </c>
+      <c r="C224" s="3">
+        <f>(Indices!C224-Indices!C223)/Indices!C223</f>
+        <v>-2.4148235173928567E-2</v>
+      </c>
+      <c r="D224" s="3">
+        <f>(Indices!D224-Indices!D223)/Indices!D223</f>
+        <v>-1.2953367875647647E-2</v>
+      </c>
+      <c r="E224" s="3">
+        <f>(Indices!E224-Indices!E223)/Indices!E223</f>
+        <v>7.9863454576893297E-2</v>
+      </c>
+      <c r="F224" s="3">
+        <f>(Indices!G224-Indices!G223)/Indices!G223</f>
+        <v>6.278200335181118E-2</v>
+      </c>
+      <c r="G224" s="3">
+        <f>(Indices!H224-Indices!H223)/Indices!H223</f>
+        <v>8.669602679490818E-3</v>
+      </c>
+      <c r="H224" s="3">
+        <f>(Indices!I224-Indices!I223)/Indices!I223</f>
+        <v>8.669602679490818E-3</v>
+      </c>
+      <c r="I224" s="2"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B225" s="3">
+        <f>(Indices!B225-Indices!B224)/Indices!B224</f>
+        <v>1.0850568016312144E-2</v>
+      </c>
+      <c r="C225" s="3">
+        <f>(Indices!C225-Indices!C224)/Indices!C224</f>
+        <v>-2.9067484983708643E-3</v>
+      </c>
+      <c r="D225" s="3">
+        <f>(Indices!D225-Indices!D224)/Indices!D224</f>
+        <v>3.6775633372124188E-2</v>
+      </c>
+      <c r="E225" s="3">
+        <f>(Indices!E225-Indices!E224)/Indices!E224</f>
+        <v>5.375286029369989E-2</v>
+      </c>
+      <c r="F225" s="3">
+        <f>(Indices!G225-Indices!G224)/Indices!G224</f>
+        <v>6.7540029112081595E-2</v>
+      </c>
+      <c r="G225" s="3">
+        <f>(Indices!H225-Indices!H224)/Indices!H224</f>
+        <v>2.4554896430248146E-2</v>
+      </c>
+      <c r="H225" s="3">
+        <f>(Indices!I225-Indices!I224)/Indices!I224</f>
+        <v>2.4554896430248146E-2</v>
+      </c>
+      <c r="I225" s="2"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B226" s="3">
+        <f>(Indices!B226-Indices!B225)/Indices!B225</f>
+        <v>-1.5168615773759532E-2</v>
+      </c>
+      <c r="C226" s="3">
+        <f>(Indices!C226-Indices!C225)/Indices!C225</f>
+        <v>1.1336064269415129E-3</v>
+      </c>
+      <c r="D226" s="3">
+        <f>(Indices!D226-Indices!D225)/Indices!D225</f>
+        <v>-4.5092103536912842E-3</v>
+      </c>
+      <c r="E226" s="3">
+        <f>(Indices!E226-Indices!E225)/Indices!E225</f>
+        <v>-5.897144929916108E-2</v>
+      </c>
+      <c r="F226" s="3">
+        <f>(Indices!G226-Indices!G225)/Indices!G225</f>
+        <v>-3.4428688301063617E-2</v>
+      </c>
+      <c r="G226" s="3">
+        <f>(Indices!H226-Indices!H225)/Indices!H225</f>
+        <v>-3.9365736638417526E-2</v>
+      </c>
+      <c r="H226" s="3">
+        <f>(Indices!I226-Indices!I225)/Indices!I225</f>
+        <v>-3.9365736638417526E-2</v>
+      </c>
+      <c r="I226" s="2"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B227" s="3">
+        <f>(Indices!B227-Indices!B226)/Indices!B226</f>
+        <v>4.7661621990669333E-2</v>
+      </c>
+      <c r="C227" s="3">
+        <f>(Indices!C227-Indices!C226)/Indices!C226</f>
+        <v>4.8504711183941489E-3</v>
+      </c>
+      <c r="D227" s="3">
+        <f>(Indices!D227-Indices!D226)/Indices!D226</f>
+        <v>3.076540100452485E-2</v>
+      </c>
+      <c r="E227" s="3">
+        <f>(Indices!E227-Indices!E226)/Indices!E226</f>
+        <v>6.1752832400052068E-2</v>
+      </c>
+      <c r="F227" s="3">
+        <f>(Indices!G227-Indices!G226)/Indices!G226</f>
+        <v>6.6652545364682611E-2</v>
+      </c>
+      <c r="G227" s="3">
+        <f>(Indices!H227-Indices!H226)/Indices!H226</f>
+        <v>2.3689071816676305E-2</v>
+      </c>
+      <c r="H227" s="3">
+        <f>(Indices!I227-Indices!I226)/Indices!I226</f>
+        <v>2.3689071816676305E-2</v>
+      </c>
+      <c r="I227" s="2"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B228" s="3">
+        <f>(Indices!B228-Indices!B227)/Indices!B227</f>
+        <v>3.6222439448245942E-2</v>
+      </c>
+      <c r="C228" s="3">
+        <f>(Indices!C228-Indices!C227)/Indices!C227</f>
+        <v>-1.0746726243864265E-2</v>
+      </c>
+      <c r="D228" s="3">
+        <f>(Indices!D228-Indices!D227)/Indices!D227</f>
+        <v>-2.5855210819411466E-2</v>
+      </c>
+      <c r="E228" s="3">
+        <f>(Indices!E228-Indices!E227)/Indices!E227</f>
+        <v>-2.6112446646715356E-2</v>
+      </c>
+      <c r="F228" s="3">
+        <f>(Indices!G228-Indices!G227)/Indices!G227</f>
+        <v>1.7431212903510591E-2</v>
+      </c>
+      <c r="G228" s="3">
+        <f>(Indices!H228-Indices!H227)/Indices!H227</f>
+        <v>-2.0673057252946461E-2</v>
+      </c>
+      <c r="H228" s="3">
+        <f>(Indices!I228-Indices!I227)/Indices!I227</f>
+        <v>-2.0673057252946461E-2</v>
+      </c>
+      <c r="I228" s="2"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B229" s="3">
+        <f>(Indices!B229-Indices!B228)/Indices!B228</f>
+        <v>-9.9500625154416607E-3</v>
+      </c>
+      <c r="C229" s="3">
+        <f>(Indices!C229-Indices!C228)/Indices!C228</f>
+        <v>2.1847284955985629E-2</v>
+      </c>
+      <c r="D229" s="3">
+        <f>(Indices!D229-Indices!D228)/Indices!D228</f>
+        <v>2.5399093896439753E-2</v>
+      </c>
+      <c r="E229" s="3">
+        <f>(Indices!E229-Indices!E228)/Indices!E228</f>
+        <v>3.5051572358727079E-2</v>
+      </c>
+      <c r="F229" s="3">
+        <f>(Indices!G229-Indices!G228)/Indices!G228</f>
+        <v>-7.0915833532129826E-3</v>
+      </c>
+      <c r="G229" s="3">
+        <f>(Indices!H229-Indices!H228)/Indices!H228</f>
+        <v>1.9709660835177393E-2</v>
+      </c>
+      <c r="H229" s="3">
+        <f>(Indices!I229-Indices!I228)/Indices!I228</f>
+        <v>1.9709660835177393E-2</v>
+      </c>
+      <c r="I229" s="2"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B230" s="3">
+        <f>(Indices!B230-Indices!B229)/Indices!B229</f>
+        <v>-2.6694293622105732E-2</v>
+      </c>
+      <c r="C230" s="3">
+        <f>(Indices!C230-Indices!C229)/Indices!C229</f>
+        <v>1.3567295236282173E-2</v>
+      </c>
+      <c r="D230" s="3">
+        <f>(Indices!D230-Indices!D229)/Indices!D229</f>
+        <v>6.0633068014278703E-3</v>
+      </c>
+      <c r="E230" s="3">
+        <f>(Indices!E230-Indices!E229)/Indices!E229</f>
+        <v>1.4642360882970416E-2</v>
+      </c>
+      <c r="F230" s="3">
+        <f>(Indices!G230-Indices!G229)/Indices!G229</f>
+        <v>1.9220688450113602E-2</v>
+      </c>
+      <c r="G230" s="3">
+        <f>(Indices!H230-Indices!H229)/Indices!H229</f>
+        <v>-1.9231816654761486E-4</v>
+      </c>
+      <c r="H230" s="3">
+        <f>(Indices!I230-Indices!I229)/Indices!I229</f>
+        <v>-1.9231816654761486E-4</v>
+      </c>
+      <c r="I230" s="2"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B231" s="3">
+        <f>(Indices!B231-Indices!B230)/Indices!B230</f>
+        <v>-0.1149190415514186</v>
+      </c>
+      <c r="C231" s="3">
+        <f>(Indices!C231-Indices!C230)/Indices!C230</f>
+        <v>8.4993545902091016E-4</v>
+      </c>
+      <c r="D231" s="3">
+        <f>(Indices!D231-Indices!D230)/Indices!D230</f>
+        <v>-1.0889642823484908E-2</v>
+      </c>
+      <c r="E231" s="3">
+        <f>(Indices!E231-Indices!E230)/Indices!E230</f>
+        <v>2.4823239348792572E-3</v>
+      </c>
+      <c r="F231" s="3">
+        <f>(Indices!G231-Indices!G230)/Indices!G230</f>
+        <v>-3.1887536430653174E-2</v>
+      </c>
+      <c r="G231" s="3">
+        <f>(Indices!H231-Indices!H230)/Indices!H230</f>
+        <v>1.2457286548444317E-3</v>
+      </c>
+      <c r="H231" s="3">
+        <f>(Indices!I231-Indices!I230)/Indices!I230</f>
+        <v>1.2457286548444317E-3</v>
+      </c>
+      <c r="I231" s="2"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B232" s="3">
+        <f>(Indices!B232-Indices!B231)/Indices!B231</f>
+        <v>-3.6868948444920822E-3</v>
+      </c>
+      <c r="C232" s="3">
+        <f>(Indices!C232-Indices!C231)/Indices!C231</f>
+        <v>8.3156148768242857E-3</v>
+      </c>
+      <c r="D232" s="3">
+        <f>(Indices!D232-Indices!D231)/Indices!D231</f>
+        <v>-3.568212892253422E-3</v>
+      </c>
+      <c r="E232" s="3">
+        <f>(Indices!E232-Indices!E231)/Indices!E231</f>
+        <v>6.4727512841431398E-2</v>
+      </c>
+      <c r="F232" s="3">
+        <f>(Indices!G232-Indices!G231)/Indices!G231</f>
+        <v>2.251195324951305E-2</v>
+      </c>
+      <c r="G232" s="3">
+        <f>(Indices!H232-Indices!H231)/Indices!H231</f>
+        <v>-3.2221533151777742E-3</v>
+      </c>
+      <c r="H232" s="3">
+        <f>(Indices!I232-Indices!I231)/Indices!I231</f>
+        <v>-3.2221533151777742E-3</v>
+      </c>
+      <c r="I232" s="2"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B233" s="3">
+        <f>(Indices!B233-Indices!B232)/Indices!B232</f>
+        <v>5.5490453492162806E-2</v>
+      </c>
+      <c r="C233" s="3">
+        <f>(Indices!C233-Indices!C232)/Indices!C232</f>
+        <v>-4.0344075981869768E-3</v>
+      </c>
+      <c r="D233" s="3">
+        <f>(Indices!D233-Indices!D232)/Indices!D232</f>
+        <v>-6.932491872250039E-4</v>
+      </c>
+      <c r="E233" s="3">
+        <f>(Indices!E233-Indices!E232)/Indices!E232</f>
+        <v>3.1138913980379185E-2</v>
+      </c>
+      <c r="F233" s="3">
+        <f>(Indices!G233-Indices!G232)/Indices!G232</f>
+        <v>2.0392700192669918E-2</v>
+      </c>
+      <c r="G233" s="3">
+        <f>(Indices!H233-Indices!H232)/Indices!H232</f>
+        <v>4.2851346259745711E-3</v>
+      </c>
+      <c r="H233" s="3">
+        <f>(Indices!I233-Indices!I232)/Indices!I232</f>
+        <v>4.2851346259745711E-3</v>
+      </c>
+      <c r="I233" s="2"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B234" s="3">
+        <f>(Indices!B234-Indices!B233)/Indices!B233</f>
+        <v>-3.1637380525063345E-3</v>
+      </c>
+      <c r="C234" s="3">
+        <f>(Indices!C234-Indices!C233)/Indices!C233</f>
+        <v>-9.6153846153845986E-3</v>
+      </c>
+      <c r="D234" s="3">
+        <f>(Indices!D234-Indices!D233)/Indices!D233</f>
+        <v>-6.3871014042053958E-3</v>
+      </c>
+      <c r="E234" s="3">
+        <f>(Indices!E234-Indices!E233)/Indices!E233</f>
+        <v>-1.7716432481433741E-2</v>
+      </c>
+      <c r="F234" s="3">
+        <f>(Indices!G234-Indices!G233)/Indices!G233</f>
+        <v>-2.7919804815954227E-2</v>
+      </c>
+      <c r="G234" s="3">
+        <f>(Indices!H234-Indices!H233)/Indices!H233</f>
+        <v>1.4314223172013987E-3</v>
+      </c>
+      <c r="H234" s="3">
+        <f>(Indices!I234-Indices!I233)/Indices!I233</f>
+        <v>1.4314223172013987E-3</v>
+      </c>
+      <c r="I234" s="2"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B235" s="3">
+        <f>(Indices!B235-Indices!B234)/Indices!B234</f>
+        <v>-6.9940376498961593E-2</v>
+      </c>
+      <c r="C235" s="3">
+        <f>(Indices!C235-Indices!C234)/Indices!C234</f>
+        <v>-1.2932192332783239E-2</v>
+      </c>
+      <c r="D235" s="3">
+        <f>(Indices!D235-Indices!D234)/Indices!D234</f>
+        <v>-2.5414098613251251E-2</v>
+      </c>
+      <c r="E235" s="3">
+        <f>(Indices!E235-Indices!E234)/Indices!E234</f>
+        <v>-4.8719291162155016E-2</v>
+      </c>
+      <c r="F235" s="3">
+        <f>(Indices!G235-Indices!G234)/Indices!G234</f>
+        <v>-1.7394530653222398E-2</v>
+      </c>
+      <c r="G235" s="3">
+        <f>(Indices!H235-Indices!H234)/Indices!H234</f>
+        <v>-1.9760070354514995E-2</v>
+      </c>
+      <c r="H235" s="3">
+        <f>(Indices!I235-Indices!I234)/Indices!I234</f>
+        <v>-1.9760070354514995E-2</v>
+      </c>
+      <c r="I235" s="2"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B236" s="3">
+        <f>(Indices!B236-Indices!B235)/Indices!B235</f>
+        <v>-5.1474825325938257E-2</v>
+      </c>
+      <c r="C236" s="3">
+        <f>(Indices!C236-Indices!C235)/Indices!C235</f>
+        <v>7.3170178576056344E-3</v>
+      </c>
+      <c r="D236" s="3">
+        <f>(Indices!D236-Indices!D235)/Indices!D235</f>
+        <v>-1.578047647750519E-2</v>
+      </c>
+      <c r="E236" s="3">
+        <f>(Indices!E236-Indices!E235)/Indices!E235</f>
+        <v>-2.1979687736850082E-2</v>
+      </c>
+      <c r="F236" s="3">
+        <f>(Indices!G236-Indices!G235)/Indices!G235</f>
+        <v>-3.6782017680245215E-2</v>
+      </c>
+      <c r="G236" s="3">
+        <f>(Indices!H236-Indices!H235)/Indices!H235</f>
+        <v>2.3729889861559654E-3</v>
+      </c>
+      <c r="H236" s="3">
+        <f>(Indices!I236-Indices!I235)/Indices!I235</f>
+        <v>2.3729889861559654E-3</v>
+      </c>
+      <c r="I236" s="2"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B237" s="3">
+        <f>(Indices!B237-Indices!B236)/Indices!B236</f>
+        <v>4.9094895915403405E-2</v>
+      </c>
+      <c r="C237" s="3">
+        <f>(Indices!C237-Indices!C236)/Indices!C236</f>
+        <v>1.8043081475287333E-2</v>
+      </c>
+      <c r="D237" s="3">
+        <f>(Indices!D237-Indices!D236)/Indices!D236</f>
+        <v>4.5284325930685536E-2</v>
+      </c>
+      <c r="E237" s="3">
+        <f>(Indices!E237-Indices!E236)/Indices!E236</f>
+        <v>8.9179264628737653E-2</v>
+      </c>
+      <c r="F237" s="3">
+        <f>(Indices!G237-Indices!G236)/Indices!G236</f>
+        <v>6.4451413549785522E-2</v>
+      </c>
+      <c r="G237" s="3">
+        <f>(Indices!H237-Indices!H236)/Indices!H236</f>
+        <v>2.964811077127031E-2</v>
+      </c>
+      <c r="H237" s="3">
+        <f>(Indices!I237-Indices!I236)/Indices!I236</f>
+        <v>2.964811077127031E-2</v>
+      </c>
+      <c r="I237" s="2"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B238" s="3">
+        <f>(Indices!B238-Indices!B237)/Indices!B237</f>
+        <v>0.10566508926067009</v>
+      </c>
+      <c r="C238" s="3">
+        <f>(Indices!C238-Indices!C237)/Indices!C237</f>
+        <v>-1.2163048028244661E-3</v>
+      </c>
+      <c r="D238" s="3">
+        <f>(Indices!D238-Indices!D237)/Indices!D237</f>
+        <v>3.8279970609281143E-2</v>
+      </c>
+      <c r="E238" s="3">
+        <f>(Indices!E238-Indices!E237)/Indices!E237</f>
+        <v>4.4229169403213746E-2</v>
+      </c>
+      <c r="F238" s="3">
+        <f>(Indices!G238-Indices!G237)/Indices!G237</f>
+        <v>3.7650830787894531E-2</v>
+      </c>
+      <c r="G238" s="3">
+        <f>(Indices!H238-Indices!H237)/Indices!H237</f>
+        <v>3.5634578929452931E-2</v>
+      </c>
+      <c r="H238" s="3">
+        <f>(Indices!I238-Indices!I237)/Indices!I237</f>
+        <v>3.5634578929452931E-2</v>
+      </c>
+      <c r="I238" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>